--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="173">
   <si>
     <t>Banda</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Shows que já fui</t>
-  </si>
-  <si>
     <t>The Police</t>
   </si>
   <si>
@@ -507,6 +504,45 @@
   </si>
   <si>
     <t>Jeunesse Arena</t>
+  </si>
+  <si>
+    <t>Ego Kill Talent</t>
+  </si>
+  <si>
+    <t>Foo Fighters Concrete and Gold Tour</t>
+  </si>
+  <si>
+    <t>Queens Of The Stone Age</t>
+  </si>
+  <si>
+    <t>Sassá</t>
+  </si>
+  <si>
+    <t>Viradão Cultural</t>
+  </si>
+  <si>
+    <t>Raimundos Lavô Tá Novo</t>
+  </si>
+  <si>
+    <t>Matanza Pior Cenário Possível</t>
+  </si>
+  <si>
+    <t>Exodus Blood In Blood Out Tour</t>
+  </si>
+  <si>
+    <t>IRON MAIDEN THE BOOK OF SOULS TOUR</t>
+  </si>
+  <si>
+    <t>Soulfly Archangel Tour</t>
+  </si>
+  <si>
+    <t>Project46 Que Seja Feita a Nossa Vontade</t>
+  </si>
+  <si>
+    <t>Megadeth Dystopia Tour</t>
+  </si>
+  <si>
+    <t>Suicidal Tendencies World Gone Mad Tour</t>
   </si>
 </sst>
 </file>
@@ -522,18 +558,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -586,10 +616,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -607,10 +637,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,10 +665,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -656,22 +704,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -954,187 +999,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154:B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>39424</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2007</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="8">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="8">
+        <f>COUNTIF(E2:E1000,"2007")</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="8">
+        <f>SUM(K2:K51)</f>
+        <v>113</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4">
+        <f>COUNTIF(C1:C1015,"Matanza")</f>
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <f>COUNTIF(F2:F1050,"Maracanã")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="7">
         <v>39424</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>2007</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="4">
+        <v>2012</v>
+      </c>
+      <c r="K3" s="4">
+        <f>COUNTIF(E2:E1000,"2012")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="4">
+        <f>COUNTIF(C1:C1022,"Exodus")</f>
+        <v>3</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="8">
-        <v>2007</v>
-      </c>
-      <c r="K3" s="8">
-        <f>COUNTIF(E3:E1000,"2007")</f>
+      <c r="P3" s="3">
+        <f>COUNTIF(F2:F1050,"Quinta da Boa Vista")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="L3" s="8">
-        <f>SUM(K3:K51)</f>
-        <v>109</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="4">
-        <f>COUNTIF(C1:C1015,"Matanza")</f>
-        <v>7</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="2">
-        <f>COUNTIF(F3:F1050,"Maracanã")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24"/>
+      <c r="B4" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>39424</v>
+        <v>41034</v>
       </c>
       <c r="E4" s="4">
-        <v>2007</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+        <v>2012</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="K4" s="4">
-        <f>COUNTIF(E3:E1000,"2012")</f>
-        <v>3</v>
+        <f>COUNTIF(E2:E1000,"2013")</f>
+        <v>11</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N4" s="4">
-        <f>COUNTIF(C1:C1022,"Exodus")</f>
+        <f>COUNTIF(C1:C1027,"Metal Jam")</f>
         <v>3</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="3">
-        <f>COUNTIF(F3:F1050,"Quinta da Boa Vista")</f>
-        <v>1</v>
+        <f>COUNTIF(F2:F1050,"Circo Voador")</f>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <f>(A3+1)</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1144,78 +1210,83 @@
       <c r="E5" s="4">
         <v>2012</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="K5" s="4">
-        <f>COUNTIF(E3:E1000,"2013")</f>
-        <v>11</v>
+        <f>COUNTIF(E2:E1000,"2014")</f>
+        <v>10</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N5" s="4">
-        <f>COUNTIF(C1:C1027,"Metal Jam")</f>
-        <v>3</v>
+        <f>COUNTIF(C1:C1031,"Black Sabbath")</f>
+        <v>2</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="3">
-        <f>COUNTIF(F3:F1050,"Circo Voador")</f>
-        <v>22</v>
+        <f>COUNTIF(F2:F1050,"Fundição Progresso")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="4">
+        <f t="shared" ref="A6" si="0">(A4+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41034</v>
+        <v>41202</v>
       </c>
       <c r="E6" s="4">
         <v>2012</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="F6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="K6" s="4">
-        <f>COUNTIF(E3:E1000,"2014")</f>
-        <v>10</v>
+        <f>COUNTIF(E2:E1000,"2015")</f>
+        <v>24</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N6" s="4">
-        <f>COUNTIF(C1:C1031,"Black Sabbath")</f>
+        <f>COUNTIF(C1:C1027,"Cavalera Conspiracy")</f>
         <v>2</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="3">
-        <f>COUNTIF(F3:F1050,"Fundição Progresso")</f>
-        <v>2</v>
+        <f>COUNTIF(F2:F1050,"Rock In Rio")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" ref="A7" si="0">(A5+1)</f>
-        <v>3</v>
+        <f>(A6+1)</f>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -1224,93 +1295,88 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>41202</v>
+        <v>41419</v>
       </c>
       <c r="E7" s="4">
-        <v>2012</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+        <v>2013</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="K7" s="4">
-        <f>COUNTIF(E3:E1000,"2015")</f>
-        <v>23</v>
+        <f>COUNTIF(E2:E1000,"2016")</f>
+        <v>34</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N7" s="4">
-        <f>COUNTIF(C1:C1027,"Cavalera Conspiracy")</f>
+        <f>COUNTIF(C1:C1008,"Claustrofobia")</f>
         <v>2</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="3">
-        <f>COUNTIF(F3:F1050,"Rock In Rio")</f>
-        <v>6</v>
+        <f>COUNTIF(F2:F1050,"Praça da Apoteose")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f>(A7+1)</f>
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>41419</v>
+        <v>41468</v>
       </c>
       <c r="E8" s="4">
         <v>2013</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="K8" s="4">
-        <f>COUNTIF(E3:E1000,"2016")</f>
-        <v>34</v>
+        <f>COUNTIF(E2:E1000,"2017")</f>
+        <v>26</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N8" s="4">
-        <f>COUNTIF(C1:C1008,"Claustrofobia")</f>
+        <f>COUNTIF(C1:C1028,"Hatefulmurder")</f>
         <v>2</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P8" s="3">
-        <f>COUNTIF(F3:F1050,"Praça da Apoteose")</f>
-        <v>2</v>
+        <f>COUNTIF(F2:F1050,"Centro Cultural Banco do Brasil")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>95</v>
-      </c>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1320,40 +1386,38 @@
       <c r="E9" s="4">
         <v>2013</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="4">
-        <v>2017</v>
-      </c>
-      <c r="K9" s="4">
-        <f>COUNTIF(E3:E1000,"2017")</f>
-        <v>26</v>
+        <v>2018</v>
+      </c>
+      <c r="K9" s="23">
+        <f>COUNTIF(E2:E1000,"2018")</f>
+        <v>3</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N9" s="4">
-        <f>COUNTIF(C1:C1028,"Hatefulmurder")</f>
+        <f>COUNTIF(C1:C1031,"Krisiun")</f>
         <v>2</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P9" s="3">
-        <f>COUNTIF(F3:F1050,"Centro Cultural Banco do Brasil")</f>
+        <f>COUNTIF(F2:F1050,"Arena Anhembi - SP")</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
         <v>41468</v>
@@ -1361,71 +1425,73 @@
       <c r="E10" s="4">
         <v>2013</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N10" s="4">
-        <f>COUNTIF(C1:C1031,"Krisiun")</f>
+        <f>COUNTIF(C1:C1037,"Megadeth")</f>
         <v>2</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="P10" s="3">
-        <f>COUNTIF(F3:F1050,"Arena Anhembi - SP")</f>
-        <v>1</v>
+        <f>COUNTIF(F2:F1050,"Imperator")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="30">
+        <v>6</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>41468</v>
+        <v>41536</v>
       </c>
       <c r="E11" s="4">
         <v>2013</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="F11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N11" s="4">
-        <f>COUNTIF(C1:C1037,"Megadeth")</f>
+        <f>COUNTIF(C1:C1016,"Ratos de Porão")</f>
         <v>2</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="P11" s="3">
-        <f>COUNTIF(F3:F1050,"Imperator")</f>
-        <v>4</v>
+        <f>COUNTIF(F2:F1050,"Clube Recreativo Caxiense")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>6</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>117</v>
-      </c>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
         <v>41536</v>
@@ -1433,33 +1499,31 @@
       <c r="E12" s="4">
         <v>2013</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="4">
-        <f>COUNTIF(C1:C1016,"Ratos de Porão")</f>
+      <c r="M12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="3">
+        <f>COUNTIF(C1:C998, "Test")</f>
         <v>2</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="P12" s="3">
-        <f>COUNTIF(F3:F1050,"Clube Recreativo Caxiense")</f>
+        <f>COUNTIF(F2:F1050,"Carioca Club")</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1469,31 +1533,31 @@
       <c r="E13" s="4">
         <v>2013</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="3">
-        <f>COUNTIF(C1:C998, "Test")</f>
-        <v>2</v>
+      <c r="M13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4">
+        <f>COUNTIF(C2:C1042,"Alice In Chains")</f>
+        <v>1</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P13" s="3">
-        <f>COUNTIF(F3:F1050,"Carioca Club")</f>
+        <f>COUNTIF(F2:F1050,"HSBC Arena")</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1503,31 +1567,31 @@
       <c r="E14" s="4">
         <v>2013</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="N14" s="4">
-        <f>COUNTIF(C3:C1042,"Alice In Chains")</f>
+        <f>COUNTIF(C2:C1017,"Anthrax")</f>
         <v>1</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P14" s="3">
-        <f>COUNTIF(F3:F1050,"HSBC Arena")</f>
+        <f>COUNTIF(F2:F1030, "Casa de Cultura Chico Science")</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1537,69 +1601,71 @@
       <c r="E15" s="4">
         <v>2013</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="4">
-        <f>COUNTIF(C3:C1017,"Anthrax")</f>
+      <c r="M15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="3">
+        <f>COUNTIF(C2:C967,"Armahda")</f>
         <v>1</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>79</v>
       </c>
       <c r="P15" s="3">
-        <f>COUNTIF(F3:F1030, "Casa de Cultura Chico Science")</f>
-        <v>1</v>
+        <f>COUNTIF(F2:F1030, "Espaço das Américas")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="30">
+        <v>7</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>41536</v>
+        <v>41560</v>
       </c>
       <c r="E16" s="4">
         <v>2013</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="F16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="3">
-        <f>COUNTIF(C3:C967,"Armahda")</f>
+      <c r="M16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="4">
+        <f>COUNTIF(C2:C1048,"Biquini Cavadão")</f>
         <v>1</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="P16" s="3">
-        <f>COUNTIF(F3:F1030, "Espaço das Américas")</f>
-        <v>2</v>
+        <f>COUNTIF(F2:F1030,"Teatro Odisseia")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>7</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1609,67 +1675,67 @@
       <c r="E17" s="4">
         <v>2013</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="4">
-        <f>COUNTIF(C3:C1048,"Biquini Cavadão")</f>
+      <c r="M17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="3">
+        <f>COUNTIF(C2:C1025,"Cólera")</f>
         <v>1</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="P17" s="3">
-        <f>COUNTIF(F3:F1030,"Teatro Odisseia")</f>
-        <v>1</v>
+        <f>COUNTIF(F2:F1030,"Terreirão do Samba")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>41560</v>
+        <v>41664</v>
       </c>
       <c r="E18" s="4">
-        <v>2013</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+        <v>2014</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="3">
-        <f>COUNTIF(C3:C1025,"Cólera")</f>
+      <c r="M18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="4">
+        <f>COUNTIF(C2:C1027,"De La Tierra")</f>
         <v>1</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P18" s="3">
-        <f>COUNTIF(F3:F1030,"Terreirão do Samba")</f>
-        <v>2</v>
-      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>8</v>
+        <f t="shared" ref="A19:A36" si="1">(A18+1)</f>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
@@ -1678,25 +1744,25 @@
         <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>41664</v>
+        <v>41749</v>
       </c>
       <c r="E19" s="4">
         <v>2014</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="F19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N19" s="4">
-        <f>COUNTIF(C3:C1027,"De La Tierra")</f>
+        <f>COUNTIF(C2:C1026,"Faith No More")</f>
         <v>1</v>
       </c>
       <c r="O19" s="11"/>
@@ -1704,36 +1770,36 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" ref="A20:A37" si="1">(A19+1)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>41749</v>
+        <v>41769</v>
       </c>
       <c r="E20" s="4">
         <v>2014</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="F20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N20" s="4">
-        <f>COUNTIF(C3:C1026,"Faith No More")</f>
-        <v>1</v>
+        <f>COUNTIF(C2:C1038,"Foo Fighters")</f>
+        <v>2</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -1741,7 +1807,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
@@ -1750,76 +1816,71 @@
         <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>41769</v>
+        <v>41826</v>
       </c>
       <c r="E21" s="4">
         <v>2014</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="F21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N21" s="4">
-        <f>COUNTIF(C3:C1038,"Foo Fighters")</f>
-        <v>1</v>
+        <f>COUNTIF(C2:C1051,"Ghost B.C.")</f>
+        <v>2</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>41826</v>
+        <v>41893</v>
       </c>
       <c r="E22" s="4">
         <v>2014</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="F22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="4">
-        <f>COUNTIF(C3:C1051,"Ghost B.C.")</f>
-        <v>2</v>
+      <c r="M22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <f>COUNTIF(C2:C1007, "H2O")</f>
+        <v>1</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7">
         <v>41893</v>
@@ -1827,30 +1888,28 @@
       <c r="E23" s="4">
         <v>2014</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N23" s="3">
-        <f>COUNTIF(C3:C1007, "H2O")</f>
+      <c r="M23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="4">
+        <f>COUNTIF(C2:C1034,"Hollywood Vampires")</f>
         <v>1</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
         <v>41893</v>
@@ -1858,97 +1917,99 @@
       <c r="E24" s="4">
         <v>2014</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N24" s="4">
-        <f>COUNTIF(C3:C1034,"Hollywood Vampires")</f>
+        <f>COUNTIF(C2:C1026,"IRON MAIDEN")</f>
         <v>1</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="4">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>41893</v>
+        <v>41909</v>
       </c>
       <c r="E25" s="4">
         <v>2014</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="F25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N25" s="4">
-        <f>COUNTIF(C3:C1026,"IRON MAIDEN")</f>
+        <f>COUNTIF(C2:C1041,"Judas Priest")</f>
         <v>1</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>13</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="30">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
-        <v>41909</v>
+        <v>41917</v>
       </c>
       <c r="E26" s="4">
         <v>2014</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="F26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N26" s="4">
-        <f>COUNTIF(C3:C1041,"Judas Priest")</f>
+        <f>COUNTIF(C2:C1038,"KoRn")</f>
         <v>1</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="7">
         <v>41917</v>
@@ -1956,63 +2017,63 @@
       <c r="E27" s="4">
         <v>2014</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N27" s="4">
-        <f>COUNTIF(C3:C1038,"KoRn")</f>
-        <v>1</v>
+        <f>COUNTIF(C2:C1074,"Korzus")</f>
+        <v>2</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="30">
+        <v>15</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>41917</v>
+        <v>42029</v>
       </c>
       <c r="E28" s="4">
-        <v>2014</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+        <v>2015</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N28" s="4">
-        <f>COUNTIF(C3:C1074,"Korzus")</f>
-        <v>2</v>
+        <f>COUNTIF(C2:C1036,"Mastodon")</f>
+        <v>1</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>15</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D29" s="7">
         <v>42029</v>
@@ -2020,28 +2081,26 @@
       <c r="E29" s="4">
         <v>2015</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N29" s="4">
-        <f>COUNTIF(C3:C1036,"Mastodon")</f>
-        <v>1</v>
+        <f>COUNTIF(C2:C1057,"Metallica")</f>
+        <v>2</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2051,95 +2110,97 @@
       <c r="E30" s="4">
         <v>2015</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N30" s="4">
-        <f>COUNTIF(C3:C1057,"Metallica")</f>
-        <v>2</v>
+        <f>COUNTIF(C2:C1054,"Misfits")</f>
+        <v>1</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="4">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D31" s="7">
-        <v>42029</v>
+        <v>42035</v>
       </c>
       <c r="E31" s="4">
         <v>2015</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="F31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N31" s="4">
-        <f>COUNTIF(C3:C1054,"Misfits")</f>
+        <f>COUNTIF(C2:C1048,"Motorhead(CANCELADO)")</f>
         <v>1</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>16</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>77</v>
+      <c r="A32" s="30">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D32" s="7">
-        <v>42035</v>
+        <v>42119</v>
       </c>
       <c r="E32" s="4">
         <v>2015</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="F32" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N32" s="4">
-        <f>COUNTIF(C3:C1048,"Motorhead(CANCELADO)")</f>
+        <f>COUNTIF(C2:C1047,"Ozzy Osbourne")</f>
         <v>1</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>118</v>
-      </c>
+      <c r="A33" s="30"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
@@ -2149,28 +2210,26 @@
       <c r="E33" s="4">
         <v>2015</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="N33" s="4">
-        <f>COUNTIF(C3:C1047,"Ozzy Osbourne")</f>
+        <f>COUNTIF(C2:C1037,"Pearl Jam")</f>
         <v>1</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
@@ -2180,97 +2239,99 @@
       <c r="E34" s="4">
         <v>2015</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="N34" s="4">
-        <f>COUNTIF(C3:C1037,"Pearl Jam")</f>
-        <v>1</v>
+        <f>COUNTIF(C2:C1078,"Plebe Rude")</f>
+        <v>3</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="4">
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D35" s="7">
-        <v>42119</v>
+        <v>42190</v>
       </c>
       <c r="E35" s="4">
         <v>2015</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="F35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="4">
-        <f>COUNTIF(C3:C1078,"Plebe Rude")</f>
-        <v>3</v>
+      <c r="M35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="3">
+        <f>COUNTIF(C2:C1022, "Project46")</f>
+        <v>1</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>18</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>28</v>
+      <c r="A36" s="30">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D36" s="7">
-        <v>42190</v>
+        <v>42203</v>
       </c>
       <c r="E36" s="4">
         <v>2015</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="F36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N36" s="3">
-        <f>COUNTIF(C3:C1022, "Project46")</f>
-        <v>1</v>
+      <c r="M36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="4">
+        <f>COUNTIF(C2:C1081,"Raimundos")</f>
+        <v>3</v>
       </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>40</v>
-      </c>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="7">
         <v>42203</v>
@@ -2278,63 +2339,63 @@
       <c r="E37" s="4">
         <v>2015</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="4">
-        <f>COUNTIF(C3:C1081,"Raimundos")</f>
-        <v>3</v>
+      <c r="M37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N37" s="3">
+        <f>COUNTIF(C2:C1030,"Sabaton")</f>
+        <v>1</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="30">
+        <v>20</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" s="7">
-        <v>42203</v>
+        <v>42266</v>
       </c>
       <c r="E38" s="4">
         <v>2015</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="F38" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N38" s="3">
-        <f>COUNTIF(C3:C1030,"Sabaton")</f>
-        <v>1</v>
+      <c r="M38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="4">
+        <f>COUNTIF(C2:C1084,"Sepultura")</f>
+        <v>4</v>
       </c>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>20</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>117</v>
-      </c>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D39" s="7">
         <v>42266</v>
@@ -2342,96 +2403,94 @@
       <c r="E39" s="4">
         <v>2015</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="4"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N39" s="4">
-        <f>COUNTIF(C3:C1084,"Sepultura")</f>
-        <v>4</v>
+      <c r="M39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N39" s="3">
+        <f>COUNTIF(C2:C990,"Sinaya")</f>
+        <v>1</v>
       </c>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="30">
+        <v>21</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="C40" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D40" s="7">
-        <v>42266</v>
+        <v>42271</v>
       </c>
       <c r="E40" s="4">
         <v>2015</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="F40" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N40" s="3">
-        <f>COUNTIF(C3:C990,"Sinaya")</f>
+      <c r="M40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="4">
+        <f>COUNTIF(C2:C1046,"Slipknot")</f>
         <v>1</v>
       </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>21</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="24">
         <v>42271</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="23">
         <v>2015</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N41" s="4">
-        <f>COUNTIF(C3:C1046,"Slipknot")</f>
+        <f>COUNTIF(C2:C1041,"Soulfly")</f>
         <v>1</v>
       </c>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="7">
         <v>42271</v>
@@ -2439,32 +2498,32 @@
       <c r="E42" s="4">
         <v>2015</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N42" s="4">
-        <f>COUNTIF(C3:C1041,"Soulfly")</f>
+      <c r="M42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N42" s="3">
+        <f>COUNTIF(C2:C992,"Suicidal Tendencies")</f>
         <v>1</v>
       </c>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="30">
         <v>22</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>117</v>
+      <c r="B43" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="7">
         <v>42272</v>
@@ -2472,30 +2531,30 @@
       <c r="E43" s="4">
         <v>2015</v>
       </c>
-      <c r="F43" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="F43" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N43" s="3">
-        <f>COUNTIF(C3:C992,"Suicidal Tendencies")</f>
+      <c r="M43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="4">
+        <f>COUNTIF(C2:C1053,"System Of A Down")</f>
         <v>1</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="7">
         <v>42272</v>
@@ -2503,28 +2562,28 @@
       <c r="E44" s="4">
         <v>2015</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N44" s="4">
-        <f>COUNTIF(C3:C1053,"System Of A Down")</f>
-        <v>1</v>
+        <f>COUNTIF(C2:C1043,"Titãs")</f>
+        <v>2</v>
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="7">
         <v>42272</v>
@@ -2532,28 +2591,28 @@
       <c r="E45" s="4">
         <v>2015</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N45" s="4">
-        <f>COUNTIF(C3:C1043,"Titãs")</f>
-        <v>2</v>
+      <c r="M45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N45" s="3">
+        <f>COUNTIF(C2:C1029,"Violator")</f>
+        <v>1</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="7">
         <v>42272</v>
@@ -2561,97 +2620,97 @@
       <c r="E46" s="4">
         <v>2015</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N46" s="3">
-        <f>COUNTIF(C3:C1029,"Violator")</f>
+      <c r="M46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="4">
+        <f>COUNTIF(C2:C1060,"Zumbis do Espaço")</f>
         <v>1</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="A47" s="30">
         <v>23</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="26">
+      <c r="B47" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="31">
         <v>42308</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="30">
         <v>2015</v>
       </c>
-      <c r="F47" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="F47" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N47" s="4">
-        <f>COUNTIF(C3:C1060,"Zumbis do Espaço")</f>
-        <v>1</v>
+        <f>COUNTIF(C2:C1090,"Paralamas do Sucesso")</f>
+        <v>2</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N48" s="4">
-        <f>COUNTIF(C3:C1090,"Paralamas do Sucesso")</f>
+        <f>COUNTIF(C2:C1079,"Rob Zombie")</f>
         <v>2</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="30">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>49</v>
+      <c r="B49" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="7">
         <v>42321</v>
@@ -2659,30 +2718,30 @@
       <c r="E49" s="6">
         <v>2015</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
+      <c r="F49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N49" s="4">
-        <f>COUNTIF(C3:C1079,"Rob Zombie")</f>
-        <v>2</v>
+        <f>COUNTIF(C2:C1097,"The Police")</f>
+        <v>1</v>
       </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="7">
         <v>42321</v>
@@ -2690,18 +2749,18 @@
       <c r="E50" s="6">
         <v>2015</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N50" s="4">
-        <f>COUNTIF(C3:C1097,"The Police")</f>
+        <f>COUNTIF(C2:C1075,"Violeta de Outono")</f>
         <v>1</v>
       </c>
       <c r="O50" s="11"/>
@@ -2712,10 +2771,10 @@
         <v>25</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="7">
         <v>42330</v>
@@ -2723,22 +2782,22 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
+      <c r="F51" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
       <c r="J51" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="4">
-        <f>COUNTIF(C3:C1075,"Violeta de Outono")</f>
+      <c r="M51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N51" s="3">
+        <f>COUNTIF(C2:C1075,"Heaven Shall Burn")</f>
         <v>1</v>
       </c>
       <c r="O51" s="11"/>
@@ -2750,10 +2809,10 @@
         <v>26</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="7">
         <v>42358</v>
@@ -2761,14 +2820,14 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
+      <c r="F52" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2776,241 +2835,241 @@
         <v>144</v>
       </c>
       <c r="N52" s="3">
-        <f>COUNTIF(C3:C1075,"Heaven Shall Burn")</f>
+        <f>COUNTIF(C2:C1075,"Carcass")</f>
         <v>1</v>
       </c>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="A53" s="30">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="26">
+      <c r="B53" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="31">
         <v>42393</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="29">
         <v>2016</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N53" s="3">
-        <f>COUNTIF(C3:C1075,"Carcass")</f>
+        <f>COUNTIF(C2:C1075,"Lamb of God")</f>
         <v>1</v>
       </c>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
       <c r="J54" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N54" s="3">
-        <f>COUNTIF(C3:C1075,"Lamb of God")</f>
+        <f>COUNTIF(C2:C1075,"The Offspring")</f>
         <v>1</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N55" s="3">
-        <f>COUNTIF(C3:C1075,"The Offspring")</f>
+        <f>COUNTIF(C2:C1075,"Guns N' Roses")</f>
         <v>1</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
       <c r="J56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N56" s="3">
-        <f>COUNTIF(C3:C1075,"Guns N' Roses")</f>
+        <f>COUNTIF(C2:C1075,"Red Hot Chili Peppers")</f>
         <v>1</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="26">
+      <c r="A57" s="30"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="31">
         <v>42393</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="29">
         <v>2016</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
       <c r="J57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N57" s="3">
-        <f>COUNTIF(C3:C1075,"Red Hot Chili Peppers")</f>
+        <f>COUNTIF(C2:C1075,"The Who")</f>
         <v>1</v>
       </c>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="3" t="s">
-        <v>149</v>
+      <c r="M58" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="N58" s="3">
-        <f>COUNTIF(C3:C1075,"The Who")</f>
+        <f>COUNTIF(C2:C1075,"DFC")</f>
         <v>1</v>
       </c>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="10" t="s">
+      <c r="M59" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N59" s="3">
-        <f>COUNTIF(C3:C1075,"DFC")</f>
+        <f>COUNTIF(C2:C1075,"Inocentes")</f>
         <v>1</v>
       </c>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N60" s="3">
-        <f>COUNTIF(C3:C1075,"Inocentes")</f>
+        <f>COUNTIF(C2:C1075,"Helloween")</f>
         <v>1</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
+      <c r="A61" s="30">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>32</v>
+      <c r="B61" s="29" t="s">
+        <v>167</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="7">
         <v>42397</v>
@@ -3018,30 +3077,30 @@
       <c r="E61" s="6">
         <v>2016</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
+      <c r="F61" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N61" s="3">
-        <f>COUNTIF(C3:C1075,"Helloween")</f>
+        <v>158</v>
+      </c>
+      <c r="N61" s="20">
+        <f>COUNTIF(C2:C1075,"Green Day")</f>
         <v>1</v>
       </c>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="7">
         <v>42397</v>
@@ -3049,32 +3108,32 @@
       <c r="E62" s="6">
         <v>2016</v>
       </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N62" s="3">
-        <f>COUNTIF(C3:C1075,"Green Day")</f>
+      <c r="M62" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="N62" s="20">
+        <f>COUNTIF(C2:C1075,"Ego Kill Talent")</f>
         <v>1</v>
       </c>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
+      <c r="A63" s="30">
         <v>29</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>63</v>
+      <c r="B63" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="7">
         <v>42446</v>
@@ -3082,25 +3141,30 @@
       <c r="E63" s="6">
         <v>2016</v>
       </c>
-      <c r="F63" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
+      <c r="F63" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N63" s="20">
+        <f>COUNTIF(C2:C1075,"Queens Of The Stone Age")</f>
+        <v>2</v>
+      </c>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="7">
         <v>42446</v>
@@ -3108,10 +3172,10 @@
       <c r="E64" s="6">
         <v>2016</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -3121,14 +3185,14 @@
       <c r="P64" s="11"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
+      <c r="A65" s="30">
         <v>30</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>66</v>
+      <c r="B65" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="7">
         <v>42467</v>
@@ -3136,12 +3200,12 @@
       <c r="E65" s="6">
         <v>2016</v>
       </c>
-      <c r="F65" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
+      <c r="F65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -3151,10 +3215,10 @@
       <c r="P65" s="11"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="7">
         <v>42467</v>
@@ -3162,10 +3226,10 @@
       <c r="E66" s="6">
         <v>2016</v>
       </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -3179,10 +3243,10 @@
         <v>31</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="7">
         <v>42560</v>
@@ -3190,12 +3254,12 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
+      <c r="F67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -3205,15 +3269,15 @@
       <c r="P67" s="11"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="24">
+      <c r="A68" s="30">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>40</v>
+      <c r="B68" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="5">
         <v>42574</v>
@@ -3221,12 +3285,12 @@
       <c r="E68" s="6">
         <v>2016</v>
       </c>
-      <c r="F68" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
+      <c r="F68" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -3236,10 +3300,10 @@
       <c r="P68" s="11"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="5">
         <v>42574</v>
@@ -3247,10 +3311,10 @@
       <c r="E69" s="6">
         <v>2016</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -3260,10 +3324,10 @@
       <c r="P69" s="11"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D70" s="5">
         <v>42574</v>
@@ -3271,10 +3335,10 @@
       <c r="E70" s="6">
         <v>2016</v>
       </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -3284,29 +3348,29 @@
       <c r="P70" s="11"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+      <c r="A71" s="30">
         <v>33</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="28">
+        <v>42588</v>
+      </c>
+      <c r="E71" s="29">
+        <v>2016</v>
+      </c>
+      <c r="F71" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="22">
-        <v>42588</v>
-      </c>
-      <c r="E71" s="23">
-        <v>2016</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
       <c r="J71" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
@@ -3316,17 +3380,17 @@
       <c r="P71" s="11"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
       <c r="J72" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
@@ -3336,17 +3400,17 @@
       <c r="P72" s="11"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
@@ -3356,17 +3420,17 @@
       <c r="P73" s="11"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
@@ -3376,17 +3440,17 @@
       <c r="P74" s="11"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
       <c r="J75" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
@@ -3396,17 +3460,17 @@
       <c r="P75" s="11"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
       <c r="J76" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
@@ -3416,17 +3480,17 @@
       <c r="P76" s="11"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
       <c r="J77" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -3436,17 +3500,17 @@
       <c r="P77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
@@ -3456,17 +3520,17 @@
       <c r="P78" s="11"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
       <c r="J79" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -3476,17 +3540,17 @@
       <c r="P79" s="11"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
       <c r="J80" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
@@ -3496,30 +3560,30 @@
       <c r="P80" s="11"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="24">
+      <c r="A81" s="30">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="22">
+      <c r="B81" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="28">
         <v>42589</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="29">
         <v>2016</v>
       </c>
-      <c r="F81" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
+      <c r="F81" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
       <c r="J81" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -3529,17 +3593,17 @@
       <c r="P81" s="11"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
       <c r="J82" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
@@ -3549,17 +3613,17 @@
       <c r="P82" s="11"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
       <c r="J83" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
@@ -3569,17 +3633,17 @@
       <c r="P83" s="11"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
       <c r="J84" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
@@ -3589,17 +3653,17 @@
       <c r="P84" s="11"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
       <c r="J85" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
@@ -3609,17 +3673,17 @@
       <c r="P85" s="11"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
       <c r="J86" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -3629,17 +3693,17 @@
       <c r="P86" s="11"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
       <c r="J87" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
@@ -3649,17 +3713,17 @@
       <c r="P87" s="11"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
       <c r="J88" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
@@ -3669,17 +3733,17 @@
       <c r="P88" s="11"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
       <c r="J89" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -3689,17 +3753,17 @@
       <c r="P89" s="11"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
       <c r="J90" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -3709,17 +3773,17 @@
       <c r="P90" s="11"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
       <c r="J91" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -3729,17 +3793,17 @@
       <c r="P91" s="11"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
       <c r="J92" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
@@ -3749,17 +3813,17 @@
       <c r="P92" s="11"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
       <c r="J93" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
@@ -3769,17 +3833,17 @@
       <c r="P93" s="11"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
       <c r="J94" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K94" s="17"/>
       <c r="L94" s="17"/>
@@ -3789,17 +3853,17 @@
       <c r="P94" s="11"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
       <c r="J95" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
@@ -3809,28 +3873,28 @@
       <c r="P95" s="11"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
+      <c r="A96" s="26">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="30" t="s">
-        <v>99</v>
+      <c r="B96" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="22">
+        <v>96</v>
+      </c>
+      <c r="D96" s="28">
         <v>42622</v>
       </c>
       <c r="E96" s="16">
         <v>2016</v>
       </c>
-      <c r="F96" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
+      <c r="F96" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
       <c r="J96" s="13"/>
       <c r="K96" s="17"/>
       <c r="L96" s="17"/>
@@ -3840,19 +3904,19 @@
       <c r="P96" s="11"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="30"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="D97" s="26"/>
       <c r="E97" s="16">
         <v>2016</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
       <c r="J97" s="13"/>
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
@@ -3862,28 +3926,28 @@
       <c r="P97" s="11"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
+      <c r="A98" s="26">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>100</v>
+      <c r="B98" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="22">
+        <v>6</v>
+      </c>
+      <c r="D98" s="28">
         <v>42629</v>
       </c>
       <c r="E98" s="13">
         <v>2016</v>
       </c>
-      <c r="F98" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
+      <c r="F98" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
       <c r="J98" s="13"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
@@ -3893,21 +3957,21 @@
       <c r="P98" s="11"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="D99" s="28"/>
       <c r="E99" s="13">
         <v>2016</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
       <c r="J99" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -3917,30 +3981,30 @@
       <c r="P99" s="11"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
+      <c r="A100" s="26">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>103</v>
+      <c r="B100" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" s="22">
+        <v>101</v>
+      </c>
+      <c r="D100" s="28">
         <v>42637</v>
       </c>
       <c r="E100" s="13">
         <v>2016</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="F100" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
@@ -3950,21 +4014,21 @@
       <c r="P100" s="11"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="D101" s="26"/>
       <c r="E101" s="13">
         <v>2016</v>
       </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
       <c r="J101" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
@@ -3974,28 +4038,28 @@
       <c r="P101" s="11"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="20">
+      <c r="A102" s="26">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="20" t="s">
-        <v>49</v>
+      <c r="B102" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D102" s="22">
+        <v>106</v>
+      </c>
+      <c r="D102" s="28">
         <v>42643</v>
       </c>
       <c r="E102" s="13">
         <v>2016</v>
       </c>
-      <c r="F102" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
+      <c r="F102" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
       <c r="J102" s="13"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17"/>
@@ -4005,19 +4069,19 @@
       <c r="P102" s="11"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="D103" s="28"/>
       <c r="E103" s="13">
         <v>2016</v>
       </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
       <c r="J103" s="13"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17"/>
@@ -4027,19 +4091,19 @@
       <c r="P103" s="11"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="D104" s="28"/>
       <c r="E104" s="13">
         <v>2016</v>
       </c>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
       <c r="J104" s="13"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17"/>
@@ -4049,30 +4113,30 @@
       <c r="P104" s="11"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
+      <c r="A105" s="26">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="22">
+      <c r="B105" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="28">
         <v>42672</v>
       </c>
-      <c r="E105" s="21">
+      <c r="E105" s="27">
         <v>2016</v>
       </c>
-      <c r="F105" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
+      <c r="F105" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
       <c r="J105" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
@@ -4082,17 +4146,17 @@
       <c r="P105" s="11"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
       <c r="J106" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K106" s="17"/>
       <c r="L106" s="17"/>
@@ -4102,17 +4166,17 @@
       <c r="P106" s="11"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
       <c r="J107" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
@@ -4122,29 +4186,29 @@
       <c r="P107" s="11"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
+      <c r="A108" s="26">
         <v>40</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="22">
+      <c r="B108" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="28">
         <v>42673</v>
       </c>
-      <c r="E108" s="21">
+      <c r="E108" s="27">
         <v>2016</v>
       </c>
-      <c r="F108" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
+      <c r="F108" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
       <c r="J108" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
@@ -4154,17 +4218,17 @@
       <c r="P108" s="11"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
       <c r="J109" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
@@ -4174,10 +4238,10 @@
       <c r="P109" s="11"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D110" s="15">
         <v>42673</v>
@@ -4185,12 +4249,12 @@
       <c r="E110" s="14">
         <v>2016</v>
       </c>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
       <c r="J110" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
@@ -4200,15 +4264,15 @@
       <c r="P110" s="11"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
+      <c r="A111" s="26">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>114</v>
+      <c r="B111" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D111" s="15">
         <v>42679</v>
@@ -4216,14 +4280,14 @@
       <c r="E111" s="14">
         <v>2016</v>
       </c>
-      <c r="F111" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
+      <c r="F111" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
       <c r="J111" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
@@ -4233,10 +4297,10 @@
       <c r="P111" s="11"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D112" s="15">
         <v>42679</v>
@@ -4244,12 +4308,12 @@
       <c r="E112" s="14">
         <v>2016</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
       <c r="J112" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="17"/>
@@ -4259,15 +4323,15 @@
       <c r="P112" s="11"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
+      <c r="A113" s="26">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>114</v>
+      <c r="B113" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" s="15">
         <v>42680</v>
@@ -4275,14 +4339,14 @@
       <c r="E113" s="14">
         <v>2016</v>
       </c>
-      <c r="F113" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
+      <c r="F113" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
       <c r="J113" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
@@ -4292,10 +4356,10 @@
       <c r="P113" s="11"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D114" s="15">
         <v>42680</v>
@@ -4303,12 +4367,12 @@
       <c r="E114" s="14">
         <v>2016</v>
       </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
       <c r="J114" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K114" s="17"/>
       <c r="L114" s="17"/>
@@ -4323,10 +4387,10 @@
         <v>43</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="15">
         <v>42694</v>
@@ -4334,12 +4398,12 @@
       <c r="E115" s="14">
         <v>2016</v>
       </c>
-      <c r="F115" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
+      <c r="F115" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
       <c r="J115" s="13"/>
       <c r="K115" s="17"/>
       <c r="L115" s="17"/>
@@ -4349,14 +4413,14 @@
       <c r="P115" s="11"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
+      <c r="A116" s="26">
         <v>44</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>126</v>
+      <c r="B116" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D116" s="15">
         <v>42706</v>
@@ -4364,14 +4428,14 @@
       <c r="E116" s="14">
         <v>2016</v>
       </c>
-      <c r="F116" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
+      <c r="F116" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
       <c r="J116" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K116" s="17"/>
       <c r="L116" s="17"/>
@@ -4381,23 +4445,23 @@
       <c r="P116" s="11"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="22">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="28">
         <v>42706</v>
       </c>
-      <c r="E117" s="21">
+      <c r="E117" s="27">
         <v>2016</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
       <c r="J117" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K117" s="17"/>
       <c r="L117" s="17"/>
@@ -4407,17 +4471,17 @@
       <c r="P117" s="11"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
       <c r="J118" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K118" s="17"/>
       <c r="L118" s="17"/>
@@ -4427,29 +4491,29 @@
       <c r="P118" s="11"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="20">
+      <c r="A119" s="26">
         <v>45</v>
       </c>
-      <c r="B119" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="22">
+      <c r="B119" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="28">
         <v>42718</v>
       </c>
-      <c r="E119" s="21">
+      <c r="E119" s="27">
         <v>2016</v>
       </c>
-      <c r="F119" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
+      <c r="F119" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
       <c r="J119" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K119" s="17"/>
       <c r="L119" s="17"/>
@@ -4459,17 +4523,17 @@
       <c r="P119" s="11"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
       <c r="J120" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K120" s="17"/>
       <c r="L120" s="17"/>
@@ -4479,14 +4543,14 @@
       <c r="P120" s="11"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="20">
+      <c r="A121" s="26">
         <v>46</v>
       </c>
-      <c r="B121" s="20" t="s">
-        <v>125</v>
+      <c r="B121" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D121" s="15">
         <v>42852</v>
@@ -4494,14 +4558,14 @@
       <c r="E121" s="14">
         <v>2017</v>
       </c>
-      <c r="F121" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
+      <c r="F121" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
       <c r="J121" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
@@ -4511,10 +4575,10 @@
       <c r="P121" s="11"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D122" s="15">
         <v>42852</v>
@@ -4522,12 +4586,12 @@
       <c r="E122" s="14">
         <v>2017</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
       <c r="J122" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K122" s="17"/>
       <c r="L122" s="17"/>
@@ -4537,14 +4601,14 @@
       <c r="P122" s="11"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
+      <c r="A123" s="26">
         <v>47</v>
       </c>
-      <c r="B123" s="20" t="s">
-        <v>127</v>
+      <c r="B123" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D123" s="15">
         <v>42868</v>
@@ -4552,14 +4616,14 @@
       <c r="E123" s="14">
         <v>2017</v>
       </c>
-      <c r="F123" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
+      <c r="F123" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
       <c r="J123" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K123" s="17"/>
       <c r="L123" s="17"/>
@@ -4569,23 +4633,23 @@
       <c r="P123" s="13"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D124" s="22">
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="28">
         <v>42868</v>
       </c>
-      <c r="E124" s="21">
+      <c r="E124" s="27">
         <v>2017</v>
       </c>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
       <c r="J124" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K124" s="17"/>
       <c r="L124" s="17"/>
@@ -4595,17 +4659,17 @@
       <c r="P124" s="13"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
       <c r="J125" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K125" s="17"/>
       <c r="L125" s="17"/>
@@ -4615,10 +4679,10 @@
       <c r="P125" s="13"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" s="15">
         <v>42868</v>
@@ -4626,12 +4690,12 @@
       <c r="E126" s="14">
         <v>2017</v>
       </c>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
       <c r="J126" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
@@ -4641,10 +4705,10 @@
       <c r="P126" s="13"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="15">
         <v>42868</v>
@@ -4652,12 +4716,12 @@
       <c r="E127" s="14">
         <v>2017</v>
       </c>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
       <c r="J127" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
@@ -4667,10 +4731,10 @@
       <c r="P127" s="13"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" s="15">
         <v>42868</v>
@@ -4678,12 +4742,12 @@
       <c r="E128" s="14">
         <v>2017</v>
       </c>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
       <c r="J128" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K128" s="17"/>
       <c r="L128" s="17"/>
@@ -4693,10 +4757,10 @@
       <c r="P128" s="13"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="15">
         <v>42868</v>
@@ -4704,12 +4768,12 @@
       <c r="E129" s="14">
         <v>2017</v>
       </c>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
       <c r="J129" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
@@ -4719,10 +4783,10 @@
       <c r="P129" s="13"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130" s="15">
         <v>42868</v>
@@ -4730,12 +4794,12 @@
       <c r="E130" s="14">
         <v>2017</v>
       </c>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
       <c r="J130" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
@@ -4745,23 +4809,23 @@
       <c r="P130" s="13"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131" s="22">
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="28">
         <v>42868</v>
       </c>
-      <c r="E131" s="21">
+      <c r="E131" s="27">
         <v>2017</v>
       </c>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
       <c r="J131" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
@@ -4771,17 +4835,17 @@
       <c r="P131" s="13"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
       <c r="J132" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
@@ -4791,23 +4855,23 @@
       <c r="P132" s="13"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D133" s="22">
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" s="28">
         <v>42868</v>
       </c>
-      <c r="E133" s="21">
+      <c r="E133" s="27">
         <v>2017</v>
       </c>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
       <c r="J133" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K133" s="17"/>
       <c r="L133" s="17"/>
@@ -4817,17 +4881,17 @@
       <c r="P133" s="13"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
       <c r="J134" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K134" s="17"/>
       <c r="L134" s="17"/>
@@ -4837,10 +4901,10 @@
       <c r="P134" s="13"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D135" s="15">
         <v>42868</v>
@@ -4848,12 +4912,12 @@
       <c r="E135" s="14">
         <v>2017</v>
       </c>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
       <c r="J135" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K135" s="17"/>
       <c r="L135" s="17"/>
@@ -4863,14 +4927,14 @@
       <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="20">
+      <c r="A136" s="26">
         <v>46</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="D136" s="15">
         <v>42910</v>
@@ -4878,12 +4942,12 @@
       <c r="E136" s="14">
         <v>2017</v>
       </c>
-      <c r="F136" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
+      <c r="F136" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
       <c r="J136" s="13"/>
       <c r="K136" s="13"/>
       <c r="L136" s="13"/>
@@ -4893,10 +4957,10 @@
       <c r="P136" s="13"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D137" s="15">
         <v>42910</v>
@@ -4904,10 +4968,10 @@
       <c r="E137" s="14">
         <v>2017</v>
       </c>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
       <c r="J137" s="13"/>
       <c r="K137" s="13"/>
       <c r="L137" s="13"/>
@@ -4917,10 +4981,10 @@
       <c r="P137" s="13"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" s="15">
         <v>42910</v>
@@ -4928,10 +4992,10 @@
       <c r="E138" s="14">
         <v>2017</v>
       </c>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
       <c r="J138" s="13"/>
       <c r="K138" s="13"/>
       <c r="L138" s="13"/>
@@ -4941,14 +5005,14 @@
       <c r="P138" s="13"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
+      <c r="A139" s="26">
         <v>47</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="D139" s="15">
         <v>42931</v>
@@ -4956,12 +5020,12 @@
       <c r="E139" s="14">
         <v>2017</v>
       </c>
-      <c r="F139" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
+      <c r="F139" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
@@ -4971,10 +5035,10 @@
       <c r="P139" s="12"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D140" s="15">
         <v>42931</v>
@@ -4982,10 +5046,10 @@
       <c r="E140" s="14">
         <v>2017</v>
       </c>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
@@ -4995,10 +5059,10 @@
       <c r="P140" s="12"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141" s="15">
         <v>42931</v>
@@ -5006,10 +5070,10 @@
       <c r="E141" s="14">
         <v>2017</v>
       </c>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
@@ -5019,14 +5083,14 @@
       <c r="P141" s="12"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="20">
+      <c r="A142" s="26">
         <v>48</v>
       </c>
-      <c r="B142" s="20" t="s">
-        <v>117</v>
+      <c r="B142" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D142" s="15">
         <v>43001</v>
@@ -5034,14 +5098,14 @@
       <c r="E142" s="14">
         <v>2017</v>
       </c>
-      <c r="F142" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
+      <c r="F142" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
       <c r="J142" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
@@ -5051,10 +5115,10 @@
       <c r="P142" s="12"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D143" s="15">
         <v>43001</v>
@@ -5062,12 +5126,12 @@
       <c r="E143" s="14">
         <v>2017</v>
       </c>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
       <c r="J143" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
@@ -5077,10 +5141,10 @@
       <c r="P143" s="12"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D144" s="15">
         <v>43001</v>
@@ -5088,10 +5152,10 @@
       <c r="E144" s="14">
         <v>2017</v>
       </c>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
@@ -5101,14 +5165,14 @@
       <c r="P144" s="12"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="20">
+      <c r="A145" s="26">
         <v>49</v>
       </c>
-      <c r="B145" s="20" t="s">
-        <v>117</v>
+      <c r="B145" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D145" s="15">
         <v>43002</v>
@@ -5116,12 +5180,12 @@
       <c r="E145" s="14">
         <v>2017</v>
       </c>
-      <c r="F145" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
+      <c r="F145" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
@@ -5131,10 +5195,10 @@
       <c r="P145" s="12"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D146" s="15">
         <v>43002</v>
@@ -5142,10 +5206,10 @@
       <c r="E146" s="14">
         <v>2017</v>
       </c>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
@@ -5155,10 +5219,10 @@
       <c r="P146" s="12"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D147" s="15">
         <v>43002</v>
@@ -5166,10 +5230,10 @@
       <c r="E147" s="14">
         <v>2017</v>
       </c>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
       <c r="J147" s="12"/>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
@@ -5179,29 +5243,29 @@
       <c r="P147" s="12"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="24">
+      <c r="A148" s="30">
         <v>50</v>
       </c>
-      <c r="B148" s="20" t="s">
+      <c r="B148" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D148" s="22">
+      <c r="D148" s="28">
         <v>43036</v>
       </c>
-      <c r="E148" s="21">
+      <c r="E148" s="27">
         <v>2017</v>
       </c>
-      <c r="F148" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
+      <c r="F148" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
       <c r="J148" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
@@ -5211,17 +5275,17 @@
       <c r="P148" s="12"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
       <c r="J149" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
@@ -5231,17 +5295,17 @@
       <c r="P149" s="12"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
       <c r="J150" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
@@ -5251,17 +5315,17 @@
       <c r="P150" s="12"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
       <c r="J151" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
@@ -5271,17 +5335,17 @@
       <c r="P151" s="12"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
       <c r="J152" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
@@ -5295,10 +5359,10 @@
         <v>51</v>
       </c>
       <c r="B153" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="D153" s="15">
         <v>43040</v>
@@ -5306,12 +5370,12 @@
       <c r="E153" s="14">
         <v>2017</v>
       </c>
-      <c r="F153" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
+      <c r="F153" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
@@ -5320,33 +5384,220 @@
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
     </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="26">
+        <f>(A153+1)</f>
+        <v>52</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D154" s="22">
+        <v>43156</v>
+      </c>
+      <c r="E154" s="21">
+        <v>2018</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" s="22">
+        <v>43156</v>
+      </c>
+      <c r="E155" s="21">
+        <v>2018</v>
+      </c>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="22">
+        <v>43156</v>
+      </c>
+      <c r="E156" s="21">
+        <v>2018</v>
+      </c>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+    </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="176">
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E133:E134"/>
+  <mergeCells count="178">
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="F116:I118"/>
     <mergeCell ref="C117:C118"/>
     <mergeCell ref="D117:D118"/>
@@ -5371,136 +5622,34 @@
     <mergeCell ref="D105:D107"/>
     <mergeCell ref="E105:E107"/>
     <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="F29:I31"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="F5:I6"/>
-    <mergeCell ref="F9:I11"/>
-    <mergeCell ref="F12:I16"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="F23:I25"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="F33:I35"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F37:I38"/>
-    <mergeCell ref="F39:I40"/>
-    <mergeCell ref="F41:I42"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
     <mergeCell ref="F148:I152"/>
     <mergeCell ref="D148:D152"/>
     <mergeCell ref="E148:E152"/>
     <mergeCell ref="C148:C152"/>
     <mergeCell ref="B148:B152"/>
     <mergeCell ref="A148:A152"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B111:B112"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="176">
   <si>
     <t>Banda</t>
   </si>
@@ -543,6 +543,15 @@
   </si>
   <si>
     <t>Milena</t>
+  </si>
+  <si>
+    <t>Justabeli</t>
+  </si>
+  <si>
+    <t>Carro Bomba</t>
+  </si>
+  <si>
+    <t>Olho Seco</t>
   </si>
 </sst>
 </file>
@@ -605,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,25 +653,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -945,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,12 +1001,12 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="10" t="s">
         <v>71</v>
       </c>
@@ -1012,10 +1030,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1027,12 +1045,12 @@
       <c r="E2" s="9">
         <v>2007</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="9">
         <v>2007</v>
       </c>
@@ -1042,14 +1060,14 @@
       </c>
       <c r="L2" s="9">
         <f>SUM(K2:K51)</f>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="7">
         <f>COUNTIF(C1:C1015,"Matanza")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
@@ -1060,8 +1078,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1071,10 +1089,10 @@
       <c r="E3" s="7">
         <v>2007</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1099,11 +1117,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>162</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1115,12 +1133,12 @@
       <c r="E4" s="7">
         <v>2012</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1141,12 +1159,12 @@
       </c>
       <c r="P4" s="3">
         <f>COUNTIF(F2:F1050,"Circo Voador")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1156,10 +1174,10 @@
       <c r="E5" s="7">
         <v>2012</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1200,12 +1218,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1246,12 +1264,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1276,10 +1294,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1291,12 +1309,12 @@
       <c r="E8" s="7">
         <v>2013</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1321,8 +1339,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1332,16 +1350,16 @@
       <c r="E9" s="7">
         <v>2013</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
       <c r="K9" s="7">
         <f>COUNTIF(E2:E1000,"2018")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
@@ -1360,8 +1378,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1371,10 +1389,10 @@
       <c r="E10" s="7">
         <v>2013</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1394,10 +1412,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1409,12 +1427,12 @@
       <c r="E11" s="7">
         <v>2013</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1434,8 +1452,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1445,10 +1463,10 @@
       <c r="E12" s="7">
         <v>2013</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1468,8 +1486,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1479,10 +1497,10 @@
       <c r="E13" s="7">
         <v>2013</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1502,8 +1520,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1513,10 +1531,10 @@
       <c r="E14" s="7">
         <v>2013</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1536,8 +1554,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1547,10 +1565,10 @@
       <c r="E15" s="7">
         <v>2013</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1570,10 +1588,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1585,12 +1603,12 @@
       <c r="E16" s="7">
         <v>2013</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1610,8 +1628,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1621,10 +1639,10 @@
       <c r="E17" s="7">
         <v>2013</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1659,12 +1677,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1700,12 +1718,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1736,12 +1754,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1772,12 +1790,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1792,11 +1810,11 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1808,12 +1826,12 @@
       <c r="E22" s="7">
         <v>2014</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1828,8 +1846,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="7" t="s">
         <v>97</v>
       </c>
@@ -1839,10 +1857,10 @@
       <c r="E23" s="7">
         <v>2014</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1857,8 +1875,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
@@ -1868,10 +1886,10 @@
       <c r="E24" s="7">
         <v>2014</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1901,12 +1919,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1921,11 +1939,11 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1937,12 +1955,12 @@
       <c r="E26" s="7">
         <v>2014</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1957,8 +1975,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1968,10 +1986,10 @@
       <c r="E27" s="7">
         <v>2014</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -1986,10 +2004,10 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="17">
         <v>15</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2001,12 +2019,12 @@
       <c r="E28" s="7">
         <v>2015</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2021,8 +2039,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
@@ -2032,10 +2050,10 @@
       <c r="E29" s="7">
         <v>2015</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2050,8 +2068,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
@@ -2061,10 +2079,10 @@
       <c r="E30" s="7">
         <v>2015</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2094,12 +2112,12 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2114,11 +2132,11 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2130,12 +2148,12 @@
       <c r="E32" s="7">
         <v>2015</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2150,8 +2168,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2161,10 +2179,10 @@
       <c r="E33" s="7">
         <v>2015</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2179,8 +2197,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
@@ -2190,10 +2208,10 @@
       <c r="E34" s="7">
         <v>2015</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2223,12 +2241,12 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2243,11 +2261,11 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="17">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="17" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2259,12 +2277,12 @@
       <c r="E36" s="7">
         <v>2015</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2279,8 +2297,8 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2290,10 +2308,10 @@
       <c r="E37" s="7">
         <v>2015</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2308,10 +2326,10 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="17">
         <v>20</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2323,12 +2341,12 @@
       <c r="E38" s="7">
         <v>2015</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2343,8 +2361,8 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2354,10 +2372,10 @@
       <c r="E39" s="7">
         <v>2015</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="7" t="s">
         <v>119</v>
       </c>
@@ -2374,10 +2392,10 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="17">
         <v>21</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -2389,12 +2407,12 @@
       <c r="E40" s="7">
         <v>2015</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2409,8 +2427,8 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="7" t="s">
         <v>161</v>
       </c>
@@ -2420,10 +2438,10 @@
       <c r="E41" s="7">
         <v>2015</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2438,8 +2456,8 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
@@ -2449,10 +2467,10 @@
       <c r="E42" s="7">
         <v>2015</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2467,10 +2485,10 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="A43" s="17">
         <v>22</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2482,12 +2500,12 @@
       <c r="E43" s="7">
         <v>2015</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2502,8 +2520,8 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
@@ -2513,10 +2531,10 @@
       <c r="E44" s="7">
         <v>2015</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2531,8 +2549,8 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
@@ -2542,10 +2560,10 @@
       <c r="E45" s="7">
         <v>2015</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2560,8 +2578,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
@@ -2571,10 +2589,10 @@
       <c r="E46" s="7">
         <v>2015</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="10" t="s">
         <v>70</v>
       </c>
@@ -2591,27 +2609,27 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="17">
         <v>23</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="19">
         <v>42308</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="17">
         <v>2015</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="7" t="s">
         <v>104</v>
       </c>
@@ -2628,15 +2646,15 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="7" t="s">
         <v>109</v>
       </c>
@@ -2653,11 +2671,11 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+      <c r="A49" s="17">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2669,12 +2687,12 @@
       <c r="E49" s="6">
         <v>2015</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -2689,8 +2707,8 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
@@ -2700,10 +2718,10 @@
       <c r="E50" s="6">
         <v>2015</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -2733,12 +2751,12 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -2771,12 +2789,12 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="7" t="s">
         <v>104</v>
       </c>
@@ -2793,28 +2811,28 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="17">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="19">
         <v>42393</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="18">
         <v>2016</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="7" t="s">
         <v>52</v>
       </c>
@@ -2831,15 +2849,15 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="7" t="s">
         <v>58</v>
       </c>
@@ -2856,15 +2874,15 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="7" t="s">
         <v>53</v>
       </c>
@@ -2881,15 +2899,15 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="7" t="s">
         <v>54</v>
       </c>
@@ -2906,21 +2924,21 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="19">
         <v>42393</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="18">
         <v>2016</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="7" t="s">
         <v>55</v>
       </c>
@@ -2937,15 +2955,15 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="7" t="s">
         <v>56</v>
       </c>
@@ -2962,15 +2980,15 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="7" t="s">
         <v>57</v>
       </c>
@@ -2987,15 +3005,15 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="7" t="s">
         <v>59</v>
       </c>
@@ -3012,11 +3030,11 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="A61" s="17">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="18" t="s">
         <v>165</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3028,12 +3046,12 @@
       <c r="E61" s="6">
         <v>2016</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -3048,8 +3066,8 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
@@ -3059,10 +3077,10 @@
       <c r="E62" s="6">
         <v>2016</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -3077,10 +3095,10 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="A63" s="17">
         <v>29</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="18" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -3092,12 +3110,12 @@
       <c r="E63" s="6">
         <v>2016</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3112,8 +3130,8 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
@@ -3123,23 +3141,28 @@
       <c r="E64" s="6">
         <v>2016</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+      <c r="M64" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N64" s="3">
+        <f>COUNTIF(C2:C1075,"Olho Seco")</f>
+        <v>1</v>
+      </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="A65" s="17">
         <v>30</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3151,12 +3174,12 @@
       <c r="E65" s="6">
         <v>2016</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -3166,8 +3189,8 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="6" t="s">
         <v>65</v>
       </c>
@@ -3177,10 +3200,10 @@
       <c r="E66" s="6">
         <v>2016</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -3205,12 +3228,12 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -3220,11 +3243,11 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
+      <c r="A68" s="17">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3236,12 +3259,12 @@
       <c r="E68" s="6">
         <v>2016</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -3251,8 +3274,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="6" t="s">
         <v>73</v>
       </c>
@@ -3262,10 +3285,10 @@
       <c r="E69" s="6">
         <v>2016</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3275,8 +3298,8 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
@@ -3286,10 +3309,10 @@
       <c r="E70" s="6">
         <v>2016</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -3299,27 +3322,27 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
+      <c r="A71" s="17">
         <v>33</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="15">
         <v>42588</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="18">
         <v>2016</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="10" t="s">
         <v>70</v>
       </c>
@@ -3331,15 +3354,15 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="7" t="s">
         <v>58</v>
       </c>
@@ -3351,15 +3374,15 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="7" t="s">
         <v>53</v>
       </c>
@@ -3371,15 +3394,15 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
       <c r="J74" s="7" t="s">
         <v>54</v>
       </c>
@@ -3391,15 +3414,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="7" t="s">
         <v>80</v>
       </c>
@@ -3411,15 +3434,15 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
       <c r="J76" s="7" t="s">
         <v>81</v>
       </c>
@@ -3431,15 +3454,15 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
       <c r="J77" s="7" t="s">
         <v>57</v>
       </c>
@@ -3451,15 +3474,15 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
       <c r="J78" s="7" t="s">
         <v>82</v>
       </c>
@@ -3471,15 +3494,15 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
       <c r="J79" s="7" t="s">
         <v>108</v>
       </c>
@@ -3491,15 +3514,15 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
       <c r="J80" s="6" t="s">
         <v>83</v>
       </c>
@@ -3511,28 +3534,28 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
+      <c r="A81" s="17">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="15">
         <v>42589</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="18">
         <v>2016</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
       <c r="J81" s="10" t="s">
         <v>70</v>
       </c>
@@ -3544,15 +3567,15 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="7" t="s">
         <v>52</v>
       </c>
@@ -3564,15 +3587,15 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="7" t="s">
         <v>84</v>
       </c>
@@ -3584,15 +3607,15 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
       <c r="J84" s="7" t="s">
         <v>53</v>
       </c>
@@ -3604,15 +3627,15 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
       <c r="J85" s="7" t="s">
         <v>54</v>
       </c>
@@ -3624,15 +3647,15 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="7" t="s">
         <v>90</v>
       </c>
@@ -3644,15 +3667,15 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="7" t="s">
         <v>81</v>
       </c>
@@ -3664,15 +3687,15 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="7" t="s">
         <v>57</v>
       </c>
@@ -3684,15 +3707,15 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="7" t="s">
         <v>85</v>
       </c>
@@ -3704,15 +3727,15 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
       <c r="J90" s="6" t="s">
         <v>86</v>
       </c>
@@ -3724,15 +3747,15 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="6" t="s">
         <v>87</v>
       </c>
@@ -3744,15 +3767,15 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
       <c r="J92" s="6" t="s">
         <v>89</v>
       </c>
@@ -3764,15 +3787,15 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
       <c r="J93" s="6" t="s">
         <v>88</v>
       </c>
@@ -3784,15 +3807,15 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
       <c r="J94" s="6" t="s">
         <v>91</v>
       </c>
@@ -3804,15 +3827,15 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
       <c r="J95" s="6" t="s">
         <v>92</v>
       </c>
@@ -3824,7 +3847,7 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
+      <c r="A96" s="14">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
@@ -3834,18 +3857,18 @@
       <c r="C96" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="15">
         <v>42622</v>
       </c>
       <c r="E96" s="6">
         <v>2016</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
       <c r="J96" s="3"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -3855,19 +3878,19 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="20"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="6">
         <v>2016</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
       <c r="J97" s="3"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -3877,28 +3900,28 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
+      <c r="A98" s="14">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="15">
         <v>42629</v>
       </c>
       <c r="E98" s="3">
         <v>2016</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
       <c r="J98" s="3"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -3908,19 +3931,19 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="13"/>
+      <c r="D99" s="15"/>
       <c r="E99" s="3">
         <v>2016</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
       <c r="J99" s="10" t="s">
         <v>70</v>
       </c>
@@ -3932,28 +3955,28 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
+      <c r="A100" s="14">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="15">
         <v>42637</v>
       </c>
       <c r="E100" s="3">
         <v>2016</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
       <c r="J100" s="3" t="s">
         <v>104</v>
       </c>
@@ -3965,19 +3988,19 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="11"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="3">
         <v>2016</v>
       </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
       <c r="J101" s="3" t="s">
         <v>105</v>
       </c>
@@ -3989,28 +4012,28 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
+      <c r="A102" s="14">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="15">
         <v>42643</v>
       </c>
       <c r="E102" s="3">
         <v>2016</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
       <c r="J102" s="3"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -4020,19 +4043,19 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="13"/>
+      <c r="D103" s="15"/>
       <c r="E103" s="3">
         <v>2016</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
       <c r="J103" s="3"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -4042,19 +4065,19 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="13"/>
+      <c r="D104" s="15"/>
       <c r="E104" s="3">
         <v>2016</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
       <c r="J104" s="3"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -4064,28 +4087,28 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
+      <c r="A105" s="14">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="15">
         <v>42672</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="16">
         <v>2016</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
       <c r="J105" s="10" t="s">
         <v>70</v>
       </c>
@@ -4097,15 +4120,15 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
       <c r="J106" s="7" t="s">
         <v>104</v>
       </c>
@@ -4117,15 +4140,15 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
       <c r="J107" s="7" t="s">
         <v>109</v>
       </c>
@@ -4137,27 +4160,27 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="11">
+      <c r="A108" s="14">
         <v>40</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="15">
         <v>42673</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="16">
         <v>2016</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
       <c r="J108" s="10" t="s">
         <v>70</v>
       </c>
@@ -4169,15 +4192,15 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
       <c r="J109" s="7" t="s">
         <v>104</v>
       </c>
@@ -4189,8 +4212,8 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="6" t="s">
         <v>111</v>
       </c>
@@ -4200,10 +4223,10 @@
       <c r="E110" s="4">
         <v>2016</v>
       </c>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
       <c r="J110" s="7" t="s">
         <v>112</v>
       </c>
@@ -4215,11 +4238,11 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="11">
+      <c r="A111" s="14">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -4231,12 +4254,12 @@
       <c r="E111" s="4">
         <v>2016</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F111" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
       <c r="J111" s="10" t="s">
         <v>70</v>
       </c>
@@ -4248,8 +4271,8 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
@@ -4259,10 +4282,10 @@
       <c r="E112" s="4">
         <v>2016</v>
       </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
       <c r="J112" s="7" t="s">
         <v>104</v>
       </c>
@@ -4274,11 +4297,11 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="11">
+      <c r="A113" s="14">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -4290,12 +4313,12 @@
       <c r="E113" s="4">
         <v>2016</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F113" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
       <c r="J113" s="10" t="s">
         <v>70</v>
       </c>
@@ -4307,8 +4330,8 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
@@ -4318,10 +4341,10 @@
       <c r="E114" s="4">
         <v>2016</v>
       </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
       <c r="J114" s="7" t="s">
         <v>104</v>
       </c>
@@ -4349,12 +4372,12 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
       <c r="J115" s="3"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -4364,10 +4387,10 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="11">
+      <c r="A116" s="14">
         <v>44</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="14" t="s">
         <v>125</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -4379,12 +4402,12 @@
       <c r="E116" s="4">
         <v>2016</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
       <c r="J116" s="10" t="s">
         <v>70</v>
       </c>
@@ -4396,21 +4419,21 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="14" t="s">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="15">
         <v>42706</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="16">
         <v>2016</v>
       </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
       <c r="J117" s="7" t="s">
         <v>104</v>
       </c>
@@ -4422,15 +4445,15 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
       <c r="J118" s="6" t="s">
         <v>121</v>
       </c>
@@ -4442,27 +4465,27 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="11">
+      <c r="A119" s="14">
         <v>45</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="15">
         <v>42718</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="16">
         <v>2016</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
       <c r="J119" s="10" t="s">
         <v>70</v>
       </c>
@@ -4474,15 +4497,15 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
       <c r="J120" s="7" t="s">
         <v>104</v>
       </c>
@@ -4494,10 +4517,10 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="11">
+      <c r="A121" s="14">
         <v>46</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4509,12 +4532,12 @@
       <c r="E121" s="4">
         <v>2017</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
       <c r="J121" s="10" t="s">
         <v>70</v>
       </c>
@@ -4526,8 +4549,8 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="3" t="s">
         <v>124</v>
       </c>
@@ -4537,10 +4560,10 @@
       <c r="E122" s="4">
         <v>2017</v>
       </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
       <c r="J122" s="7" t="s">
         <v>104</v>
       </c>
@@ -4552,10 +4575,10 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="11">
+      <c r="A123" s="14">
         <v>47</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="14" t="s">
         <v>126</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -4567,12 +4590,12 @@
       <c r="E123" s="4">
         <v>2017</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
       <c r="J123" s="10" t="s">
         <v>70</v>
       </c>
@@ -4584,21 +4607,21 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11" t="s">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="13">
+      <c r="D124" s="15">
         <v>42868</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="16">
         <v>2017</v>
       </c>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
       <c r="J124" s="9" t="s">
         <v>104</v>
       </c>
@@ -4610,15 +4633,15 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
       <c r="J125" s="9" t="s">
         <v>105</v>
       </c>
@@ -4630,8 +4653,8 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="4" t="s">
         <v>130</v>
       </c>
@@ -4641,10 +4664,10 @@
       <c r="E126" s="4">
         <v>2017</v>
       </c>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
       <c r="J126" s="9" t="s">
         <v>136</v>
       </c>
@@ -4656,8 +4679,8 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4667,10 +4690,10 @@
       <c r="E127" s="4">
         <v>2017</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
       <c r="J127" s="9" t="s">
         <v>53</v>
       </c>
@@ -4682,8 +4705,8 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="4" t="s">
         <v>131</v>
       </c>
@@ -4693,10 +4716,10 @@
       <c r="E128" s="4">
         <v>2017</v>
       </c>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
       <c r="J128" s="9" t="s">
         <v>137</v>
       </c>
@@ -4708,8 +4731,8 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
@@ -4719,10 +4742,10 @@
       <c r="E129" s="4">
         <v>2017</v>
       </c>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
       <c r="J129" s="9" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4757,8 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="4" t="s">
         <v>132</v>
       </c>
@@ -4745,10 +4768,10 @@
       <c r="E130" s="4">
         <v>2017</v>
       </c>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
       <c r="J130" s="9" t="s">
         <v>172</v>
       </c>
@@ -4760,21 +4783,21 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12" t="s">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D131" s="13">
+      <c r="D131" s="15">
         <v>42868</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="16">
         <v>2017</v>
       </c>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
       <c r="J131" s="9" t="s">
         <v>57</v>
       </c>
@@ -4786,15 +4809,15 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
       <c r="J132" s="9" t="s">
         <v>87</v>
       </c>
@@ -4806,21 +4829,21 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12" t="s">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D133" s="13">
+      <c r="D133" s="15">
         <v>42868</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E133" s="16">
         <v>2017</v>
       </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
       <c r="J133" s="9" t="s">
         <v>138</v>
       </c>
@@ -4832,15 +4855,15 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
       <c r="J134" s="9" t="s">
         <v>139</v>
       </c>
@@ -4852,8 +4875,8 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
@@ -4863,10 +4886,10 @@
       <c r="E135" s="4">
         <v>2017</v>
       </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
       <c r="J135" s="9" t="s">
         <v>140</v>
       </c>
@@ -4878,10 +4901,10 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="11">
+      <c r="A136" s="14">
         <v>46</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4893,12 +4916,12 @@
       <c r="E136" s="4">
         <v>2017</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F136" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -4908,8 +4931,8 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="4" t="s">
         <v>143</v>
       </c>
@@ -4919,10 +4942,10 @@
       <c r="E137" s="4">
         <v>2017</v>
       </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -4932,8 +4955,8 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="4" t="s">
         <v>141</v>
       </c>
@@ -4943,10 +4966,10 @@
       <c r="E138" s="4">
         <v>2017</v>
       </c>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -4956,10 +4979,10 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="11">
+      <c r="A139" s="14">
         <v>47</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -4971,12 +4994,12 @@
       <c r="E139" s="4">
         <v>2017</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F139" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -4986,8 +5009,8 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="4" t="s">
         <v>146</v>
       </c>
@@ -4997,10 +5020,10 @@
       <c r="E140" s="4">
         <v>2017</v>
       </c>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5010,8 +5033,8 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
@@ -5021,10 +5044,10 @@
       <c r="E141" s="4">
         <v>2017</v>
       </c>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5034,10 +5057,10 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="11">
+      <c r="A142" s="14">
         <v>48</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5049,12 +5072,12 @@
       <c r="E142" s="4">
         <v>2017</v>
       </c>
-      <c r="F142" s="11" t="s">
+      <c r="F142" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
       <c r="J142" s="10" t="s">
         <v>70</v>
       </c>
@@ -5066,8 +5089,8 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="4" t="s">
         <v>147</v>
       </c>
@@ -5077,10 +5100,10 @@
       <c r="E143" s="4">
         <v>2017</v>
       </c>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="7" t="s">
         <v>151</v>
       </c>
@@ -5092,8 +5115,8 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="4" t="s">
         <v>148</v>
       </c>
@@ -5103,10 +5126,10 @@
       <c r="E144" s="4">
         <v>2017</v>
       </c>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -5116,10 +5139,10 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="11">
+      <c r="A145" s="14">
         <v>49</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -5131,12 +5154,12 @@
       <c r="E145" s="4">
         <v>2017</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F145" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5146,8 +5169,8 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="4" t="s">
         <v>149</v>
       </c>
@@ -5157,10 +5180,10 @@
       <c r="E146" s="4">
         <v>2017</v>
       </c>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5170,8 +5193,8 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="4" t="s">
         <v>150</v>
       </c>
@@ -5181,10 +5204,10 @@
       <c r="E147" s="4">
         <v>2017</v>
       </c>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -5194,27 +5217,27 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="15">
+      <c r="A148" s="17">
         <v>50</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D148" s="15">
         <v>43036</v>
       </c>
-      <c r="E148" s="12">
+      <c r="E148" s="16">
         <v>2017</v>
       </c>
-      <c r="F148" s="11" t="s">
+      <c r="F148" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
       <c r="J148" s="10" t="s">
         <v>70</v>
       </c>
@@ -5226,15 +5249,15 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
       <c r="J149" s="3" t="s">
         <v>87</v>
       </c>
@@ -5246,15 +5269,15 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
       <c r="J150" s="3" t="s">
         <v>88</v>
       </c>
@@ -5266,15 +5289,15 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
       <c r="J151" s="3" t="s">
         <v>154</v>
       </c>
@@ -5286,15 +5309,15 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
       <c r="J152" s="3" t="s">
         <v>155</v>
       </c>
@@ -5321,12 +5344,12 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="11" t="s">
+      <c r="F153" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5336,11 +5359,11 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="11">
+      <c r="A154" s="14">
         <f>(A153+1)</f>
         <v>52</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="14" t="s">
         <v>160</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -5352,12 +5375,12 @@
       <c r="E154" s="4">
         <v>2018</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
       <c r="J154" s="9"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5367,8 +5390,8 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="4" t="s">
         <v>161</v>
       </c>
@@ -5378,10 +5401,10 @@
       <c r="E155" s="4">
         <v>2018</v>
       </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5391,8 +5414,8 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
@@ -5402,10 +5425,10 @@
       <c r="E156" s="4">
         <v>2018</v>
       </c>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5430,12 +5453,12 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="11" t="s">
+      <c r="F157" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5444,40 +5467,211 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
     </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
+        <v>54</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158" s="13">
+        <v>43309</v>
+      </c>
+      <c r="E158" s="12">
+        <v>2018</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D159" s="13">
+        <v>43309</v>
+      </c>
+      <c r="E159" s="11">
+        <v>2018</v>
+      </c>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="13">
+        <v>43309</v>
+      </c>
+      <c r="E160" s="11">
+        <v>2018</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" s="13">
+        <v>43309</v>
+      </c>
+      <c r="E161" s="11">
+        <v>2018</v>
+      </c>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+    </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="179">
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E133:E134"/>
+  <mergeCells count="182">
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="F116:I118"/>
     <mergeCell ref="C117:C118"/>
     <mergeCell ref="D117:D118"/>
@@ -5502,132 +5696,38 @@
     <mergeCell ref="D105:D107"/>
     <mergeCell ref="E105:E107"/>
     <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
     <mergeCell ref="F154:I156"/>
     <mergeCell ref="B154:B156"/>
     <mergeCell ref="A154:A156"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="180">
   <si>
     <t>Banda</t>
   </si>
@@ -552,6 +552,18 @@
   </si>
   <si>
     <t>Olho Seco</t>
+  </si>
+  <si>
+    <t>Cervical</t>
+  </si>
+  <si>
+    <t>Ataque Periférico</t>
+  </si>
+  <si>
+    <t>Revolta Civil</t>
+  </si>
+  <si>
+    <t>Heavy Duty</t>
   </si>
 </sst>
 </file>
@@ -587,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -610,11 +622,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,25 +681,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,6 +705,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P161"/>
+  <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154:A156"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,12 +1045,12 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="10" t="s">
         <v>71</v>
       </c>
@@ -1030,10 +1074,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1045,12 +1089,12 @@
       <c r="E2" s="9">
         <v>2007</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="9">
         <v>2007</v>
       </c>
@@ -1060,7 +1104,7 @@
       </c>
       <c r="L2" s="9">
         <f>SUM(K2:K51)</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
@@ -1078,8 +1122,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1089,10 +1133,10 @@
       <c r="E3" s="7">
         <v>2007</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1117,11 +1161,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1133,12 +1177,12 @@
       <c r="E4" s="7">
         <v>2012</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1163,8 +1207,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1174,10 +1218,10 @@
       <c r="E5" s="7">
         <v>2012</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1218,12 +1262,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1264,12 +1308,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1294,10 +1338,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1309,12 +1353,12 @@
       <c r="E8" s="7">
         <v>2013</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1339,8 +1383,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1350,16 +1394,16 @@
       <c r="E9" s="7">
         <v>2013</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
       <c r="K9" s="7">
         <f>COUNTIF(E2:E1000,"2018")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
@@ -1378,8 +1422,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1389,10 +1433,10 @@
       <c r="E10" s="7">
         <v>2013</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1412,10 +1456,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="20">
         <v>6</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1427,12 +1471,12 @@
       <c r="E11" s="7">
         <v>2013</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1452,8 +1496,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1463,10 +1507,10 @@
       <c r="E12" s="7">
         <v>2013</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1486,8 +1530,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1497,10 +1541,10 @@
       <c r="E13" s="7">
         <v>2013</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1520,8 +1564,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1531,10 +1575,10 @@
       <c r="E14" s="7">
         <v>2013</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1554,8 +1598,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1565,10 +1609,10 @@
       <c r="E15" s="7">
         <v>2013</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1588,10 +1632,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="20">
         <v>7</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1603,12 +1647,12 @@
       <c r="E16" s="7">
         <v>2013</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1628,8 +1672,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1639,10 +1683,10 @@
       <c r="E17" s="7">
         <v>2013</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1677,12 +1721,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1718,12 +1762,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1754,12 +1798,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1790,12 +1834,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1810,11 +1854,11 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1826,12 +1870,12 @@
       <c r="E22" s="7">
         <v>2014</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1846,8 +1890,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7" t="s">
         <v>97</v>
       </c>
@@ -1857,10 +1901,10 @@
       <c r="E23" s="7">
         <v>2014</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1875,8 +1919,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
@@ -1886,10 +1930,10 @@
       <c r="E24" s="7">
         <v>2014</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1919,12 +1963,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1939,11 +1983,11 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="20">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1955,12 +1999,12 @@
       <c r="E26" s="7">
         <v>2014</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1975,8 +2019,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1986,10 +2030,10 @@
       <c r="E27" s="7">
         <v>2014</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2004,10 +2048,10 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="20">
         <v>15</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2019,12 +2063,12 @@
       <c r="E28" s="7">
         <v>2015</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2039,8 +2083,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
@@ -2050,10 +2094,10 @@
       <c r="E29" s="7">
         <v>2015</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2068,8 +2112,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
@@ -2079,10 +2123,10 @@
       <c r="E30" s="7">
         <v>2015</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2112,12 +2156,12 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2132,11 +2176,11 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2148,12 +2192,12 @@
       <c r="E32" s="7">
         <v>2015</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2168,8 +2212,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2179,10 +2223,10 @@
       <c r="E33" s="7">
         <v>2015</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2197,8 +2241,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
@@ -2208,10 +2252,10 @@
       <c r="E34" s="7">
         <v>2015</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2241,12 +2285,12 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2261,11 +2305,11 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="20">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2277,12 +2321,12 @@
       <c r="E36" s="7">
         <v>2015</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2297,8 +2341,8 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2308,10 +2352,10 @@
       <c r="E37" s="7">
         <v>2015</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2326,10 +2370,10 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="20">
         <v>20</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="20" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2341,12 +2385,12 @@
       <c r="E38" s="7">
         <v>2015</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2361,8 +2405,8 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2372,10 +2416,10 @@
       <c r="E39" s="7">
         <v>2015</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="7" t="s">
         <v>119</v>
       </c>
@@ -2392,10 +2436,10 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="20">
         <v>21</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="20" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -2407,12 +2451,12 @@
       <c r="E40" s="7">
         <v>2015</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2427,8 +2471,8 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="7" t="s">
         <v>161</v>
       </c>
@@ -2438,10 +2482,10 @@
       <c r="E41" s="7">
         <v>2015</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2456,8 +2500,8 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
@@ -2467,10 +2511,10 @@
       <c r="E42" s="7">
         <v>2015</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2485,10 +2529,10 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="20">
         <v>22</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="20" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2500,12 +2544,12 @@
       <c r="E43" s="7">
         <v>2015</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2520,8 +2564,8 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
@@ -2531,10 +2575,10 @@
       <c r="E44" s="7">
         <v>2015</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2549,8 +2593,8 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
@@ -2560,10 +2604,10 @@
       <c r="E45" s="7">
         <v>2015</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2578,8 +2622,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
@@ -2589,10 +2633,10 @@
       <c r="E46" s="7">
         <v>2015</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
       <c r="J46" s="10" t="s">
         <v>70</v>
       </c>
@@ -2609,27 +2653,27 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="A47" s="20">
         <v>23</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="23">
         <v>42308</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="20">
         <v>2015</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="7" t="s">
         <v>104</v>
       </c>
@@ -2646,15 +2690,15 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="7" t="s">
         <v>109</v>
       </c>
@@ -2671,11 +2715,11 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="A49" s="20">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2687,12 +2731,12 @@
       <c r="E49" s="6">
         <v>2015</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -2707,8 +2751,8 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
@@ -2718,10 +2762,10 @@
       <c r="E50" s="6">
         <v>2015</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -2751,12 +2795,12 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -2789,12 +2833,12 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="7" t="s">
         <v>104</v>
       </c>
@@ -2811,28 +2855,28 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="20">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="23">
         <v>42393</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="19">
         <v>2016</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="7" t="s">
         <v>52</v>
       </c>
@@ -2849,15 +2893,15 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
       <c r="J54" s="7" t="s">
         <v>58</v>
       </c>
@@ -2874,15 +2918,15 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="7" t="s">
         <v>53</v>
       </c>
@@ -2899,15 +2943,15 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="7" t="s">
         <v>54</v>
       </c>
@@ -2924,21 +2968,21 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="23">
         <v>42393</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="19">
         <v>2016</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
       <c r="J57" s="7" t="s">
         <v>55</v>
       </c>
@@ -2955,15 +2999,15 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
       <c r="J58" s="7" t="s">
         <v>56</v>
       </c>
@@ -2974,21 +3018,21 @@
       </c>
       <c r="N58" s="3">
         <f>COUNTIF(C2:C1075,"DFC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
       <c r="J59" s="7" t="s">
         <v>57</v>
       </c>
@@ -3005,15 +3049,15 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
       <c r="J60" s="7" t="s">
         <v>59</v>
       </c>
@@ -3030,11 +3074,11 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="20">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="19" t="s">
         <v>165</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3046,12 +3090,12 @@
       <c r="E61" s="6">
         <v>2016</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -3066,8 +3110,8 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
@@ -3077,10 +3121,10 @@
       <c r="E62" s="6">
         <v>2016</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -3095,10 +3139,10 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="20">
         <v>29</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -3110,12 +3154,12 @@
       <c r="E63" s="6">
         <v>2016</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3130,8 +3174,8 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
@@ -3141,10 +3185,10 @@
       <c r="E64" s="6">
         <v>2016</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -3159,10 +3203,10 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="20">
         <v>30</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="19" t="s">
         <v>167</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3174,12 +3218,12 @@
       <c r="E65" s="6">
         <v>2016</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -3189,8 +3233,8 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="6" t="s">
         <v>65</v>
       </c>
@@ -3200,10 +3244,10 @@
       <c r="E66" s="6">
         <v>2016</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -3228,12 +3272,12 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -3243,11 +3287,11 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="A68" s="20">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3259,12 +3303,12 @@
       <c r="E68" s="6">
         <v>2016</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -3274,8 +3318,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="6" t="s">
         <v>73</v>
       </c>
@@ -3285,10 +3329,10 @@
       <c r="E69" s="6">
         <v>2016</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3298,8 +3342,8 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
@@ -3309,10 +3353,10 @@
       <c r="E70" s="6">
         <v>2016</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -3322,27 +3366,27 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="A71" s="20">
         <v>33</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="18">
         <v>42588</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="19">
         <v>2016</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
       <c r="J71" s="10" t="s">
         <v>70</v>
       </c>
@@ -3354,15 +3398,15 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
       <c r="J72" s="7" t="s">
         <v>58</v>
       </c>
@@ -3374,15 +3418,15 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
       <c r="J73" s="7" t="s">
         <v>53</v>
       </c>
@@ -3394,15 +3438,15 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
       <c r="J74" s="7" t="s">
         <v>54</v>
       </c>
@@ -3414,15 +3458,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
       <c r="J75" s="7" t="s">
         <v>80</v>
       </c>
@@ -3434,15 +3478,15 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
       <c r="J76" s="7" t="s">
         <v>81</v>
       </c>
@@ -3454,15 +3498,15 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
       <c r="J77" s="7" t="s">
         <v>57</v>
       </c>
@@ -3474,15 +3518,15 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
       <c r="J78" s="7" t="s">
         <v>82</v>
       </c>
@@ -3494,15 +3538,15 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
       <c r="J79" s="7" t="s">
         <v>108</v>
       </c>
@@ -3514,15 +3558,15 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
       <c r="J80" s="6" t="s">
         <v>83</v>
       </c>
@@ -3534,28 +3578,28 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+      <c r="A81" s="20">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="18">
         <v>42589</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="19">
         <v>2016</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
       <c r="J81" s="10" t="s">
         <v>70</v>
       </c>
@@ -3567,15 +3611,15 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
       <c r="J82" s="7" t="s">
         <v>52</v>
       </c>
@@ -3587,15 +3631,15 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
       <c r="J83" s="7" t="s">
         <v>84</v>
       </c>
@@ -3607,15 +3651,15 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="7" t="s">
         <v>53</v>
       </c>
@@ -3627,15 +3671,15 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
       <c r="J85" s="7" t="s">
         <v>54</v>
       </c>
@@ -3647,15 +3691,15 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
       <c r="J86" s="7" t="s">
         <v>90</v>
       </c>
@@ -3667,15 +3711,15 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
       <c r="J87" s="7" t="s">
         <v>81</v>
       </c>
@@ -3687,15 +3731,15 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
       <c r="J88" s="7" t="s">
         <v>57</v>
       </c>
@@ -3707,15 +3751,15 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
       <c r="J89" s="7" t="s">
         <v>85</v>
       </c>
@@ -3727,15 +3771,15 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
       <c r="J90" s="6" t="s">
         <v>86</v>
       </c>
@@ -3747,15 +3791,15 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
       <c r="J91" s="6" t="s">
         <v>87</v>
       </c>
@@ -3767,15 +3811,15 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
       <c r="J92" s="6" t="s">
         <v>89</v>
       </c>
@@ -3787,15 +3831,15 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
       <c r="J93" s="6" t="s">
         <v>88</v>
       </c>
@@ -3807,15 +3851,15 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
       <c r="J94" s="6" t="s">
         <v>91</v>
       </c>
@@ -3827,15 +3871,15 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
       <c r="J95" s="6" t="s">
         <v>92</v>
       </c>
@@ -3847,28 +3891,28 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+      <c r="A96" s="16">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="18">
         <v>42622</v>
       </c>
       <c r="E96" s="6">
         <v>2016</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F96" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
       <c r="J96" s="3"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -3878,19 +3922,19 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="6">
         <v>2016</v>
       </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
       <c r="J97" s="3"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -3900,28 +3944,28 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
+      <c r="A98" s="16">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="18">
         <v>42629</v>
       </c>
       <c r="E98" s="3">
         <v>2016</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
       <c r="J98" s="3"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -3931,19 +3975,19 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="15"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="3">
         <v>2016</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
       <c r="J99" s="10" t="s">
         <v>70</v>
       </c>
@@ -3955,28 +3999,28 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
+      <c r="A100" s="16">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="18">
         <v>42637</v>
       </c>
       <c r="E100" s="3">
         <v>2016</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
       <c r="J100" s="3" t="s">
         <v>104</v>
       </c>
@@ -3988,19 +4032,19 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="14"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="3">
         <v>2016</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
       <c r="J101" s="3" t="s">
         <v>105</v>
       </c>
@@ -4012,28 +4056,28 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
+      <c r="A102" s="16">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="18">
         <v>42643</v>
       </c>
       <c r="E102" s="3">
         <v>2016</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F102" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
       <c r="J102" s="3"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -4043,19 +4087,19 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="15"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="3">
         <v>2016</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
       <c r="J103" s="3"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -4065,19 +4109,19 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="15"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="3">
         <v>2016</v>
       </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
       <c r="J104" s="3"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -4087,28 +4131,28 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
+      <c r="A105" s="16">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="18">
         <v>42672</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="17">
         <v>2016</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
       <c r="J105" s="10" t="s">
         <v>70</v>
       </c>
@@ -4120,15 +4164,15 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
       <c r="J106" s="7" t="s">
         <v>104</v>
       </c>
@@ -4140,15 +4184,15 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
       <c r="J107" s="7" t="s">
         <v>109</v>
       </c>
@@ -4160,27 +4204,27 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
+      <c r="A108" s="16">
         <v>40</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="18">
         <v>42673</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="17">
         <v>2016</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
       <c r="J108" s="10" t="s">
         <v>70</v>
       </c>
@@ -4192,15 +4236,15 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
       <c r="J109" s="7" t="s">
         <v>104</v>
       </c>
@@ -4212,8 +4256,8 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="6" t="s">
         <v>111</v>
       </c>
@@ -4223,10 +4267,10 @@
       <c r="E110" s="4">
         <v>2016</v>
       </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
       <c r="J110" s="7" t="s">
         <v>112</v>
       </c>
@@ -4238,11 +4282,11 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="A111" s="16">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -4254,12 +4298,12 @@
       <c r="E111" s="4">
         <v>2016</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
       <c r="J111" s="10" t="s">
         <v>70</v>
       </c>
@@ -4271,8 +4315,8 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
@@ -4282,10 +4326,10 @@
       <c r="E112" s="4">
         <v>2016</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
       <c r="J112" s="7" t="s">
         <v>104</v>
       </c>
@@ -4297,11 +4341,11 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
+      <c r="A113" s="16">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -4313,12 +4357,12 @@
       <c r="E113" s="4">
         <v>2016</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
       <c r="J113" s="10" t="s">
         <v>70</v>
       </c>
@@ -4330,8 +4374,8 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
@@ -4341,10 +4385,10 @@
       <c r="E114" s="4">
         <v>2016</v>
       </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
       <c r="J114" s="7" t="s">
         <v>104</v>
       </c>
@@ -4372,12 +4416,12 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="14" t="s">
+      <c r="F115" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
       <c r="J115" s="3"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -4387,10 +4431,10 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
+      <c r="A116" s="16">
         <v>44</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -4402,12 +4446,12 @@
       <c r="E116" s="4">
         <v>2016</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
       <c r="J116" s="10" t="s">
         <v>70</v>
       </c>
@@ -4419,21 +4463,21 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="18" t="s">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="18">
         <v>42706</v>
       </c>
-      <c r="E117" s="16">
+      <c r="E117" s="17">
         <v>2016</v>
       </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
       <c r="J117" s="7" t="s">
         <v>104</v>
       </c>
@@ -4445,15 +4489,15 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
       <c r="J118" s="6" t="s">
         <v>121</v>
       </c>
@@ -4465,27 +4509,27 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
+      <c r="A119" s="16">
         <v>45</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="18">
         <v>42718</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="17">
         <v>2016</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
       <c r="J119" s="10" t="s">
         <v>70</v>
       </c>
@@ -4497,15 +4541,15 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
       <c r="J120" s="7" t="s">
         <v>104</v>
       </c>
@@ -4517,10 +4561,10 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
+      <c r="A121" s="16">
         <v>46</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4532,12 +4576,12 @@
       <c r="E121" s="4">
         <v>2017</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
       <c r="J121" s="10" t="s">
         <v>70</v>
       </c>
@@ -4549,8 +4593,8 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="3" t="s">
         <v>124</v>
       </c>
@@ -4560,10 +4604,10 @@
       <c r="E122" s="4">
         <v>2017</v>
       </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
       <c r="J122" s="7" t="s">
         <v>104</v>
       </c>
@@ -4575,10 +4619,10 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="A123" s="16">
         <v>47</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -4590,12 +4634,12 @@
       <c r="E123" s="4">
         <v>2017</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
       <c r="J123" s="10" t="s">
         <v>70</v>
       </c>
@@ -4607,21 +4651,21 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14" t="s">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="15">
+      <c r="D124" s="18">
         <v>42868</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="17">
         <v>2017</v>
       </c>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
       <c r="J124" s="9" t="s">
         <v>104</v>
       </c>
@@ -4633,15 +4677,15 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
       <c r="J125" s="9" t="s">
         <v>105</v>
       </c>
@@ -4653,8 +4697,8 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="4" t="s">
         <v>130</v>
       </c>
@@ -4664,10 +4708,10 @@
       <c r="E126" s="4">
         <v>2017</v>
       </c>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
       <c r="J126" s="9" t="s">
         <v>136</v>
       </c>
@@ -4679,8 +4723,8 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4690,10 +4734,10 @@
       <c r="E127" s="4">
         <v>2017</v>
       </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
       <c r="J127" s="9" t="s">
         <v>53</v>
       </c>
@@ -4705,8 +4749,8 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="4" t="s">
         <v>131</v>
       </c>
@@ -4716,10 +4760,10 @@
       <c r="E128" s="4">
         <v>2017</v>
       </c>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
       <c r="J128" s="9" t="s">
         <v>137</v>
       </c>
@@ -4731,8 +4775,8 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
@@ -4742,10 +4786,10 @@
       <c r="E129" s="4">
         <v>2017</v>
       </c>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
       <c r="J129" s="9" t="s">
         <v>54</v>
       </c>
@@ -4757,8 +4801,8 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="4" t="s">
         <v>132</v>
       </c>
@@ -4768,10 +4812,10 @@
       <c r="E130" s="4">
         <v>2017</v>
       </c>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
       <c r="J130" s="9" t="s">
         <v>172</v>
       </c>
@@ -4783,21 +4827,21 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="16" t="s">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D131" s="15">
+      <c r="D131" s="18">
         <v>42868</v>
       </c>
-      <c r="E131" s="16">
+      <c r="E131" s="17">
         <v>2017</v>
       </c>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
       <c r="J131" s="9" t="s">
         <v>57</v>
       </c>
@@ -4809,15 +4853,15 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
       <c r="J132" s="9" t="s">
         <v>87</v>
       </c>
@@ -4829,21 +4873,21 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="16" t="s">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D133" s="18">
         <v>42868</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="17">
         <v>2017</v>
       </c>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
       <c r="J133" s="9" t="s">
         <v>138</v>
       </c>
@@ -4855,15 +4899,15 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
       <c r="J134" s="9" t="s">
         <v>139</v>
       </c>
@@ -4875,8 +4919,8 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
@@ -4886,10 +4930,10 @@
       <c r="E135" s="4">
         <v>2017</v>
       </c>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
       <c r="J135" s="9" t="s">
         <v>140</v>
       </c>
@@ -4901,10 +4945,10 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
+      <c r="A136" s="16">
         <v>46</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4916,12 +4960,12 @@
       <c r="E136" s="4">
         <v>2017</v>
       </c>
-      <c r="F136" s="14" t="s">
+      <c r="F136" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -4931,8 +4975,8 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="4" t="s">
         <v>143</v>
       </c>
@@ -4942,10 +4986,10 @@
       <c r="E137" s="4">
         <v>2017</v>
       </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -4955,8 +4999,8 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="4" t="s">
         <v>141</v>
       </c>
@@ -4966,10 +5010,10 @@
       <c r="E138" s="4">
         <v>2017</v>
       </c>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -4979,10 +5023,10 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
+      <c r="A139" s="16">
         <v>47</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="16" t="s">
         <v>144</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -4994,12 +5038,12 @@
       <c r="E139" s="4">
         <v>2017</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F139" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -5009,8 +5053,8 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="4" t="s">
         <v>146</v>
       </c>
@@ -5020,10 +5064,10 @@
       <c r="E140" s="4">
         <v>2017</v>
       </c>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5033,8 +5077,8 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
@@ -5044,10 +5088,10 @@
       <c r="E141" s="4">
         <v>2017</v>
       </c>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5057,10 +5101,10 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+      <c r="A142" s="16">
         <v>48</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5072,12 +5116,12 @@
       <c r="E142" s="4">
         <v>2017</v>
       </c>
-      <c r="F142" s="14" t="s">
+      <c r="F142" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
       <c r="J142" s="10" t="s">
         <v>70</v>
       </c>
@@ -5089,8 +5133,8 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="4" t="s">
         <v>147</v>
       </c>
@@ -5100,10 +5144,10 @@
       <c r="E143" s="4">
         <v>2017</v>
       </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
       <c r="J143" s="7" t="s">
         <v>151</v>
       </c>
@@ -5115,8 +5159,8 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="4" t="s">
         <v>148</v>
       </c>
@@ -5126,10 +5170,10 @@
       <c r="E144" s="4">
         <v>2017</v>
       </c>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -5139,10 +5183,10 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+      <c r="A145" s="16">
         <v>49</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -5154,12 +5198,12 @@
       <c r="E145" s="4">
         <v>2017</v>
       </c>
-      <c r="F145" s="14" t="s">
+      <c r="F145" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5169,8 +5213,8 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="4" t="s">
         <v>149</v>
       </c>
@@ -5180,10 +5224,10 @@
       <c r="E146" s="4">
         <v>2017</v>
       </c>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5193,8 +5237,8 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="4" t="s">
         <v>150</v>
       </c>
@@ -5204,10 +5248,10 @@
       <c r="E147" s="4">
         <v>2017</v>
       </c>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -5217,27 +5261,27 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="17">
+      <c r="A148" s="20">
         <v>50</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="16" t="s">
+      <c r="C148" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="18">
         <v>43036</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="17">
         <v>2017</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F148" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
       <c r="J148" s="10" t="s">
         <v>70</v>
       </c>
@@ -5249,15 +5293,15 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="17"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
       <c r="J149" s="3" t="s">
         <v>87</v>
       </c>
@@ -5269,15 +5313,15 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="17"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
       <c r="J150" s="3" t="s">
         <v>88</v>
       </c>
@@ -5289,15 +5333,15 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
       <c r="J151" s="3" t="s">
         <v>154</v>
       </c>
@@ -5309,15 +5353,15 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="17"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
       <c r="J152" s="3" t="s">
         <v>155</v>
       </c>
@@ -5344,12 +5388,12 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5359,11 +5403,11 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+      <c r="A154" s="16">
         <f>(A153+1)</f>
         <v>52</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -5375,12 +5419,12 @@
       <c r="E154" s="4">
         <v>2018</v>
       </c>
-      <c r="F154" s="14" t="s">
+      <c r="F154" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
       <c r="J154" s="9"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5390,8 +5434,8 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="4" t="s">
         <v>161</v>
       </c>
@@ -5401,10 +5445,10 @@
       <c r="E155" s="4">
         <v>2018</v>
       </c>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5414,8 +5458,8 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
@@ -5425,10 +5469,10 @@
       <c r="E156" s="4">
         <v>2018</v>
       </c>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5453,12 +5497,12 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="F157" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5468,10 +5512,10 @@
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+      <c r="A158" s="16">
         <v>54</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="16" t="s">
         <v>144</v>
       </c>
       <c r="C158" s="12" t="s">
@@ -5483,16 +5527,16 @@
       <c r="E158" s="12">
         <v>2018</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F158" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="12" t="s">
         <v>174</v>
       </c>
@@ -5502,14 +5546,14 @@
       <c r="E159" s="11">
         <v>2018</v>
       </c>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="12" t="s">
         <v>175</v>
       </c>
@@ -5519,33 +5563,278 @@
       <c r="E160" s="11">
         <v>2018</v>
       </c>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="12" t="s">
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="13">
+      <c r="D161" s="28">
         <v>43309</v>
       </c>
-      <c r="E161" s="11">
+      <c r="E161" s="29">
         <v>2018</v>
       </c>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="16">
+        <v>55</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162" s="30">
+        <v>43330</v>
+      </c>
+      <c r="E162" s="14">
+        <v>2018</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D163" s="30">
+        <v>43330</v>
+      </c>
+      <c r="E163" s="14">
+        <v>2018</v>
+      </c>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="24"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D164" s="30">
+        <v>43330</v>
+      </c>
+      <c r="E164" s="14">
+        <v>2018</v>
+      </c>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D165" s="30">
+        <v>43330</v>
+      </c>
+      <c r="E165" s="14">
+        <v>2018</v>
+      </c>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="182">
+  <mergeCells count="187">
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
     <mergeCell ref="F158:I161"/>
     <mergeCell ref="B158:B161"/>
     <mergeCell ref="A158:A161"/>
@@ -5570,164 +5859,6 @@
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A113:A114"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="182">
   <si>
     <t>Banda</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>Heavy Duty</t>
+  </si>
+  <si>
+    <t>Destruction: The Butchers Are Back</t>
+  </si>
+  <si>
+    <t>Destruction</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,30 +699,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,6 +709,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:P166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,10 +1089,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1089,12 +1104,12 @@
       <c r="E2" s="9">
         <v>2007</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="9">
         <v>2007</v>
       </c>
@@ -1104,7 +1119,7 @@
       </c>
       <c r="L2" s="9">
         <f>SUM(K2:K51)</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
@@ -1122,8 +1137,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1133,10 +1148,10 @@
       <c r="E3" s="7">
         <v>2007</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1161,11 +1176,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="27">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="27" t="s">
         <v>162</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1177,12 +1192,12 @@
       <c r="E4" s="7">
         <v>2012</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1207,8 +1222,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1218,10 +1233,10 @@
       <c r="E5" s="7">
         <v>2012</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1262,12 +1277,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1308,12 +1323,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1338,10 +1353,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1353,12 +1368,12 @@
       <c r="E8" s="7">
         <v>2013</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1383,8 +1398,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1394,16 +1409,16 @@
       <c r="E9" s="7">
         <v>2013</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
       <c r="K9" s="7">
         <f>COUNTIF(E2:E1000,"2018")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
@@ -1422,8 +1437,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1433,10 +1448,10 @@
       <c r="E10" s="7">
         <v>2013</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1456,10 +1471,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="27">
         <v>6</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1471,12 +1486,12 @@
       <c r="E11" s="7">
         <v>2013</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1496,8 +1511,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1507,10 +1522,10 @@
       <c r="E12" s="7">
         <v>2013</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1530,8 +1545,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1541,10 +1556,10 @@
       <c r="E13" s="7">
         <v>2013</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1564,8 +1579,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1575,10 +1590,10 @@
       <c r="E14" s="7">
         <v>2013</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1598,8 +1613,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1609,10 +1624,10 @@
       <c r="E15" s="7">
         <v>2013</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1632,10 +1647,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="27">
         <v>7</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1647,12 +1662,12 @@
       <c r="E16" s="7">
         <v>2013</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1668,12 +1683,12 @@
       </c>
       <c r="P16" s="3">
         <f>COUNTIF(F2:F1030,"Teatro Odisseia")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1683,10 +1698,10 @@
       <c r="E17" s="7">
         <v>2013</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1721,12 +1736,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1762,12 +1777,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1798,12 +1813,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1834,12 +1849,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1854,11 +1869,11 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1870,12 +1885,12 @@
       <c r="E22" s="7">
         <v>2014</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1890,8 +1905,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="7" t="s">
         <v>97</v>
       </c>
@@ -1901,10 +1916,10 @@
       <c r="E23" s="7">
         <v>2014</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1919,8 +1934,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
@@ -1930,10 +1945,10 @@
       <c r="E24" s="7">
         <v>2014</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1963,12 +1978,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1983,11 +1998,11 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1999,12 +2014,12 @@
       <c r="E26" s="7">
         <v>2014</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2019,8 +2034,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
@@ -2030,10 +2045,10 @@
       <c r="E27" s="7">
         <v>2014</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2048,10 +2063,10 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="27">
         <v>15</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2063,12 +2078,12 @@
       <c r="E28" s="7">
         <v>2015</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2083,8 +2098,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
@@ -2094,10 +2109,10 @@
       <c r="E29" s="7">
         <v>2015</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2112,8 +2127,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
@@ -2123,10 +2138,10 @@
       <c r="E30" s="7">
         <v>2015</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2156,12 +2171,12 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2176,11 +2191,11 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2192,12 +2207,12 @@
       <c r="E32" s="7">
         <v>2015</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2212,8 +2227,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2223,10 +2238,10 @@
       <c r="E33" s="7">
         <v>2015</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2241,8 +2256,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
@@ -2252,10 +2267,10 @@
       <c r="E34" s="7">
         <v>2015</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2285,12 +2300,12 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2305,11 +2320,11 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="27" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2321,12 +2336,12 @@
       <c r="E36" s="7">
         <v>2015</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2341,8 +2356,8 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2352,10 +2367,10 @@
       <c r="E37" s="7">
         <v>2015</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2370,10 +2385,10 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="27">
         <v>20</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2385,12 +2400,12 @@
       <c r="E38" s="7">
         <v>2015</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2405,8 +2420,8 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2416,10 +2431,10 @@
       <c r="E39" s="7">
         <v>2015</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="7" t="s">
         <v>119</v>
       </c>
@@ -2436,10 +2451,10 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="27">
         <v>21</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -2451,12 +2466,12 @@
       <c r="E40" s="7">
         <v>2015</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2471,8 +2486,8 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="7" t="s">
         <v>161</v>
       </c>
@@ -2482,10 +2497,10 @@
       <c r="E41" s="7">
         <v>2015</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2500,8 +2515,8 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
@@ -2511,10 +2526,10 @@
       <c r="E42" s="7">
         <v>2015</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2529,10 +2544,10 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="27">
         <v>22</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2544,12 +2559,12 @@
       <c r="E43" s="7">
         <v>2015</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2564,8 +2579,8 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
@@ -2575,10 +2590,10 @@
       <c r="E44" s="7">
         <v>2015</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2593,8 +2608,8 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
@@ -2604,10 +2619,10 @@
       <c r="E45" s="7">
         <v>2015</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2622,8 +2637,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
@@ -2633,10 +2648,10 @@
       <c r="E46" s="7">
         <v>2015</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="10" t="s">
         <v>70</v>
       </c>
@@ -2653,27 +2668,27 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="27">
         <v>23</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="29">
         <v>42308</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="27">
         <v>2015</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="7" t="s">
         <v>104</v>
       </c>
@@ -2690,15 +2705,15 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="7" t="s">
         <v>109</v>
       </c>
@@ -2715,11 +2730,11 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="27">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2731,12 +2746,12 @@
       <c r="E49" s="6">
         <v>2015</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -2751,8 +2766,8 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
@@ -2762,10 +2777,10 @@
       <c r="E50" s="6">
         <v>2015</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -2795,12 +2810,12 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -2833,12 +2848,12 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
       <c r="J52" s="7" t="s">
         <v>104</v>
       </c>
@@ -2855,28 +2870,28 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+      <c r="A53" s="27">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="29">
         <v>42393</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="28">
         <v>2016</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="7" t="s">
         <v>52</v>
       </c>
@@ -2893,15 +2908,15 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="7" t="s">
         <v>58</v>
       </c>
@@ -2918,15 +2933,15 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="7" t="s">
         <v>53</v>
       </c>
@@ -2943,15 +2958,15 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="7" t="s">
         <v>54</v>
       </c>
@@ -2968,21 +2983,21 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="29">
         <v>42393</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="28">
         <v>2016</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
       <c r="J57" s="7" t="s">
         <v>55</v>
       </c>
@@ -2999,15 +3014,15 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
       <c r="J58" s="7" t="s">
         <v>56</v>
       </c>
@@ -3024,15 +3039,15 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
       <c r="J59" s="7" t="s">
         <v>57</v>
       </c>
@@ -3049,15 +3064,15 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
       <c r="J60" s="7" t="s">
         <v>59</v>
       </c>
@@ -3074,11 +3089,11 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+      <c r="A61" s="27">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="28" t="s">
         <v>165</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3090,12 +3105,12 @@
       <c r="E61" s="6">
         <v>2016</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -3110,8 +3125,8 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
@@ -3121,10 +3136,10 @@
       <c r="E62" s="6">
         <v>2016</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -3139,10 +3154,10 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
+      <c r="A63" s="27">
         <v>29</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -3154,12 +3169,12 @@
       <c r="E63" s="6">
         <v>2016</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3174,8 +3189,8 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
@@ -3185,10 +3200,10 @@
       <c r="E64" s="6">
         <v>2016</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -3203,10 +3218,10 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="27">
         <v>30</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="28" t="s">
         <v>167</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3218,23 +3233,28 @@
       <c r="E65" s="6">
         <v>2016</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="M65" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N65" s="3">
+        <f>COUNTIF(C2:C1075,"Destruction")</f>
+        <v>1</v>
+      </c>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="6" t="s">
         <v>65</v>
       </c>
@@ -3244,10 +3264,10 @@
       <c r="E66" s="6">
         <v>2016</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -3272,12 +3292,12 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -3287,11 +3307,11 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
+      <c r="A68" s="27">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3303,12 +3323,12 @@
       <c r="E68" s="6">
         <v>2016</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -3318,8 +3338,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="6" t="s">
         <v>73</v>
       </c>
@@ -3329,10 +3349,10 @@
       <c r="E69" s="6">
         <v>2016</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3342,8 +3362,8 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
@@ -3353,10 +3373,10 @@
       <c r="E70" s="6">
         <v>2016</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -3366,27 +3386,27 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
+      <c r="A71" s="27">
         <v>33</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="25">
         <v>42588</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="28">
         <v>2016</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
       <c r="J71" s="10" t="s">
         <v>70</v>
       </c>
@@ -3398,15 +3418,15 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
       <c r="J72" s="7" t="s">
         <v>58</v>
       </c>
@@ -3418,15 +3438,15 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="7" t="s">
         <v>53</v>
       </c>
@@ -3438,15 +3458,15 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
       <c r="J74" s="7" t="s">
         <v>54</v>
       </c>
@@ -3458,15 +3478,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
       <c r="J75" s="7" t="s">
         <v>80</v>
       </c>
@@ -3478,15 +3498,15 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
       <c r="J76" s="7" t="s">
         <v>81</v>
       </c>
@@ -3498,15 +3518,15 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
       <c r="J77" s="7" t="s">
         <v>57</v>
       </c>
@@ -3518,15 +3538,15 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
       <c r="J78" s="7" t="s">
         <v>82</v>
       </c>
@@ -3538,15 +3558,15 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="7" t="s">
         <v>108</v>
       </c>
@@ -3558,15 +3578,15 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
       <c r="J80" s="6" t="s">
         <v>83</v>
       </c>
@@ -3578,28 +3598,28 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
+      <c r="A81" s="27">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="25">
         <v>42589</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="28">
         <v>2016</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
       <c r="J81" s="10" t="s">
         <v>70</v>
       </c>
@@ -3611,15 +3631,15 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
       <c r="J82" s="7" t="s">
         <v>52</v>
       </c>
@@ -3631,15 +3651,15 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="7" t="s">
         <v>84</v>
       </c>
@@ -3651,15 +3671,15 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
       <c r="J84" s="7" t="s">
         <v>53</v>
       </c>
@@ -3671,15 +3691,15 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
       <c r="J85" s="7" t="s">
         <v>54</v>
       </c>
@@ -3691,15 +3711,15 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="7" t="s">
         <v>90</v>
       </c>
@@ -3711,15 +3731,15 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
       <c r="J87" s="7" t="s">
         <v>81</v>
       </c>
@@ -3731,15 +3751,15 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="7" t="s">
         <v>57</v>
       </c>
@@ -3751,15 +3771,15 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="7" t="s">
         <v>85</v>
       </c>
@@ -3771,15 +3791,15 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="6" t="s">
         <v>86</v>
       </c>
@@ -3791,15 +3811,15 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
       <c r="J91" s="6" t="s">
         <v>87</v>
       </c>
@@ -3811,15 +3831,15 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
       <c r="J92" s="6" t="s">
         <v>89</v>
       </c>
@@ -3831,15 +3851,15 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
       <c r="J93" s="6" t="s">
         <v>88</v>
       </c>
@@ -3851,15 +3871,15 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
       <c r="J94" s="6" t="s">
         <v>91</v>
       </c>
@@ -3871,15 +3891,15 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
       <c r="J95" s="6" t="s">
         <v>92</v>
       </c>
@@ -3891,28 +3911,28 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
+      <c r="A96" s="23">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="30" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="25">
         <v>42622</v>
       </c>
       <c r="E96" s="6">
         <v>2016</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
       <c r="J96" s="3"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -3922,19 +3942,19 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="16"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="6">
         <v>2016</v>
       </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
       <c r="J97" s="3"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -3944,28 +3964,28 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
+      <c r="A98" s="23">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="25">
         <v>42629</v>
       </c>
       <c r="E98" s="3">
         <v>2016</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
       <c r="J98" s="3"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -3975,19 +3995,19 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="18"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="3">
         <v>2016</v>
       </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
       <c r="J99" s="10" t="s">
         <v>70</v>
       </c>
@@ -3999,28 +4019,28 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="16">
+      <c r="A100" s="23">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="25">
         <v>42637</v>
       </c>
       <c r="E100" s="3">
         <v>2016</v>
       </c>
-      <c r="F100" s="16" t="s">
+      <c r="F100" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
       <c r="J100" s="3" t="s">
         <v>104</v>
       </c>
@@ -4032,19 +4052,19 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="16"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="3">
         <v>2016</v>
       </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
       <c r="J101" s="3" t="s">
         <v>105</v>
       </c>
@@ -4056,28 +4076,28 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="16">
+      <c r="A102" s="23">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="25">
         <v>42643</v>
       </c>
       <c r="E102" s="3">
         <v>2016</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
       <c r="J102" s="3"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -4087,19 +4107,19 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="18"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="3">
         <v>2016</v>
       </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
       <c r="J103" s="3"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -4109,19 +4129,19 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="18"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="3">
         <v>2016</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
       <c r="J104" s="3"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -4131,28 +4151,28 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="16">
+      <c r="A105" s="23">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="25">
         <v>42672</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="26">
         <v>2016</v>
       </c>
-      <c r="F105" s="16" t="s">
+      <c r="F105" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
       <c r="J105" s="10" t="s">
         <v>70</v>
       </c>
@@ -4164,15 +4184,15 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
       <c r="J106" s="7" t="s">
         <v>104</v>
       </c>
@@ -4184,15 +4204,15 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
       <c r="J107" s="7" t="s">
         <v>109</v>
       </c>
@@ -4204,27 +4224,27 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="16">
+      <c r="A108" s="23">
         <v>40</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="25">
         <v>42673</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="26">
         <v>2016</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
       <c r="J108" s="10" t="s">
         <v>70</v>
       </c>
@@ -4236,15 +4256,15 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
       <c r="J109" s="7" t="s">
         <v>104</v>
       </c>
@@ -4256,8 +4276,8 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="6" t="s">
         <v>111</v>
       </c>
@@ -4267,10 +4287,10 @@
       <c r="E110" s="4">
         <v>2016</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
       <c r="J110" s="7" t="s">
         <v>112</v>
       </c>
@@ -4282,11 +4302,11 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="16">
+      <c r="A111" s="23">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -4298,12 +4318,12 @@
       <c r="E111" s="4">
         <v>2016</v>
       </c>
-      <c r="F111" s="16" t="s">
+      <c r="F111" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
       <c r="J111" s="10" t="s">
         <v>70</v>
       </c>
@@ -4315,8 +4335,8 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
@@ -4326,10 +4346,10 @@
       <c r="E112" s="4">
         <v>2016</v>
       </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
       <c r="J112" s="7" t="s">
         <v>104</v>
       </c>
@@ -4341,11 +4361,11 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="16">
+      <c r="A113" s="23">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -4357,12 +4377,12 @@
       <c r="E113" s="4">
         <v>2016</v>
       </c>
-      <c r="F113" s="16" t="s">
+      <c r="F113" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
       <c r="J113" s="10" t="s">
         <v>70</v>
       </c>
@@ -4374,8 +4394,8 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
@@ -4385,10 +4405,10 @@
       <c r="E114" s="4">
         <v>2016</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
       <c r="J114" s="7" t="s">
         <v>104</v>
       </c>
@@ -4416,12 +4436,12 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F115" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
       <c r="J115" s="3"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -4431,10 +4451,10 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="16">
+      <c r="A116" s="23">
         <v>44</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="23" t="s">
         <v>125</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -4446,12 +4466,12 @@
       <c r="E116" s="4">
         <v>2016</v>
       </c>
-      <c r="F116" s="16" t="s">
+      <c r="F116" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
       <c r="J116" s="10" t="s">
         <v>70</v>
       </c>
@@ -4463,21 +4483,21 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="19" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="25">
         <v>42706</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="26">
         <v>2016</v>
       </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
       <c r="J117" s="7" t="s">
         <v>104</v>
       </c>
@@ -4489,15 +4509,15 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
       <c r="J118" s="6" t="s">
         <v>121</v>
       </c>
@@ -4509,27 +4529,27 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="16">
+      <c r="A119" s="23">
         <v>45</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="25">
         <v>42718</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E119" s="26">
         <v>2016</v>
       </c>
-      <c r="F119" s="16" t="s">
+      <c r="F119" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
       <c r="J119" s="10" t="s">
         <v>70</v>
       </c>
@@ -4541,15 +4561,15 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
       <c r="J120" s="7" t="s">
         <v>104</v>
       </c>
@@ -4561,10 +4581,10 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="16">
+      <c r="A121" s="23">
         <v>46</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4576,12 +4596,12 @@
       <c r="E121" s="4">
         <v>2017</v>
       </c>
-      <c r="F121" s="16" t="s">
+      <c r="F121" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
       <c r="J121" s="10" t="s">
         <v>70</v>
       </c>
@@ -4593,8 +4613,8 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="3" t="s">
         <v>124</v>
       </c>
@@ -4604,10 +4624,10 @@
       <c r="E122" s="4">
         <v>2017</v>
       </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
       <c r="J122" s="7" t="s">
         <v>104</v>
       </c>
@@ -4619,10 +4639,10 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="16">
+      <c r="A123" s="23">
         <v>47</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="23" t="s">
         <v>126</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -4634,12 +4654,12 @@
       <c r="E123" s="4">
         <v>2017</v>
       </c>
-      <c r="F123" s="16" t="s">
+      <c r="F123" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
       <c r="J123" s="10" t="s">
         <v>70</v>
       </c>
@@ -4651,21 +4671,21 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16" t="s">
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="25">
         <v>42868</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E124" s="26">
         <v>2017</v>
       </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
       <c r="J124" s="9" t="s">
         <v>104</v>
       </c>
@@ -4677,15 +4697,15 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
       <c r="J125" s="9" t="s">
         <v>105</v>
       </c>
@@ -4697,8 +4717,8 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="4" t="s">
         <v>130</v>
       </c>
@@ -4708,10 +4728,10 @@
       <c r="E126" s="4">
         <v>2017</v>
       </c>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
       <c r="J126" s="9" t="s">
         <v>136</v>
       </c>
@@ -4723,8 +4743,8 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4734,10 +4754,10 @@
       <c r="E127" s="4">
         <v>2017</v>
       </c>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
       <c r="J127" s="9" t="s">
         <v>53</v>
       </c>
@@ -4749,8 +4769,8 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="4" t="s">
         <v>131</v>
       </c>
@@ -4760,10 +4780,10 @@
       <c r="E128" s="4">
         <v>2017</v>
       </c>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
       <c r="J128" s="9" t="s">
         <v>137</v>
       </c>
@@ -4775,8 +4795,8 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
@@ -4786,10 +4806,10 @@
       <c r="E129" s="4">
         <v>2017</v>
       </c>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
       <c r="J129" s="9" t="s">
         <v>54</v>
       </c>
@@ -4801,8 +4821,8 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="4" t="s">
         <v>132</v>
       </c>
@@ -4812,10 +4832,10 @@
       <c r="E130" s="4">
         <v>2017</v>
       </c>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
       <c r="J130" s="9" t="s">
         <v>172</v>
       </c>
@@ -4827,21 +4847,21 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="17" t="s">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="25">
         <v>42868</v>
       </c>
-      <c r="E131" s="17">
+      <c r="E131" s="26">
         <v>2017</v>
       </c>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
       <c r="J131" s="9" t="s">
         <v>57</v>
       </c>
@@ -4853,15 +4873,15 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
       <c r="J132" s="9" t="s">
         <v>87</v>
       </c>
@@ -4873,21 +4893,21 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="17" t="s">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="25">
         <v>42868</v>
       </c>
-      <c r="E133" s="17">
+      <c r="E133" s="26">
         <v>2017</v>
       </c>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
       <c r="J133" s="9" t="s">
         <v>138</v>
       </c>
@@ -4899,15 +4919,15 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="23"/>
       <c r="J134" s="9" t="s">
         <v>139</v>
       </c>
@@ -4919,8 +4939,8 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
@@ -4930,10 +4950,10 @@
       <c r="E135" s="4">
         <v>2017</v>
       </c>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
       <c r="J135" s="9" t="s">
         <v>140</v>
       </c>
@@ -4945,10 +4965,10 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="16">
+      <c r="A136" s="23">
         <v>46</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="23" t="s">
         <v>141</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4960,12 +4980,12 @@
       <c r="E136" s="4">
         <v>2017</v>
       </c>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -4975,8 +4995,8 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="4" t="s">
         <v>143</v>
       </c>
@@ -4986,10 +5006,10 @@
       <c r="E137" s="4">
         <v>2017</v>
       </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -4999,8 +5019,8 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="4" t="s">
         <v>141</v>
       </c>
@@ -5010,10 +5030,10 @@
       <c r="E138" s="4">
         <v>2017</v>
       </c>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -5023,10 +5043,10 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="16">
+      <c r="A139" s="23">
         <v>47</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="23" t="s">
         <v>144</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -5038,12 +5058,12 @@
       <c r="E139" s="4">
         <v>2017</v>
       </c>
-      <c r="F139" s="16" t="s">
+      <c r="F139" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -5053,8 +5073,8 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
-      <c r="B140" s="16"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="4" t="s">
         <v>146</v>
       </c>
@@ -5064,10 +5084,10 @@
       <c r="E140" s="4">
         <v>2017</v>
       </c>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5077,8 +5097,8 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="16"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
@@ -5088,10 +5108,10 @@
       <c r="E141" s="4">
         <v>2017</v>
       </c>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="23"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5101,10 +5121,10 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="16">
+      <c r="A142" s="23">
         <v>48</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5116,12 +5136,12 @@
       <c r="E142" s="4">
         <v>2017</v>
       </c>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
       <c r="J142" s="10" t="s">
         <v>70</v>
       </c>
@@ -5133,8 +5153,8 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="4" t="s">
         <v>147</v>
       </c>
@@ -5144,10 +5164,10 @@
       <c r="E143" s="4">
         <v>2017</v>
       </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="23"/>
       <c r="J143" s="7" t="s">
         <v>151</v>
       </c>
@@ -5159,8 +5179,8 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="4" t="s">
         <v>148</v>
       </c>
@@ -5170,10 +5190,10 @@
       <c r="E144" s="4">
         <v>2017</v>
       </c>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -5183,10 +5203,10 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="16">
+      <c r="A145" s="23">
         <v>49</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -5198,12 +5218,12 @@
       <c r="E145" s="4">
         <v>2017</v>
       </c>
-      <c r="F145" s="16" t="s">
+      <c r="F145" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5213,8 +5233,8 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="4" t="s">
         <v>149</v>
       </c>
@@ -5224,10 +5244,10 @@
       <c r="E146" s="4">
         <v>2017</v>
       </c>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5237,8 +5257,8 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" s="16"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="4" t="s">
         <v>150</v>
       </c>
@@ -5248,10 +5268,10 @@
       <c r="E147" s="4">
         <v>2017</v>
       </c>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -5261,27 +5281,27 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="20">
+      <c r="A148" s="27">
         <v>50</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="25">
         <v>43036</v>
       </c>
-      <c r="E148" s="17">
+      <c r="E148" s="26">
         <v>2017</v>
       </c>
-      <c r="F148" s="16" t="s">
+      <c r="F148" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
       <c r="J148" s="10" t="s">
         <v>70</v>
       </c>
@@ -5293,15 +5313,15 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
+      <c r="A149" s="27"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
       <c r="J149" s="3" t="s">
         <v>87</v>
       </c>
@@ -5313,15 +5333,15 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="16"/>
+      <c r="A150" s="27"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
       <c r="J150" s="3" t="s">
         <v>88</v>
       </c>
@@ -5333,15 +5353,15 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="16"/>
+      <c r="A151" s="27"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
       <c r="J151" s="3" t="s">
         <v>154</v>
       </c>
@@ -5353,15 +5373,15 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="16"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="23"/>
       <c r="J152" s="3" t="s">
         <v>155</v>
       </c>
@@ -5388,12 +5408,12 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="16" t="s">
+      <c r="F153" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="16"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="23"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5403,11 +5423,11 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="16">
+      <c r="A154" s="23">
         <f>(A153+1)</f>
         <v>52</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="23" t="s">
         <v>160</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -5419,12 +5439,12 @@
       <c r="E154" s="4">
         <v>2018</v>
       </c>
-      <c r="F154" s="16" t="s">
+      <c r="F154" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="16"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="23"/>
       <c r="J154" s="9"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5434,8 +5454,8 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
-      <c r="B155" s="16"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="4" t="s">
         <v>161</v>
       </c>
@@ -5445,10 +5465,10 @@
       <c r="E155" s="4">
         <v>2018</v>
       </c>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="23"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5458,8 +5478,8 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
-      <c r="B156" s="16"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
@@ -5469,10 +5489,10 @@
       <c r="E156" s="4">
         <v>2018</v>
       </c>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="16"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5497,12 +5517,12 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="16" t="s">
+      <c r="F157" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16"/>
-      <c r="I157" s="16"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5512,10 +5532,10 @@
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="16">
+      <c r="A158" s="23">
         <v>54</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="23" t="s">
         <v>144</v>
       </c>
       <c r="C158" s="12" t="s">
@@ -5527,16 +5547,16 @@
       <c r="E158" s="12">
         <v>2018</v>
       </c>
-      <c r="F158" s="16" t="s">
+      <c r="F158" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="16"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="12" t="s">
         <v>174</v>
       </c>
@@ -5546,14 +5566,14 @@
       <c r="E159" s="11">
         <v>2018</v>
       </c>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="16"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="16"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="12" t="s">
         <v>175</v>
       </c>
@@ -5563,115 +5583,302 @@
       <c r="E160" s="11">
         <v>2018</v>
       </c>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="16"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="27" t="s">
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="28">
+      <c r="D161" s="20">
         <v>43309</v>
       </c>
-      <c r="E161" s="29">
+      <c r="E161" s="21">
         <v>2018</v>
       </c>
-      <c r="F161" s="26"/>
-      <c r="G161" s="26"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="26"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="16">
+      <c r="A162" s="23">
         <v>55</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="23" t="s">
         <v>145</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D162" s="30">
+      <c r="D162" s="22">
         <v>43330</v>
       </c>
       <c r="E162" s="14">
         <v>2018</v>
       </c>
-      <c r="F162" s="16" t="s">
+      <c r="F162" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="16"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
+      <c r="I162" s="23"/>
       <c r="J162" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
-      <c r="B163" s="16"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D163" s="30">
+      <c r="D163" s="22">
         <v>43330</v>
       </c>
       <c r="E163" s="14">
         <v>2018</v>
       </c>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="16"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="23"/>
       <c r="J163" s="24"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="16"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D164" s="30">
+      <c r="D164" s="22">
         <v>43330</v>
       </c>
       <c r="E164" s="14">
         <v>2018</v>
       </c>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="16"/>
-      <c r="J164" s="16" t="s">
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
-      <c r="B165" s="16"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D165" s="30">
+      <c r="D165" s="22">
         <v>43330</v>
       </c>
       <c r="E165" s="14">
         <v>2018</v>
       </c>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="16"/>
-      <c r="J165" s="16"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="16">
+        <v>56</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D166" s="18">
+        <v>43361</v>
+      </c>
+      <c r="E166" s="17">
+        <v>2018</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
+      <c r="I166" s="23"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="187">
+  <mergeCells count="188">
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E133:E134"/>
     <mergeCell ref="B162:B165"/>
     <mergeCell ref="A162:A165"/>
     <mergeCell ref="F162:I165"/>
@@ -5696,169 +5903,6 @@
     <mergeCell ref="A148:A152"/>
     <mergeCell ref="F154:I156"/>
     <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="187">
   <si>
     <t>Banda</t>
   </si>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>New Day Rising</t>
+  </si>
+  <si>
+    <t>Último Show do Matanza no Circo Voador</t>
+  </si>
+  <si>
+    <t>Circus Rock</t>
+  </si>
+  <si>
+    <t>Diabo Verde</t>
   </si>
 </sst>
 </file>
@@ -611,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -647,11 +656,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,20 +726,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,16 +765,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,12 +1092,12 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="6" t="s">
         <v>71</v>
       </c>
@@ -1073,10 +1121,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1088,12 +1136,12 @@
       <c r="E2" s="12">
         <v>2007</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="12">
         <v>2007</v>
       </c>
@@ -1103,14 +1151,14 @@
       </c>
       <c r="L2" s="12">
         <f>SUM(K2:K51)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="9">
         <f>COUNTIF(C1:C1015,"Matanza")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
@@ -1121,8 +1169,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1132,10 +1180,10 @@
       <c r="E3" s="9">
         <v>2007</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="9">
         <v>2012</v>
       </c>
@@ -1160,11 +1208,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="22">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1176,12 +1224,12 @@
       <c r="E4" s="9">
         <v>2012</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="9">
         <v>2013</v>
       </c>
@@ -1202,12 +1250,12 @@
       </c>
       <c r="P4" s="5">
         <f>COUNTIF(F2:F1050,"Circo Voador")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1217,10 +1265,10 @@
       <c r="E5" s="9">
         <v>2012</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="9">
         <v>2014</v>
       </c>
@@ -1261,12 +1309,12 @@
       <c r="E6" s="9">
         <v>2012</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="9">
         <v>2015</v>
       </c>
@@ -1307,12 +1355,12 @@
       <c r="E7" s="9">
         <v>2013</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="9">
         <v>2016</v>
       </c>
@@ -1337,10 +1385,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1352,12 +1400,12 @@
       <c r="E8" s="9">
         <v>2013</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="9">
         <v>2017</v>
       </c>
@@ -1382,8 +1430,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1393,16 +1441,16 @@
       <c r="E9" s="9">
         <v>2013</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="9">
         <v>2018</v>
       </c>
       <c r="K9" s="9">
         <f>COUNTIF(E2:E1000,"2018")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
@@ -1421,8 +1469,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1432,10 +1480,10 @@
       <c r="E10" s="9">
         <v>2013</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1455,10 +1503,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="22">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1470,12 +1518,12 @@
       <c r="E11" s="9">
         <v>2013</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -1495,8 +1543,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1506,10 +1554,10 @@
       <c r="E12" s="9">
         <v>2013</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1529,8 +1577,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1540,10 +1588,10 @@
       <c r="E13" s="9">
         <v>2013</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1563,8 +1611,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
@@ -1574,10 +1622,10 @@
       <c r="E14" s="9">
         <v>2013</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1597,8 +1645,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1608,10 +1656,10 @@
       <c r="E15" s="9">
         <v>2013</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -1631,10 +1679,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>7</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1646,12 +1694,12 @@
       <c r="E16" s="9">
         <v>2013</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -1671,8 +1719,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1682,10 +1730,10 @@
       <c r="E17" s="9">
         <v>2013</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -1720,12 +1768,12 @@
       <c r="E18" s="9">
         <v>2014</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1761,12 +1809,12 @@
       <c r="E19" s="9">
         <v>2014</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1797,12 +1845,12 @@
       <c r="E20" s="9">
         <v>2014</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -1833,12 +1881,12 @@
       <c r="E21" s="9">
         <v>2014</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -1853,11 +1901,11 @@
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="22">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -1869,12 +1917,12 @@
       <c r="E22" s="9">
         <v>2014</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -1889,8 +1937,8 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="9" t="s">
         <v>97</v>
       </c>
@@ -1900,10 +1948,10 @@
       <c r="E23" s="9">
         <v>2014</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -1918,8 +1966,8 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
@@ -1929,10 +1977,10 @@
       <c r="E24" s="9">
         <v>2014</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -1962,12 +2010,12 @@
       <c r="E25" s="9">
         <v>2014</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -1982,11 +2030,11 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="22">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -1998,12 +2046,12 @@
       <c r="E26" s="9">
         <v>2014</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -2018,8 +2066,8 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="9" t="s">
         <v>31</v>
       </c>
@@ -2029,10 +2077,10 @@
       <c r="E27" s="9">
         <v>2014</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -2047,10 +2095,10 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="22">
         <v>15</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2062,12 +2110,12 @@
       <c r="E28" s="9">
         <v>2015</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -2082,8 +2130,8 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
@@ -2093,10 +2141,10 @@
       <c r="E29" s="9">
         <v>2015</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2111,8 +2159,8 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
@@ -2122,10 +2170,10 @@
       <c r="E30" s="9">
         <v>2015</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -2155,12 +2203,12 @@
       <c r="E31" s="9">
         <v>2015</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -2175,11 +2223,11 @@
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -2191,12 +2239,12 @@
       <c r="E32" s="9">
         <v>2015</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -2211,8 +2259,8 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="9" t="s">
         <v>36</v>
       </c>
@@ -2222,10 +2270,10 @@
       <c r="E33" s="9">
         <v>2015</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -2240,8 +2288,8 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
@@ -2251,10 +2299,10 @@
       <c r="E34" s="9">
         <v>2015</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -2284,12 +2332,12 @@
       <c r="E35" s="9">
         <v>2015</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2304,11 +2352,11 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="22">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2320,12 +2368,12 @@
       <c r="E36" s="9">
         <v>2015</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2340,8 +2388,8 @@
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="9" t="s">
         <v>39</v>
       </c>
@@ -2351,10 +2399,10 @@
       <c r="E37" s="9">
         <v>2015</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -2369,10 +2417,10 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="22">
         <v>20</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2384,12 +2432,12 @@
       <c r="E38" s="9">
         <v>2015</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -2404,8 +2452,8 @@
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
@@ -2415,10 +2463,10 @@
       <c r="E39" s="9">
         <v>2015</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="9" t="s">
         <v>119</v>
       </c>
@@ -2435,10 +2483,10 @@
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="22">
         <v>21</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -2450,12 +2498,12 @@
       <c r="E40" s="9">
         <v>2015</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -2470,8 +2518,8 @@
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="9" t="s">
         <v>161</v>
       </c>
@@ -2481,10 +2529,10 @@
       <c r="E41" s="9">
         <v>2015</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -2499,8 +2547,8 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="9" t="s">
         <v>43</v>
       </c>
@@ -2510,10 +2558,10 @@
       <c r="E42" s="9">
         <v>2015</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -2528,10 +2576,10 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="22">
         <v>22</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -2543,12 +2591,12 @@
       <c r="E43" s="9">
         <v>2015</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -2563,8 +2611,8 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="9" t="s">
         <v>45</v>
       </c>
@@ -2574,10 +2622,10 @@
       <c r="E44" s="9">
         <v>2015</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -2592,8 +2640,8 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="9" t="s">
         <v>46</v>
       </c>
@@ -2603,10 +2651,10 @@
       <c r="E45" s="9">
         <v>2015</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -2621,8 +2669,8 @@
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
@@ -2632,10 +2680,10 @@
       <c r="E46" s="9">
         <v>2015</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="6" t="s">
         <v>70</v>
       </c>
@@ -2652,27 +2700,27 @@
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="22">
         <v>23</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="24">
         <v>42308</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="22">
         <v>2015</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="9" t="s">
         <v>104</v>
       </c>
@@ -2689,15 +2737,15 @@
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="9" t="s">
         <v>109</v>
       </c>
@@ -2714,11 +2762,11 @@
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="22">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -2730,12 +2778,12 @@
       <c r="E49" s="10">
         <v>2015</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -2750,8 +2798,8 @@
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="10" t="s">
         <v>48</v>
       </c>
@@ -2761,10 +2809,10 @@
       <c r="E50" s="10">
         <v>2015</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -2794,12 +2842,12 @@
       <c r="E51" s="10">
         <v>2015</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
       <c r="J51" s="6" t="s">
         <v>70</v>
       </c>
@@ -2832,12 +2880,12 @@
       <c r="E52" s="10">
         <v>2015</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
       <c r="J52" s="9" t="s">
         <v>104</v>
       </c>
@@ -2854,28 +2902,28 @@
       <c r="P52" s="5"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="22">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="24">
         <v>42393</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="23">
         <v>2016</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="9" t="s">
         <v>52</v>
       </c>
@@ -2892,15 +2940,15 @@
       <c r="P53" s="5"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="9" t="s">
         <v>58</v>
       </c>
@@ -2917,15 +2965,15 @@
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="9" t="s">
         <v>53</v>
       </c>
@@ -2942,15 +2990,15 @@
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
       <c r="J56" s="9" t="s">
         <v>54</v>
       </c>
@@ -2967,21 +3015,21 @@
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="24">
         <v>42393</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="23">
         <v>2016</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
       <c r="J57" s="9" t="s">
         <v>55</v>
       </c>
@@ -2998,15 +3046,15 @@
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
       <c r="J58" s="9" t="s">
         <v>56</v>
       </c>
@@ -3023,15 +3071,15 @@
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="9" t="s">
         <v>57</v>
       </c>
@@ -3048,15 +3096,15 @@
       <c r="P59" s="5"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
       <c r="J60" s="9" t="s">
         <v>59</v>
       </c>
@@ -3073,11 +3121,11 @@
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="A61" s="22">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="23" t="s">
         <v>165</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -3089,12 +3137,12 @@
       <c r="E61" s="10">
         <v>2016</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -3109,8 +3157,8 @@
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="10" t="s">
         <v>31</v>
       </c>
@@ -3120,10 +3168,10 @@
       <c r="E62" s="10">
         <v>2016</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3138,10 +3186,10 @@
       <c r="P62" s="5"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
+      <c r="A63" s="22">
         <v>29</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="23" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -3153,12 +3201,12 @@
       <c r="E63" s="10">
         <v>2016</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -3173,8 +3221,8 @@
       <c r="P63" s="5"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="10" t="s">
         <v>62</v>
       </c>
@@ -3184,10 +3232,10 @@
       <c r="E64" s="10">
         <v>2016</v>
       </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -3202,10 +3250,10 @@
       <c r="P64" s="5"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+      <c r="A65" s="22">
         <v>30</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="23" t="s">
         <v>167</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -3217,12 +3265,12 @@
       <c r="E65" s="10">
         <v>2016</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -3237,8 +3285,8 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="10" t="s">
         <v>65</v>
       </c>
@@ -3248,10 +3296,10 @@
       <c r="E66" s="10">
         <v>2016</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -3281,12 +3329,12 @@
       <c r="E67" s="10">
         <v>2016</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -3296,11 +3344,11 @@
       <c r="P67" s="5"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="19">
+      <c r="A68" s="22">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -3312,12 +3360,12 @@
       <c r="E68" s="10">
         <v>2016</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -3327,8 +3375,8 @@
       <c r="P68" s="5"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="10" t="s">
         <v>73</v>
       </c>
@@ -3338,10 +3386,10 @@
       <c r="E69" s="10">
         <v>2016</v>
       </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -3351,8 +3399,8 @@
       <c r="P69" s="5"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="10" t="s">
         <v>39</v>
       </c>
@@ -3362,10 +3410,10 @@
       <c r="E70" s="10">
         <v>2016</v>
       </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -3375,27 +3423,27 @@
       <c r="P70" s="5"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
+      <c r="A71" s="22">
         <v>33</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="20">
         <v>42588</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="23">
         <v>2016</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="6" t="s">
         <v>70</v>
       </c>
@@ -3407,15 +3455,15 @@
       <c r="P71" s="5"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="9" t="s">
         <v>58</v>
       </c>
@@ -3427,15 +3475,15 @@
       <c r="P72" s="5"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
       <c r="J73" s="9" t="s">
         <v>53</v>
       </c>
@@ -3447,15 +3495,15 @@
       <c r="P73" s="5"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
       <c r="J74" s="9" t="s">
         <v>54</v>
       </c>
@@ -3467,15 +3515,15 @@
       <c r="P74" s="5"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="9" t="s">
         <v>80</v>
       </c>
@@ -3487,15 +3535,15 @@
       <c r="P75" s="5"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="9" t="s">
         <v>81</v>
       </c>
@@ -3507,15 +3555,15 @@
       <c r="P76" s="5"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
       <c r="J77" s="9" t="s">
         <v>57</v>
       </c>
@@ -3527,15 +3575,15 @@
       <c r="P77" s="5"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
       <c r="J78" s="9" t="s">
         <v>82</v>
       </c>
@@ -3547,15 +3595,15 @@
       <c r="P78" s="5"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
       <c r="J79" s="9" t="s">
         <v>108</v>
       </c>
@@ -3567,15 +3615,15 @@
       <c r="P79" s="5"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
       <c r="J80" s="10" t="s">
         <v>83</v>
       </c>
@@ -3587,28 +3635,28 @@
       <c r="P80" s="5"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
+      <c r="A81" s="22">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D81" s="20">
         <v>42589</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="23">
         <v>2016</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
       <c r="J81" s="6" t="s">
         <v>70</v>
       </c>
@@ -3620,15 +3668,15 @@
       <c r="P81" s="5"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
       <c r="J82" s="9" t="s">
         <v>52</v>
       </c>
@@ -3640,15 +3688,15 @@
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
       <c r="J83" s="9" t="s">
         <v>84</v>
       </c>
@@ -3660,15 +3708,15 @@
       <c r="P83" s="5"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
       <c r="J84" s="9" t="s">
         <v>53</v>
       </c>
@@ -3680,15 +3728,15 @@
       <c r="P84" s="5"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="9" t="s">
         <v>54</v>
       </c>
@@ -3700,15 +3748,15 @@
       <c r="P85" s="5"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
       <c r="J86" s="9" t="s">
         <v>90</v>
       </c>
@@ -3720,15 +3768,15 @@
       <c r="P86" s="5"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="9" t="s">
         <v>81</v>
       </c>
@@ -3740,15 +3788,15 @@
       <c r="P87" s="5"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="9" t="s">
         <v>57</v>
       </c>
@@ -3760,15 +3808,15 @@
       <c r="P88" s="5"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="9" t="s">
         <v>85</v>
       </c>
@@ -3780,15 +3828,15 @@
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
       <c r="J90" s="10" t="s">
         <v>86</v>
       </c>
@@ -3800,15 +3848,15 @@
       <c r="P90" s="5"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
       <c r="J91" s="10" t="s">
         <v>87</v>
       </c>
@@ -3820,15 +3868,15 @@
       <c r="P91" s="5"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
       <c r="J92" s="10" t="s">
         <v>89</v>
       </c>
@@ -3840,15 +3888,15 @@
       <c r="P92" s="5"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
       <c r="J93" s="10" t="s">
         <v>88</v>
       </c>
@@ -3860,15 +3908,15 @@
       <c r="P93" s="5"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
       <c r="J94" s="10" t="s">
         <v>91</v>
       </c>
@@ -3880,15 +3928,15 @@
       <c r="P94" s="5"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="10" t="s">
         <v>92</v>
       </c>
@@ -3900,28 +3948,28 @@
       <c r="P95" s="5"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+      <c r="A96" s="18">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96" s="20">
         <v>42622</v>
       </c>
       <c r="E96" s="10">
         <v>2016</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F96" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
       <c r="J96" s="5"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -3931,19 +3979,19 @@
       <c r="P96" s="5"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="10">
         <v>2016</v>
       </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
       <c r="J97" s="5"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -3953,28 +4001,28 @@
       <c r="P97" s="5"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
+      <c r="A98" s="18">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="17">
+      <c r="D98" s="20">
         <v>42629</v>
       </c>
       <c r="E98" s="5">
         <v>2016</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
       <c r="J98" s="5"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -3984,19 +4032,19 @@
       <c r="P98" s="5"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="17"/>
+      <c r="D99" s="20"/>
       <c r="E99" s="5">
         <v>2016</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
       <c r="J99" s="6" t="s">
         <v>70</v>
       </c>
@@ -4008,28 +4056,28 @@
       <c r="P99" s="5"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
+      <c r="A100" s="18">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="20">
         <v>42637</v>
       </c>
       <c r="E100" s="5">
         <v>2016</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
       <c r="J100" s="5" t="s">
         <v>104</v>
       </c>
@@ -4041,19 +4089,19 @@
       <c r="P100" s="5"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="14"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="5">
         <v>2016</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
       <c r="J101" s="5" t="s">
         <v>105</v>
       </c>
@@ -4065,28 +4113,28 @@
       <c r="P101" s="5"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
+      <c r="A102" s="18">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="17">
+      <c r="D102" s="20">
         <v>42643</v>
       </c>
       <c r="E102" s="5">
         <v>2016</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F102" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
       <c r="J102" s="5"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -4096,19 +4144,19 @@
       <c r="P102" s="5"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="5">
         <v>2016</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
       <c r="J103" s="5"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -4118,19 +4166,19 @@
       <c r="P103" s="5"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="17"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="5">
         <v>2016</v>
       </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
       <c r="J104" s="5"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -4140,28 +4188,28 @@
       <c r="P104" s="5"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
+      <c r="A105" s="18">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="17">
+      <c r="D105" s="20">
         <v>42672</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="21">
         <v>2016</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
       <c r="J105" s="6" t="s">
         <v>70</v>
       </c>
@@ -4173,15 +4221,15 @@
       <c r="P105" s="5"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
       <c r="J106" s="9" t="s">
         <v>104</v>
       </c>
@@ -4193,15 +4241,15 @@
       <c r="P106" s="5"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
       <c r="J107" s="9" t="s">
         <v>109</v>
       </c>
@@ -4213,27 +4261,27 @@
       <c r="P107" s="5"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
+      <c r="A108" s="18">
         <v>40</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="20">
         <v>42673</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="21">
         <v>2016</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
       <c r="J108" s="6" t="s">
         <v>70</v>
       </c>
@@ -4245,15 +4293,15 @@
       <c r="P108" s="5"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
       <c r="J109" s="9" t="s">
         <v>104</v>
       </c>
@@ -4265,8 +4313,8 @@
       <c r="P109" s="5"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="10" t="s">
         <v>111</v>
       </c>
@@ -4276,10 +4324,10 @@
       <c r="E110" s="8">
         <v>2016</v>
       </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
       <c r="J110" s="9" t="s">
         <v>112</v>
       </c>
@@ -4291,11 +4339,11 @@
       <c r="P110" s="5"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="A111" s="18">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="10" t="s">
@@ -4307,12 +4355,12 @@
       <c r="E111" s="8">
         <v>2016</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
       <c r="J111" s="6" t="s">
         <v>70</v>
       </c>
@@ -4324,8 +4372,8 @@
       <c r="P111" s="5"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="10" t="s">
         <v>4</v>
       </c>
@@ -4335,10 +4383,10 @@
       <c r="E112" s="8">
         <v>2016</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
       <c r="J112" s="9" t="s">
         <v>104</v>
       </c>
@@ -4350,11 +4398,11 @@
       <c r="P112" s="5"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
+      <c r="A113" s="18">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="10" t="s">
@@ -4366,12 +4414,12 @@
       <c r="E113" s="8">
         <v>2016</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
       <c r="J113" s="6" t="s">
         <v>70</v>
       </c>
@@ -4383,8 +4431,8 @@
       <c r="P113" s="5"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="10" t="s">
         <v>39</v>
       </c>
@@ -4394,10 +4442,10 @@
       <c r="E114" s="8">
         <v>2016</v>
       </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
       <c r="J114" s="9" t="s">
         <v>104</v>
       </c>
@@ -4425,12 +4473,12 @@
       <c r="E115" s="8">
         <v>2016</v>
       </c>
-      <c r="F115" s="14" t="s">
+      <c r="F115" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
       <c r="J115" s="5"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -4440,10 +4488,10 @@
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
+      <c r="A116" s="18">
         <v>44</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -4455,12 +4503,12 @@
       <c r="E116" s="8">
         <v>2016</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
       <c r="J116" s="6" t="s">
         <v>70</v>
       </c>
@@ -4472,21 +4520,21 @@
       <c r="P116" s="5"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="18" t="s">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="20">
         <v>42706</v>
       </c>
-      <c r="E117" s="16">
+      <c r="E117" s="21">
         <v>2016</v>
       </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
       <c r="J117" s="9" t="s">
         <v>104</v>
       </c>
@@ -4498,15 +4546,15 @@
       <c r="P117" s="5"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
       <c r="J118" s="10" t="s">
         <v>121</v>
       </c>
@@ -4518,27 +4566,27 @@
       <c r="P118" s="5"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
+      <c r="A119" s="18">
         <v>45</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="17">
+      <c r="D119" s="20">
         <v>42718</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="21">
         <v>2016</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
       <c r="J119" s="6" t="s">
         <v>70</v>
       </c>
@@ -4550,15 +4598,15 @@
       <c r="P119" s="5"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
       <c r="J120" s="9" t="s">
         <v>104</v>
       </c>
@@ -4570,10 +4618,10 @@
       <c r="P120" s="5"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
+      <c r="A121" s="18">
         <v>46</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -4585,12 +4633,12 @@
       <c r="E121" s="8">
         <v>2017</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
       <c r="J121" s="6" t="s">
         <v>70</v>
       </c>
@@ -4602,8 +4650,8 @@
       <c r="P121" s="5"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="5" t="s">
         <v>124</v>
       </c>
@@ -4613,10 +4661,10 @@
       <c r="E122" s="8">
         <v>2017</v>
       </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
       <c r="J122" s="9" t="s">
         <v>104</v>
       </c>
@@ -4628,10 +4676,10 @@
       <c r="P122" s="5"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="A123" s="18">
         <v>47</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -4643,12 +4691,12 @@
       <c r="E123" s="8">
         <v>2017</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
       <c r="J123" s="6" t="s">
         <v>70</v>
       </c>
@@ -4660,21 +4708,21 @@
       <c r="P123" s="5"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14" t="s">
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="17">
+      <c r="D124" s="20">
         <v>42868</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="21">
         <v>2017</v>
       </c>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
       <c r="J124" s="12" t="s">
         <v>104</v>
       </c>
@@ -4686,15 +4734,15 @@
       <c r="P124" s="5"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
       <c r="J125" s="12" t="s">
         <v>105</v>
       </c>
@@ -4706,8 +4754,8 @@
       <c r="P125" s="5"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="8" t="s">
         <v>130</v>
       </c>
@@ -4717,10 +4765,10 @@
       <c r="E126" s="8">
         <v>2017</v>
       </c>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
       <c r="J126" s="12" t="s">
         <v>136</v>
       </c>
@@ -4732,8 +4780,8 @@
       <c r="P126" s="5"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="8" t="s">
         <v>11</v>
       </c>
@@ -4743,10 +4791,10 @@
       <c r="E127" s="8">
         <v>2017</v>
       </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
       <c r="J127" s="12" t="s">
         <v>53</v>
       </c>
@@ -4758,8 +4806,8 @@
       <c r="P127" s="5"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="8" t="s">
         <v>131</v>
       </c>
@@ -4769,10 +4817,10 @@
       <c r="E128" s="8">
         <v>2017</v>
       </c>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
       <c r="J128" s="12" t="s">
         <v>137</v>
       </c>
@@ -4784,8 +4832,8 @@
       <c r="P128" s="5"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="8" t="s">
         <v>10</v>
       </c>
@@ -4795,10 +4843,10 @@
       <c r="E129" s="8">
         <v>2017</v>
       </c>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
       <c r="J129" s="12" t="s">
         <v>54</v>
       </c>
@@ -4810,8 +4858,8 @@
       <c r="P129" s="5"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="8" t="s">
         <v>132</v>
       </c>
@@ -4821,10 +4869,10 @@
       <c r="E130" s="8">
         <v>2017</v>
       </c>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
       <c r="J130" s="12" t="s">
         <v>172</v>
       </c>
@@ -4836,21 +4884,21 @@
       <c r="P130" s="5"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="16" t="s">
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D131" s="17">
+      <c r="D131" s="20">
         <v>42868</v>
       </c>
-      <c r="E131" s="16">
+      <c r="E131" s="21">
         <v>2017</v>
       </c>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
       <c r="J131" s="12" t="s">
         <v>57</v>
       </c>
@@ -4862,15 +4910,15 @@
       <c r="P131" s="5"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
       <c r="J132" s="12" t="s">
         <v>87</v>
       </c>
@@ -4882,21 +4930,21 @@
       <c r="P132" s="5"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="16" t="s">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D133" s="17">
+      <c r="D133" s="20">
         <v>42868</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="21">
         <v>2017</v>
       </c>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
       <c r="J133" s="12" t="s">
         <v>138</v>
       </c>
@@ -4908,15 +4956,15 @@
       <c r="P133" s="5"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
       <c r="J134" s="12" t="s">
         <v>139</v>
       </c>
@@ -4928,8 +4976,8 @@
       <c r="P134" s="5"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="8" t="s">
         <v>135</v>
       </c>
@@ -4939,10 +4987,10 @@
       <c r="E135" s="8">
         <v>2017</v>
       </c>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
       <c r="J135" s="12" t="s">
         <v>140</v>
       </c>
@@ -4954,10 +5002,10 @@
       <c r="P135" s="5"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
+      <c r="A136" s="18">
         <v>46</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -4969,12 +5017,12 @@
       <c r="E136" s="8">
         <v>2017</v>
       </c>
-      <c r="F136" s="14" t="s">
+      <c r="F136" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
@@ -4984,8 +5032,8 @@
       <c r="P136" s="5"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="8" t="s">
         <v>143</v>
       </c>
@@ -4995,10 +5043,10 @@
       <c r="E137" s="8">
         <v>2017</v>
       </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
@@ -5008,8 +5056,8 @@
       <c r="P137" s="5"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="8" t="s">
         <v>141</v>
       </c>
@@ -5019,10 +5067,10 @@
       <c r="E138" s="8">
         <v>2017</v>
       </c>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
@@ -5032,10 +5080,10 @@
       <c r="P138" s="5"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
+      <c r="A139" s="18">
         <v>47</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="18" t="s">
         <v>144</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -5047,12 +5095,12 @@
       <c r="E139" s="8">
         <v>2017</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F139" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
@@ -5062,8 +5110,8 @@
       <c r="P139" s="5"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="8" t="s">
         <v>146</v>
       </c>
@@ -5073,10 +5121,10 @@
       <c r="E140" s="8">
         <v>2017</v>
       </c>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
@@ -5086,8 +5134,8 @@
       <c r="P140" s="5"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="8" t="s">
         <v>39</v>
       </c>
@@ -5097,10 +5145,10 @@
       <c r="E141" s="8">
         <v>2017</v>
       </c>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
@@ -5110,10 +5158,10 @@
       <c r="P141" s="5"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+      <c r="A142" s="18">
         <v>48</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -5125,12 +5173,12 @@
       <c r="E142" s="8">
         <v>2017</v>
       </c>
-      <c r="F142" s="14" t="s">
+      <c r="F142" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
       <c r="J142" s="6" t="s">
         <v>70</v>
       </c>
@@ -5142,8 +5190,8 @@
       <c r="P142" s="5"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="8" t="s">
         <v>147</v>
       </c>
@@ -5153,10 +5201,10 @@
       <c r="E143" s="8">
         <v>2017</v>
       </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
       <c r="J143" s="9" t="s">
         <v>151</v>
       </c>
@@ -5168,8 +5216,8 @@
       <c r="P143" s="5"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="8" t="s">
         <v>148</v>
       </c>
@@ -5179,10 +5227,10 @@
       <c r="E144" s="8">
         <v>2017</v>
       </c>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
@@ -5192,10 +5240,10 @@
       <c r="P144" s="5"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+      <c r="A145" s="18">
         <v>49</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -5207,12 +5255,12 @@
       <c r="E145" s="8">
         <v>2017</v>
       </c>
-      <c r="F145" s="14" t="s">
+      <c r="F145" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
@@ -5222,8 +5270,8 @@
       <c r="P145" s="5"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="8" t="s">
         <v>149</v>
       </c>
@@ -5233,10 +5281,10 @@
       <c r="E146" s="8">
         <v>2017</v>
       </c>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
@@ -5246,8 +5294,8 @@
       <c r="P146" s="5"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="8" t="s">
         <v>150</v>
       </c>
@@ -5257,10 +5305,10 @@
       <c r="E147" s="8">
         <v>2017</v>
       </c>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
@@ -5270,27 +5318,27 @@
       <c r="P147" s="5"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="19">
+      <c r="A148" s="22">
         <v>50</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="16" t="s">
+      <c r="C148" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D148" s="17">
+      <c r="D148" s="20">
         <v>43036</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="21">
         <v>2017</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F148" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
       <c r="J148" s="6" t="s">
         <v>70</v>
       </c>
@@ -5302,15 +5350,15 @@
       <c r="P148" s="5"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="19"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
       <c r="J149" s="5" t="s">
         <v>87</v>
       </c>
@@ -5322,15 +5370,15 @@
       <c r="P149" s="5"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="19"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
       <c r="J150" s="5" t="s">
         <v>88</v>
       </c>
@@ -5342,15 +5390,15 @@
       <c r="P150" s="5"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="19"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
       <c r="J151" s="5" t="s">
         <v>154</v>
       </c>
@@ -5362,15 +5410,15 @@
       <c r="P151" s="5"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="19"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
       <c r="J152" s="5" t="s">
         <v>155</v>
       </c>
@@ -5397,12 +5445,12 @@
       <c r="E153" s="8">
         <v>2017</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
@@ -5412,11 +5460,11 @@
       <c r="P153" s="5"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+      <c r="A154" s="18">
         <f>(A153+1)</f>
         <v>52</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -5428,12 +5476,12 @@
       <c r="E154" s="8">
         <v>2018</v>
       </c>
-      <c r="F154" s="14" t="s">
+      <c r="F154" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
       <c r="J154" s="12"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -5443,8 +5491,8 @@
       <c r="P154" s="5"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="8" t="s">
         <v>161</v>
       </c>
@@ -5454,10 +5502,10 @@
       <c r="E155" s="8">
         <v>2018</v>
       </c>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
       <c r="J155" s="2"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -5467,8 +5515,8 @@
       <c r="P155" s="5"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="8" t="s">
         <v>34</v>
       </c>
@@ -5478,10 +5526,10 @@
       <c r="E156" s="8">
         <v>2018</v>
       </c>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
@@ -5506,12 +5554,12 @@
       <c r="E157" s="8">
         <v>2018</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="F157" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
@@ -5521,10 +5569,10 @@
       <c r="P157" s="5"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+      <c r="A158" s="18">
         <v>54</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="18" t="s">
         <v>144</v>
       </c>
       <c r="C158" s="8" t="s">
@@ -5536,23 +5584,23 @@
       <c r="E158" s="8">
         <v>2018</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F158" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="25"/>
-      <c r="K158" s="25"/>
-      <c r="L158" s="25"/>
-      <c r="M158" s="25"/>
-      <c r="N158" s="25"/>
-      <c r="O158" s="25"/>
-      <c r="P158" s="25"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="8" t="s">
         <v>174</v>
       </c>
@@ -5562,21 +5610,21 @@
       <c r="E159" s="5">
         <v>2018</v>
       </c>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="25"/>
-      <c r="K159" s="25"/>
-      <c r="L159" s="25"/>
-      <c r="M159" s="25"/>
-      <c r="N159" s="25"/>
-      <c r="O159" s="25"/>
-      <c r="P159" s="25"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="17"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="8" t="s">
         <v>175</v>
       </c>
@@ -5586,21 +5634,21 @@
       <c r="E160" s="5">
         <v>2018</v>
       </c>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="25"/>
-      <c r="N160" s="25"/>
-      <c r="O160" s="25"/>
-      <c r="P160" s="25"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
+      <c r="O160" s="17"/>
+      <c r="P160" s="17"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-      <c r="B161" s="15"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
       <c r="C161" s="3" t="s">
         <v>39</v>
       </c>
@@ -5610,23 +5658,23 @@
       <c r="E161" s="13">
         <v>2018</v>
       </c>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
-      <c r="N161" s="25"/>
-      <c r="O161" s="25"/>
-      <c r="P161" s="25"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="17"/>
+      <c r="P161" s="17"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
+      <c r="A162" s="18">
         <v>55</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="18" t="s">
         <v>145</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -5638,25 +5686,25 @@
       <c r="E162" s="5">
         <v>2018</v>
       </c>
-      <c r="F162" s="14" t="s">
+      <c r="F162" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="23" t="s">
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K162" s="25"/>
-      <c r="L162" s="25"/>
-      <c r="M162" s="25"/>
-      <c r="N162" s="25"/>
-      <c r="O162" s="25"/>
-      <c r="P162" s="25"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="17"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="8" t="s">
         <v>177</v>
       </c>
@@ -5666,21 +5714,21 @@
       <c r="E163" s="5">
         <v>2018</v>
       </c>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="23"/>
-      <c r="K163" s="25"/>
-      <c r="L163" s="25"/>
-      <c r="M163" s="25"/>
-      <c r="N163" s="25"/>
-      <c r="O163" s="25"/>
-      <c r="P163" s="25"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="8" t="s">
         <v>178</v>
       </c>
@@ -5690,23 +5738,23 @@
       <c r="E164" s="5">
         <v>2018</v>
       </c>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="14" t="s">
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="K164" s="25"/>
-      <c r="L164" s="25"/>
-      <c r="M164" s="25"/>
-      <c r="N164" s="25"/>
-      <c r="O164" s="25"/>
-      <c r="P164" s="25"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="8" t="s">
         <v>145</v>
       </c>
@@ -5716,17 +5764,17 @@
       <c r="E165" s="5">
         <v>2018</v>
       </c>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="14"/>
-      <c r="K165" s="25"/>
-      <c r="L165" s="25"/>
-      <c r="M165" s="25"/>
-      <c r="N165" s="25"/>
-      <c r="O165" s="25"/>
-      <c r="P165" s="25"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
+      <c r="P165" s="17"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
@@ -5744,25 +5792,25 @@
       <c r="E166" s="8">
         <v>2018</v>
       </c>
-      <c r="F166" s="14" t="s">
+      <c r="F166" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="25"/>
-      <c r="K166" s="25"/>
-      <c r="L166" s="25"/>
-      <c r="M166" s="25"/>
-      <c r="N166" s="25"/>
-      <c r="O166" s="25"/>
-      <c r="P166" s="25"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
+      <c r="A167" s="18">
         <v>57</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="18" t="s">
         <v>182</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -5774,23 +5822,23 @@
       <c r="E167" s="8">
         <v>2018</v>
       </c>
-      <c r="F167" s="14" t="s">
+      <c r="F167" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="25"/>
-      <c r="K167" s="25"/>
-      <c r="L167" s="25"/>
-      <c r="M167" s="25"/>
-      <c r="N167" s="25"/>
-      <c r="O167" s="25"/>
-      <c r="P167" s="25"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
+      <c r="P167" s="17"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
+      <c r="A168" s="18"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="8" t="s">
         <v>176</v>
       </c>
@@ -5800,21 +5848,21 @@
       <c r="E168" s="8">
         <v>2018</v>
       </c>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="25"/>
-      <c r="K168" s="25"/>
-      <c r="L168" s="25"/>
-      <c r="M168" s="25"/>
-      <c r="N168" s="25"/>
-      <c r="O168" s="25"/>
-      <c r="P168" s="25"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17"/>
+      <c r="N168" s="17"/>
+      <c r="O168" s="17"/>
+      <c r="P168" s="17"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="8" t="s">
         <v>100</v>
       </c>
@@ -5824,168 +5872,94 @@
       <c r="E169" s="8">
         <v>2018</v>
       </c>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="25"/>
-      <c r="K169" s="25"/>
-      <c r="L169" s="25"/>
-      <c r="M169" s="25"/>
-      <c r="N169" s="25"/>
-      <c r="O169" s="25"/>
-      <c r="P169" s="25"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="17"/>
+      <c r="N169" s="17"/>
+      <c r="O169" s="17"/>
+      <c r="P169" s="17"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="28">
+        <v>58</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170" s="16">
+        <v>43400</v>
+      </c>
+      <c r="E170" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="29"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D171" s="16">
+        <v>43400</v>
+      </c>
+      <c r="E171" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="30"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="16">
+        <v>43400</v>
+      </c>
+      <c r="E172" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="18"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="191">
-    <mergeCell ref="F167:I169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A28:A30"/>
+  <mergeCells count="193">
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="F170:I172"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="F67:I67"/>
     <mergeCell ref="F52:I52"/>
@@ -6008,30 +5982,163 @@
     <mergeCell ref="F96:I97"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="F167:I169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
     <mergeCell ref="F166:I166"/>
     <mergeCell ref="F158:I161"/>
     <mergeCell ref="B158:B161"/>
     <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="189">
   <si>
     <t>Banda</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Anos</t>
   </si>
   <si>
-    <t>Bandas Por Ano</t>
-  </si>
-  <si>
     <t>Cólera</t>
   </si>
   <si>
@@ -585,6 +582,15 @@
   </si>
   <si>
     <t>Diabo Verde</t>
+  </si>
+  <si>
+    <t>O Derradeiro Matanza Fest</t>
+  </si>
+  <si>
+    <t>Return Beneath Arise Tour</t>
+  </si>
+  <si>
+    <t>Shows Por Ano</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,12 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,32 +738,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,6 +754,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P172"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1123,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -1092,20 +1134,20 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="6" t="s">
         <v>71</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>0</v>
@@ -1114,17 +1156,17 @@
         <v>67</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1133,25 +1175,25 @@
       <c r="D2" s="11">
         <v>39424</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="32">
         <v>2007</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="12">
         <v>2007</v>
       </c>
       <c r="K2" s="12">
         <f>COUNTIF(E2:E1000,"2007")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="12">
         <f>SUM(K2:K51)</f>
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>39</v>
@@ -1169,27 +1211,25 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="11">
         <v>39424</v>
       </c>
-      <c r="E3" s="9">
-        <v>2007</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="9">
         <v>2012</v>
       </c>
       <c r="K3" s="9">
         <f>COUNTIF(E2:E1000,"2012")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
@@ -1208,12 +1248,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="26">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>162</v>
+      <c r="B4" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>3</v>
@@ -1221,21 +1261,21 @@
       <c r="D4" s="11">
         <v>41034</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="34">
         <v>2012</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="9">
         <v>2013</v>
       </c>
       <c r="K4" s="9">
         <f>COUNTIF(E2:E1000,"2013")</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
@@ -1250,31 +1290,29 @@
       </c>
       <c r="P4" s="5">
         <f>COUNTIF(F2:F1050,"Circo Voador")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="11">
         <v>41034</v>
       </c>
-      <c r="E5" s="9">
-        <v>2012</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="9">
         <v>2014</v>
       </c>
       <c r="K5" s="9">
         <f>COUNTIF(E2:E1000,"2014")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9" t="s">
@@ -1298,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>6</v>
@@ -1309,18 +1347,18 @@
       <c r="E6" s="9">
         <v>2012</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="9">
         <v>2015</v>
       </c>
       <c r="K6" s="9">
         <f>COUNTIF(E2:E1000,"2015")</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
@@ -1328,7 +1366,7 @@
       </c>
       <c r="N6" s="9">
         <f>COUNTIF(C1:C1027,"Cavalera Conspiracy")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>23</v>
@@ -1355,18 +1393,18 @@
       <c r="E7" s="9">
         <v>2013</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="9">
         <v>2016</v>
       </c>
       <c r="K7" s="9">
         <f>COUNTIF(E2:E1000,"2016")</f>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
@@ -1385,11 +1423,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>94</v>
+      <c r="B8" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>8</v>
@@ -1397,21 +1435,21 @@
       <c r="D8" s="11">
         <v>41468</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="34">
         <v>2013</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="9">
         <v>2017</v>
       </c>
       <c r="K8" s="9">
         <f>COUNTIF(E2:E1000,"2017")</f>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
@@ -1430,27 +1468,25 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="11">
         <v>41468</v>
       </c>
-      <c r="E9" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="9">
         <v>2018</v>
       </c>
       <c r="K9" s="9">
         <f>COUNTIF(E2:E1000,"2018")</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
@@ -1469,21 +1505,19 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11">
         <v>41468</v>
       </c>
-      <c r="E10" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1503,11 +1537,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="26">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>116</v>
+      <c r="B11" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>4</v>
@@ -1515,15 +1549,15 @@
       <c r="D11" s="11">
         <v>41536</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="34">
         <v>2013</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -1543,33 +1577,31 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="11">
         <v>41536</v>
       </c>
-      <c r="E12" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N12" s="5">
         <f>COUNTIF(C1:C998, "Test")</f>
         <v>2</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P12" s="5">
         <f>COUNTIF(F2:F1050,"Carioca Club")</f>
@@ -1577,21 +1609,19 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="11">
         <v>41536</v>
       </c>
-      <c r="E13" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1611,21 +1641,19 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="11">
         <v>41536</v>
       </c>
-      <c r="E14" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1637,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P14" s="5">
         <f>COUNTIF(F2:F1030, "Casa de Cultura Chico Science")</f>
@@ -1645,33 +1673,31 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="11">
         <v>41536</v>
       </c>
-      <c r="E15" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15" s="5">
         <f>COUNTIF(C2:C967,"Armahda")</f>
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P15" s="5">
         <f>COUNTIF(F2:F1030, "Espaço das Américas")</f>
@@ -1679,10 +1705,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="26">
         <v>7</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1691,15 +1717,15 @@
       <c r="D16" s="11">
         <v>41560</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="34">
         <v>2013</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -1711,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P16" s="5">
         <f>COUNTIF(F2:F1030,"Teatro Odisseia")</f>
@@ -1719,33 +1745,31 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="11">
         <v>41560</v>
       </c>
-      <c r="E17" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N17" s="5">
         <f>COUNTIF(C2:C1025,"Cólera")</f>
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P17" s="5">
         <f>COUNTIF(F2:F1030,"Terreirão do Samba")</f>
@@ -1768,12 +1792,12 @@
       <c r="E18" s="9">
         <v>2014</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1785,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P18" s="5">
         <f>COUNTIF(F2:F1050,"Jeunesse Arena")</f>
@@ -1809,12 +1833,12 @@
       <c r="E19" s="9">
         <v>2014</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1845,12 +1869,12 @@
       <c r="E20" s="9">
         <v>2014</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -1881,12 +1905,12 @@
       <c r="E21" s="9">
         <v>2014</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -1901,11 +1925,11 @@
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -1914,20 +1938,20 @@
       <c r="D22" s="11">
         <v>41893</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="34">
         <v>2014</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N22" s="5">
         <f>COUNTIF(C2:C1007, "H2O")</f>
@@ -1937,21 +1961,19 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="11">
         <v>41893</v>
       </c>
-      <c r="E23" s="9">
-        <v>2014</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -1966,21 +1988,19 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="11">
         <v>41893</v>
       </c>
-      <c r="E24" s="9">
-        <v>2014</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -2010,12 +2030,12 @@
       <c r="E25" s="9">
         <v>2014</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -2030,11 +2050,11 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="26">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -2043,15 +2063,15 @@
       <c r="D26" s="11">
         <v>41917</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="34">
         <v>2014</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -2066,21 +2086,19 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="11">
         <v>41917</v>
       </c>
-      <c r="E27" s="9">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -2095,10 +2113,10 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="26">
         <v>15</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2107,15 +2125,15 @@
       <c r="D28" s="11">
         <v>42029</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="34">
         <v>2015</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -2130,21 +2148,19 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="11">
         <v>42029</v>
       </c>
-      <c r="E29" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2159,21 +2175,19 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="11">
         <v>42029</v>
       </c>
-      <c r="E30" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -2192,10 +2206,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="11">
         <v>42035</v>
@@ -2203,12 +2217,12 @@
       <c r="E31" s="9">
         <v>2015</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -2223,12 +2237,12 @@
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="26">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>117</v>
+      <c r="B32" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>35</v>
@@ -2236,15 +2250,15 @@
       <c r="D32" s="11">
         <v>42119</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="34">
         <v>2015</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -2259,21 +2273,19 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="11">
         <v>42119</v>
       </c>
-      <c r="E33" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -2288,21 +2300,19 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="11">
         <v>42119</v>
       </c>
-      <c r="E34" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -2332,17 +2342,17 @@
       <c r="E35" s="9">
         <v>2015</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N35" s="5">
         <f>COUNTIF(C2:C1022, "Project46")</f>
@@ -2352,12 +2362,12 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="26">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>164</v>
+      <c r="B36" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>40</v>
@@ -2365,15 +2375,15 @@
       <c r="D36" s="11">
         <v>42203</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="34">
         <v>2015</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2388,26 +2398,24 @@
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="11">
         <v>42203</v>
       </c>
-      <c r="E37" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N37" s="5">
         <f>COUNTIF(C2:C1030,"Sabaton")</f>
@@ -2417,11 +2425,11 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="26">
         <v>20</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>116</v>
+      <c r="B38" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>41</v>
@@ -2429,15 +2437,15 @@
       <c r="D38" s="11">
         <v>42266</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="34">
         <v>2015</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -2452,28 +2460,26 @@
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="11">
         <v>42266</v>
       </c>
-      <c r="E39" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N39" s="5">
         <f>COUNTIF(C2:C990,"Sinaya")</f>
@@ -2483,11 +2489,11 @@
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="26">
         <v>21</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>116</v>
+      <c r="B40" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>42</v>
@@ -2495,15 +2501,15 @@
       <c r="D40" s="11">
         <v>42271</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="34">
         <v>2015</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -2518,21 +2524,19 @@
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="11">
         <v>42271</v>
       </c>
-      <c r="E41" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -2547,26 +2551,24 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="11">
         <v>42271</v>
       </c>
-      <c r="E42" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N42" s="5">
         <f>COUNTIF(C2:C992,"Suicidal Tendencies")</f>
@@ -2576,11 +2578,11 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="26">
         <v>22</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>116</v>
+      <c r="B43" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>44</v>
@@ -2588,15 +2590,15 @@
       <c r="D43" s="11">
         <v>42272</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="34">
         <v>2015</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -2611,21 +2613,19 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="11">
         <v>42272</v>
       </c>
-      <c r="E44" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -2640,26 +2640,24 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="11">
         <v>42272</v>
       </c>
-      <c r="E45" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N45" s="5">
         <f>COUNTIF(C2:C1029,"Violator")</f>
@@ -2669,21 +2667,19 @@
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="11">
         <v>42272</v>
       </c>
-      <c r="E46" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="6" t="s">
         <v>70</v>
       </c>
@@ -2700,29 +2696,29 @@
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="A47" s="26">
         <v>23</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="28">
         <v>42308</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="26">
         <v>2015</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -2737,17 +2733,17 @@
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -2762,11 +2758,11 @@
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="26">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -2775,15 +2771,15 @@
       <c r="D49" s="11">
         <v>42321</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="37">
         <v>2015</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -2798,21 +2794,19 @@
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="11">
         <v>42321</v>
       </c>
-      <c r="E50" s="10">
-        <v>2015</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -2842,19 +2836,19 @@
       <c r="E51" s="10">
         <v>2015</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
       <c r="J51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N51" s="5">
         <f>COUNTIF(C2:C1075,"Heaven Shall Burn")</f>
@@ -2869,7 +2863,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>39</v>
@@ -2880,19 +2874,19 @@
       <c r="E52" s="10">
         <v>2015</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
       <c r="J52" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N52" s="5">
         <f>COUNTIF(C2:C1075,"Carcass")</f>
@@ -2902,35 +2896,35 @@
       <c r="P52" s="5"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="A53" s="26">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="24">
+      <c r="B53" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="28">
         <v>42393</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="37">
         <v>2016</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
       <c r="J53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" s="5">
         <f>COUNTIF(C2:C1075,"Lamb of God")</f>
@@ -2940,22 +2934,22 @@
       <c r="P53" s="5"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
       <c r="J54" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N54" s="5">
         <f>COUNTIF(C2:C1075,"The Offspring")</f>
@@ -2965,22 +2959,22 @@
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="9" t="s">
         <v>53</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" s="5">
         <f>COUNTIF(C2:C1075,"Guns N' Roses")</f>
@@ -2990,22 +2984,22 @@
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
       <c r="J56" s="9" t="s">
         <v>54</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N56" s="5">
         <f>COUNTIF(C2:C1075,"Red Hot Chili Peppers")</f>
@@ -3015,28 +3009,26 @@
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="28">
         <v>42393</v>
       </c>
-      <c r="E57" s="23">
-        <v>2016</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
       <c r="J57" s="9" t="s">
         <v>55</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N57" s="5">
         <f>COUNTIF(C2:C1075,"The Who")</f>
@@ -3046,22 +3038,22 @@
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="9" t="s">
         <v>56</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N58" s="5">
         <f>COUNTIF(C2:C1075,"DFC")</f>
@@ -3071,22 +3063,22 @@
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N59" s="5">
         <f>COUNTIF(C2:C1075,"Inocentes")</f>
@@ -3096,22 +3088,22 @@
       <c r="P59" s="5"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="9" t="s">
         <v>59</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N60" s="5">
         <f>COUNTIF(C2:C1075,"Helloween")</f>
@@ -3121,33 +3113,33 @@
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="26">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>165</v>
+      <c r="B61" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" s="11">
         <v>42397</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="37">
         <v>2016</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N61" s="5">
         <f>COUNTIF(C2:C1075,"Green Day")</f>
@@ -3157,26 +3149,24 @@
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D62" s="11">
         <v>42397</v>
       </c>
-      <c r="E62" s="10">
-        <v>2016</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N62" s="5">
         <f>COUNTIF(C2:C1075,"Ego Kill Talent")</f>
@@ -3186,11 +3176,11 @@
       <c r="P62" s="5"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
+      <c r="A63" s="26">
         <v>29</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>166</v>
+      <c r="B63" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>60</v>
@@ -3198,20 +3188,20 @@
       <c r="D63" s="11">
         <v>42446</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="37">
         <v>2016</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N63" s="5">
         <f>COUNTIF(C2:C1075,"Queens Of The Stone Age")</f>
@@ -3221,26 +3211,24 @@
       <c r="P63" s="5"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="11">
         <v>42446</v>
       </c>
-      <c r="E64" s="10">
-        <v>2016</v>
-      </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N64" s="5">
         <f>COUNTIF(C2:C1075,"Olho Seco")</f>
@@ -3250,11 +3238,11 @@
       <c r="P64" s="5"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="26">
         <v>30</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>167</v>
+      <c r="B65" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>64</v>
@@ -3262,20 +3250,20 @@
       <c r="D65" s="11">
         <v>42467</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="37">
         <v>2016</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N65" s="5">
         <f>COUNTIF(C2:C1075,"Destruction")</f>
@@ -3285,26 +3273,24 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="11">
         <v>42467</v>
       </c>
-      <c r="E66" s="10">
-        <v>2016</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N66" s="5">
         <f>COUNTIF(C2:C1075,"Cervical")</f>
@@ -3329,12 +3315,12 @@
       <c r="E67" s="10">
         <v>2016</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -3344,11 +3330,11 @@
       <c r="P67" s="5"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+      <c r="A68" s="26">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -3357,15 +3343,15 @@
       <c r="D68" s="7">
         <v>42574</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="37">
         <v>2016</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -3375,21 +3361,19 @@
       <c r="P68" s="5"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D69" s="7">
         <v>42574</v>
       </c>
-      <c r="E69" s="10">
-        <v>2016</v>
-      </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -3399,21 +3383,19 @@
       <c r="P69" s="5"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="7">
         <v>42574</v>
       </c>
-      <c r="E70" s="10">
-        <v>2016</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -3423,27 +3405,27 @@
       <c r="P70" s="5"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="26">
         <v>33</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="23" t="s">
+      <c r="B71" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="24">
+        <v>42588</v>
+      </c>
+      <c r="E71" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F71" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="20">
-        <v>42588</v>
-      </c>
-      <c r="E71" s="23">
-        <v>2016</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
       <c r="J71" s="6" t="s">
         <v>70</v>
       </c>
@@ -3455,15 +3437,15 @@
       <c r="P71" s="5"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
       <c r="J72" s="9" t="s">
         <v>58</v>
       </c>
@@ -3475,15 +3457,15 @@
       <c r="P72" s="5"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
       <c r="J73" s="9" t="s">
         <v>53</v>
       </c>
@@ -3495,15 +3477,15 @@
       <c r="P73" s="5"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
       <c r="J74" s="9" t="s">
         <v>54</v>
       </c>
@@ -3515,17 +3497,17 @@
       <c r="P74" s="5"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
@@ -3535,17 +3517,17 @@
       <c r="P75" s="5"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -3555,15 +3537,15 @@
       <c r="P76" s="5"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
       <c r="J77" s="9" t="s">
         <v>57</v>
       </c>
@@ -3575,17 +3557,17 @@
       <c r="P77" s="5"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
       <c r="J78" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -3595,17 +3577,17 @@
       <c r="P78" s="5"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
       <c r="J79" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -3615,17 +3597,17 @@
       <c r="P79" s="5"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -3635,28 +3617,28 @@
       <c r="P80" s="5"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
+      <c r="A81" s="26">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" s="23" t="s">
+      <c r="B81" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="24">
         <v>42589</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="25">
         <v>2016</v>
       </c>
-      <c r="F81" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
+      <c r="F81" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
       <c r="J81" s="6" t="s">
         <v>70</v>
       </c>
@@ -3668,15 +3650,15 @@
       <c r="P81" s="5"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
       <c r="J82" s="9" t="s">
         <v>52</v>
       </c>
@@ -3688,17 +3670,17 @@
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
       <c r="J83" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -3708,15 +3690,15 @@
       <c r="P83" s="5"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
       <c r="J84" s="9" t="s">
         <v>53</v>
       </c>
@@ -3728,15 +3710,15 @@
       <c r="P84" s="5"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
       <c r="J85" s="9" t="s">
         <v>54</v>
       </c>
@@ -3748,17 +3730,17 @@
       <c r="P85" s="5"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
       <c r="J86" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -3768,17 +3750,17 @@
       <c r="P86" s="5"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
       <c r="J87" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -3788,15 +3770,15 @@
       <c r="P87" s="5"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
       <c r="J88" s="9" t="s">
         <v>57</v>
       </c>
@@ -3808,17 +3790,17 @@
       <c r="P88" s="5"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
       <c r="J89" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -3828,17 +3810,17 @@
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
       <c r="J90" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -3848,17 +3830,17 @@
       <c r="P90" s="5"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
       <c r="J91" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -3868,17 +3850,17 @@
       <c r="P91" s="5"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
       <c r="J92" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -3888,17 +3870,17 @@
       <c r="P92" s="5"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
       <c r="J93" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -3908,17 +3890,17 @@
       <c r="P93" s="5"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
       <c r="J94" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -3928,17 +3910,17 @@
       <c r="P94" s="5"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
       <c r="J95" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -3948,28 +3930,28 @@
       <c r="P95" s="5"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="18">
+      <c r="A96" s="19">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="25" t="s">
-        <v>98</v>
+      <c r="B96" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="20">
+        <v>95</v>
+      </c>
+      <c r="D96" s="24">
         <v>42622</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="37">
         <v>2016</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="F96" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
       <c r="J96" s="5"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -3979,19 +3961,17 @@
       <c r="P96" s="5"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="10">
-        <v>2016</v>
-      </c>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
       <c r="J97" s="5"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -4001,28 +3981,28 @@
       <c r="P97" s="5"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="18">
+      <c r="A98" s="19">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="18" t="s">
-        <v>99</v>
+      <c r="B98" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="24">
         <v>42629</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="20">
         <v>2016</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
       <c r="J98" s="5"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -4032,19 +4012,17 @@
       <c r="P98" s="5"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
       <c r="J99" s="6" t="s">
         <v>70</v>
       </c>
@@ -4056,30 +4034,30 @@
       <c r="P99" s="5"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
+      <c r="A100" s="19">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="24">
+        <v>42637</v>
+      </c>
+      <c r="E100" s="20">
+        <v>2016</v>
+      </c>
+      <c r="F100" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="20">
-        <v>42637</v>
-      </c>
-      <c r="E100" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F100" s="18" t="s">
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -4089,21 +4067,19 @@
       <c r="P100" s="5"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
       <c r="J101" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -4113,28 +4089,28 @@
       <c r="P101" s="5"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="18">
+      <c r="A102" s="19">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="20">
+        <v>105</v>
+      </c>
+      <c r="D102" s="24">
         <v>42643</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="20">
         <v>2016</v>
       </c>
-      <c r="F102" s="18" t="s">
+      <c r="F102" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
       <c r="J102" s="5"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -4144,19 +4120,17 @@
       <c r="P102" s="5"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
       <c r="J103" s="5"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -4166,19 +4140,17 @@
       <c r="P103" s="5"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="20"/>
-      <c r="E104" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
       <c r="J104" s="5"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -4188,28 +4160,28 @@
       <c r="P104" s="5"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="18">
+      <c r="A105" s="19">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="24">
         <v>42672</v>
       </c>
-      <c r="E105" s="21">
+      <c r="E105" s="23">
         <v>2016</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
       <c r="J105" s="6" t="s">
         <v>70</v>
       </c>
@@ -4221,17 +4193,17 @@
       <c r="P105" s="5"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
       <c r="J106" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -4241,17 +4213,17 @@
       <c r="P106" s="5"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
       <c r="J107" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -4261,27 +4233,27 @@
       <c r="P107" s="5"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="18">
+      <c r="A108" s="19">
         <v>40</v>
       </c>
-      <c r="B108" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="20">
+      <c r="B108" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="24">
         <v>42673</v>
       </c>
-      <c r="E108" s="21">
+      <c r="E108" s="40">
         <v>2016</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F108" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
       <c r="J108" s="6" t="s">
         <v>70</v>
       </c>
@@ -4293,17 +4265,17 @@
       <c r="P108" s="5"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
       <c r="J109" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -4313,23 +4285,21 @@
       <c r="P109" s="5"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D110" s="7">
         <v>42673</v>
       </c>
-      <c r="E110" s="8">
-        <v>2016</v>
-      </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
       <c r="J110" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -4339,12 +4309,12 @@
       <c r="P110" s="5"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="18">
+      <c r="A111" s="19">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="18" t="s">
-        <v>113</v>
+      <c r="B111" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>64</v>
@@ -4352,15 +4322,15 @@
       <c r="D111" s="7">
         <v>42679</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="40">
         <v>2016</v>
       </c>
-      <c r="F111" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="F111" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
       <c r="J111" s="6" t="s">
         <v>70</v>
       </c>
@@ -4372,23 +4342,21 @@
       <c r="P111" s="5"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="7">
         <v>42679</v>
       </c>
-      <c r="E112" s="8">
-        <v>2016</v>
-      </c>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
       <c r="J112" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -4398,12 +4366,12 @@
       <c r="P112" s="5"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="18">
+      <c r="A113" s="19">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="18" t="s">
-        <v>113</v>
+      <c r="B113" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>3</v>
@@ -4411,15 +4379,15 @@
       <c r="D113" s="7">
         <v>42680</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="40">
         <v>2016</v>
       </c>
-      <c r="F113" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
+      <c r="F113" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
       <c r="J113" s="6" t="s">
         <v>70</v>
       </c>
@@ -4431,23 +4399,21 @@
       <c r="P113" s="5"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D114" s="7">
         <v>42680</v>
       </c>
-      <c r="E114" s="8">
-        <v>2016</v>
-      </c>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
       <c r="J114" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -4473,12 +4439,12 @@
       <c r="E115" s="8">
         <v>2016</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F115" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
       <c r="J115" s="5"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -4488,27 +4454,27 @@
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="18">
+      <c r="A116" s="19">
         <v>44</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>125</v>
+      <c r="B116" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D116" s="7">
         <v>42706</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="40">
         <v>2016</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="F116" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
       <c r="J116" s="6" t="s">
         <v>70</v>
       </c>
@@ -4520,23 +4486,21 @@
       <c r="P116" s="5"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="23" t="s">
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D117" s="24">
         <v>42706</v>
       </c>
-      <c r="E117" s="21">
-        <v>2016</v>
-      </c>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
       <c r="J117" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -4546,17 +4510,17 @@
       <c r="P117" s="5"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
       <c r="J118" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -4566,27 +4530,27 @@
       <c r="P118" s="5"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="18">
+      <c r="A119" s="19">
         <v>45</v>
       </c>
-      <c r="B119" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="23" t="s">
+      <c r="B119" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="24">
         <v>42718</v>
       </c>
-      <c r="E119" s="21">
+      <c r="E119" s="23">
         <v>2016</v>
       </c>
-      <c r="F119" s="18" t="s">
+      <c r="F119" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
       <c r="J119" s="6" t="s">
         <v>70</v>
       </c>
@@ -4598,17 +4562,17 @@
       <c r="P119" s="5"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
       <c r="J120" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -4618,27 +4582,27 @@
       <c r="P120" s="5"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="18">
+      <c r="A121" s="19">
         <v>46</v>
       </c>
-      <c r="B121" s="18" t="s">
-        <v>170</v>
+      <c r="B121" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D121" s="7">
         <v>42852</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="40">
         <v>2017</v>
       </c>
-      <c r="F121" s="18" t="s">
+      <c r="F121" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
       <c r="J121" s="6" t="s">
         <v>70</v>
       </c>
@@ -4650,23 +4614,21 @@
       <c r="P121" s="5"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D122" s="7">
         <v>42852</v>
       </c>
-      <c r="E122" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
       <c r="J122" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -4676,27 +4638,27 @@
       <c r="P122" s="5"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="18">
+      <c r="A123" s="19">
         <v>47</v>
       </c>
-      <c r="B123" s="18" t="s">
-        <v>126</v>
+      <c r="B123" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D123" s="7">
         <v>42868</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="40">
         <v>2017</v>
       </c>
-      <c r="F123" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
+      <c r="F123" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
       <c r="J123" s="6" t="s">
         <v>70</v>
       </c>
@@ -4708,23 +4670,21 @@
       <c r="P123" s="5"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D124" s="20">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" s="24">
         <v>42868</v>
       </c>
-      <c r="E124" s="21">
-        <v>2017</v>
-      </c>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
       <c r="J124" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -4734,17 +4694,17 @@
       <c r="P124" s="5"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
       <c r="J125" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -4754,23 +4714,21 @@
       <c r="P125" s="5"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126" s="7">
         <v>42868</v>
       </c>
-      <c r="E126" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
       <c r="J126" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -4780,21 +4738,19 @@
       <c r="P126" s="5"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="7">
         <v>42868</v>
       </c>
-      <c r="E127" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
       <c r="J127" s="12" t="s">
         <v>53</v>
       </c>
@@ -4806,23 +4762,21 @@
       <c r="P127" s="5"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D128" s="7">
         <v>42868</v>
       </c>
-      <c r="E128" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
       <c r="J128" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -4832,21 +4786,19 @@
       <c r="P128" s="5"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D129" s="7">
         <v>42868</v>
       </c>
-      <c r="E129" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
       <c r="J129" s="12" t="s">
         <v>54</v>
       </c>
@@ -4858,23 +4810,21 @@
       <c r="P129" s="5"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D130" s="7">
         <v>42868</v>
       </c>
-      <c r="E130" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
       <c r="J130" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -4884,21 +4834,19 @@
       <c r="P130" s="5"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D131" s="20">
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131" s="24">
         <v>42868</v>
       </c>
-      <c r="E131" s="21">
-        <v>2017</v>
-      </c>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
       <c r="J131" s="12" t="s">
         <v>57</v>
       </c>
@@ -4910,17 +4858,17 @@
       <c r="P131" s="5"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
       <c r="J132" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -4930,23 +4878,21 @@
       <c r="P132" s="5"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D133" s="20">
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" s="24">
         <v>42868</v>
       </c>
-      <c r="E133" s="21">
-        <v>2017</v>
-      </c>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
       <c r="J133" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -4956,17 +4902,17 @@
       <c r="P133" s="5"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
       <c r="J134" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -4976,23 +4922,21 @@
       <c r="P134" s="5"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D135" s="7">
         <v>42868</v>
       </c>
-      <c r="E135" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
       <c r="J135" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -5002,27 +4946,27 @@
       <c r="P135" s="5"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="18">
-        <v>46</v>
-      </c>
-      <c r="B136" s="18" t="s">
+      <c r="A136" s="19">
+        <v>48</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D136" s="7">
         <v>42910</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E136" s="40">
         <v>2017</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="F136" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
@@ -5032,21 +4976,19 @@
       <c r="P136" s="5"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D137" s="7">
         <v>42910</v>
       </c>
-      <c r="E137" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
@@ -5056,21 +4998,19 @@
       <c r="P137" s="5"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D138" s="7">
         <v>42910</v>
       </c>
-      <c r="E138" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
@@ -5080,27 +5020,27 @@
       <c r="P138" s="5"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="18">
-        <v>47</v>
-      </c>
-      <c r="B139" s="18" t="s">
+      <c r="A139" s="19">
+        <v>49</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="D139" s="7">
         <v>42931</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E139" s="40">
         <v>2017</v>
       </c>
-      <c r="F139" s="18" t="s">
+      <c r="F139" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
@@ -5110,21 +5050,19 @@
       <c r="P139" s="5"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D140" s="7">
         <v>42931</v>
       </c>
-      <c r="E140" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
@@ -5134,21 +5072,19 @@
       <c r="P140" s="5"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D141" s="7">
         <v>42931</v>
       </c>
-      <c r="E141" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
@@ -5158,11 +5094,11 @@
       <c r="P141" s="5"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="18">
-        <v>48</v>
-      </c>
-      <c r="B142" s="18" t="s">
-        <v>116</v>
+      <c r="A142" s="19">
+        <v>50</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>66</v>
@@ -5170,15 +5106,15 @@
       <c r="D142" s="7">
         <v>43001</v>
       </c>
-      <c r="E142" s="8">
+      <c r="E142" s="40">
         <v>2017</v>
       </c>
-      <c r="F142" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
+      <c r="F142" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
       <c r="J142" s="6" t="s">
         <v>70</v>
       </c>
@@ -5190,23 +5126,21 @@
       <c r="P142" s="5"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D143" s="7">
         <v>43001</v>
       </c>
-      <c r="E143" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
       <c r="J143" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
@@ -5216,21 +5150,19 @@
       <c r="P143" s="5"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D144" s="7">
         <v>43001</v>
       </c>
-      <c r="E144" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
@@ -5240,11 +5172,11 @@
       <c r="P144" s="5"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="18">
-        <v>49</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>116</v>
+      <c r="A145" s="19">
+        <v>51</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>4</v>
@@ -5252,15 +5184,15 @@
       <c r="D145" s="7">
         <v>43002</v>
       </c>
-      <c r="E145" s="8">
+      <c r="E145" s="40">
         <v>2017</v>
       </c>
-      <c r="F145" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
+      <c r="F145" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
@@ -5270,21 +5202,19 @@
       <c r="P145" s="5"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D146" s="7">
         <v>43002</v>
       </c>
-      <c r="E146" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
@@ -5294,21 +5224,19 @@
       <c r="P146" s="5"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D147" s="7">
         <v>43002</v>
       </c>
-      <c r="E147" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
@@ -5318,27 +5246,27 @@
       <c r="P147" s="5"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="22">
-        <v>50</v>
-      </c>
-      <c r="B148" s="18" t="s">
+      <c r="A148" s="26">
+        <v>52</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D148" s="20">
+      <c r="D148" s="24">
         <v>43036</v>
       </c>
-      <c r="E148" s="21">
+      <c r="E148" s="23">
         <v>2017</v>
       </c>
-      <c r="F148" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
+      <c r="F148" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
       <c r="J148" s="6" t="s">
         <v>70</v>
       </c>
@@ -5350,17 +5278,17 @@
       <c r="P148" s="5"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="22"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
       <c r="J149" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
@@ -5370,17 +5298,17 @@
       <c r="P149" s="5"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="22"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
       <c r="J150" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
@@ -5390,17 +5318,17 @@
       <c r="P150" s="5"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="22"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
       <c r="J151" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
@@ -5410,17 +5338,17 @@
       <c r="P151" s="5"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
       <c r="J152" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
@@ -5431,13 +5359,13 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D153" s="7">
         <v>43040</v>
@@ -5445,12 +5373,12 @@
       <c r="E153" s="8">
         <v>2017</v>
       </c>
-      <c r="F153" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
+      <c r="F153" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
@@ -5460,28 +5388,27 @@
       <c r="P153" s="5"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="18">
-        <f>(A153+1)</f>
-        <v>52</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>160</v>
+      <c r="A154" s="19">
+        <v>54</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D154" s="7">
         <v>43156</v>
       </c>
-      <c r="E154" s="8">
+      <c r="E154" s="40">
         <v>2018</v>
       </c>
-      <c r="F154" s="18" t="s">
+      <c r="F154" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
       <c r="J154" s="12"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -5491,21 +5418,19 @@
       <c r="P154" s="5"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D155" s="7">
         <v>43156</v>
       </c>
-      <c r="E155" s="8">
-        <v>2018</v>
-      </c>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
       <c r="J155" s="2"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -5515,21 +5440,19 @@
       <c r="P155" s="5"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D156" s="7">
         <v>43156</v>
       </c>
-      <c r="E156" s="8">
-        <v>2018</v>
-      </c>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
@@ -5540,10 +5463,10 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>37</v>
@@ -5554,12 +5477,12 @@
       <c r="E157" s="8">
         <v>2018</v>
       </c>
-      <c r="F157" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
+      <c r="F157" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
@@ -5569,222 +5492,210 @@
       <c r="P157" s="5"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="18">
-        <v>54</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>144</v>
+      <c r="A158" s="19">
+        <v>56</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D158" s="7">
         <v>43309</v>
       </c>
-      <c r="E158" s="8">
+      <c r="E158" s="40">
         <v>2018</v>
       </c>
-      <c r="F158" s="18" t="s">
+      <c r="F158" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="17"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D159" s="7">
         <v>43309</v>
       </c>
-      <c r="E159" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
-      <c r="N159" s="17"/>
-      <c r="O159" s="17"/>
-      <c r="P159" s="17"/>
+      <c r="E159" s="41"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D160" s="7">
         <v>43309</v>
       </c>
-      <c r="E160" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
-      <c r="N160" s="17"/>
-      <c r="O160" s="17"/>
-      <c r="P160" s="17"/>
+      <c r="E160" s="41"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D161" s="4">
         <v>43309</v>
       </c>
-      <c r="E161" s="13">
-        <v>2018</v>
-      </c>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="17"/>
-      <c r="P161" s="17"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="18">
-        <v>55</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>145</v>
+      <c r="A162" s="19">
+        <v>57</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D162" s="7">
         <v>43330</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="20">
         <v>2018</v>
       </c>
-      <c r="F162" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="19" t="s">
+      <c r="F162" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
-      <c r="N162" s="17"/>
-      <c r="O162" s="17"/>
-      <c r="P162" s="17"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D163" s="7">
         <v>43330</v>
       </c>
-      <c r="E163" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="17"/>
-      <c r="M163" s="17"/>
-      <c r="N163" s="17"/>
-      <c r="O163" s="17"/>
-      <c r="P163" s="17"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D164" s="7">
         <v>43330</v>
       </c>
-      <c r="E164" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K164" s="17"/>
-      <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
-      <c r="N164" s="17"/>
-      <c r="O164" s="17"/>
-      <c r="P164" s="17"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="15"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D165" s="7">
         <v>43330</v>
       </c>
-      <c r="E165" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="18"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
-      <c r="N165" s="17"/>
-      <c r="O165" s="17"/>
-      <c r="P165" s="17"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="D166" s="7">
         <v>43361</v>
@@ -5792,174 +5703,353 @@
       <c r="E166" s="8">
         <v>2018</v>
       </c>
-      <c r="F166" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
-      <c r="N166" s="17"/>
-      <c r="O166" s="17"/>
-      <c r="P166" s="17"/>
+      <c r="F166" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="15"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="18">
-        <v>57</v>
-      </c>
-      <c r="B167" s="18" t="s">
+      <c r="A167" s="19">
+        <v>59</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="D167" s="7">
         <v>43370</v>
       </c>
-      <c r="E167" s="8">
+      <c r="E167" s="40">
         <v>2018</v>
       </c>
-      <c r="F167" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
-      <c r="N167" s="17"/>
-      <c r="O167" s="17"/>
-      <c r="P167" s="17"/>
+      <c r="F167" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
-      <c r="B168" s="18"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D168" s="7">
         <v>43370</v>
       </c>
-      <c r="E168" s="8">
-        <v>2018</v>
-      </c>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="17"/>
-      <c r="M168" s="17"/>
-      <c r="N168" s="17"/>
-      <c r="O168" s="17"/>
-      <c r="P168" s="17"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D169" s="7">
         <v>43370</v>
       </c>
-      <c r="E169" s="8">
+      <c r="E169" s="42"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="20">
+        <v>60</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D170" s="14">
+        <v>43400</v>
+      </c>
+      <c r="E170" s="40">
         <v>2018</v>
       </c>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="17"/>
-      <c r="M169" s="17"/>
-      <c r="N169" s="17"/>
-      <c r="O169" s="17"/>
-      <c r="P169" s="17"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="28">
-        <v>58</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C170" s="15" t="s">
+      <c r="F170" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="21"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D170" s="16">
+      <c r="D171" s="14">
         <v>43400</v>
       </c>
-      <c r="E170" s="15">
+      <c r="E171" s="41"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="14">
+        <v>43400</v>
+      </c>
+      <c r="E172" s="42"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="16">
+        <v>61</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" s="17">
+        <v>43405</v>
+      </c>
+      <c r="E173" s="18">
         <v>2018</v>
       </c>
-      <c r="F170" s="18" t="s">
+      <c r="F173" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D171" s="16">
-        <v>43400</v>
-      </c>
-      <c r="E171" s="15">
-        <v>2018</v>
-      </c>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A172" s="30"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D172" s="16">
-        <v>43400</v>
-      </c>
-      <c r="E172" s="15">
-        <v>2018</v>
-      </c>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="193">
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="F170:I172"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
+  <mergeCells count="226">
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F167:I169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="F67:I67"/>
     <mergeCell ref="F52:I52"/>
@@ -5984,114 +6074,21 @@
     <mergeCell ref="A81:A95"/>
     <mergeCell ref="B98:B99"/>
     <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="F170:I172"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
     <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="A98:A99"/>
     <mergeCell ref="F154:I156"/>
     <mergeCell ref="B154:B156"/>
     <mergeCell ref="A154:A156"/>
@@ -6101,44 +6098,6 @@
     <mergeCell ref="C133:C134"/>
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="F167:I169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="197">
   <si>
     <t>Banda</t>
   </si>
@@ -591,6 +591,30 @@
   </si>
   <si>
     <t>Shows Por Ano</t>
+  </si>
+  <si>
+    <t>Firepower Tour</t>
+  </si>
+  <si>
+    <t>Rainier Fog Tour</t>
+  </si>
+  <si>
+    <t>Black Star Riders</t>
+  </si>
+  <si>
+    <t>Km de Vantagens Hall</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Kreator</t>
+  </si>
+  <si>
+    <t>Arch Enemy</t>
+  </si>
+  <si>
+    <t>Kreator: Gods of Violence Tour</t>
   </si>
 </sst>
 </file>
@@ -690,70 +714,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,11 +749,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,13 +797,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,2328 +1107,2340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:P179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+    <row r="2" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>39424</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="20">
         <v>2007</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="12">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="9">
         <v>2007</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="9">
         <f>COUNTIF(E2:E1000,"2007")</f>
         <v>1</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="9">
         <f>SUM(K2:K51)</f>
-        <v>61</v>
-      </c>
-      <c r="M2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <f>COUNTIF(C1:C1015,"Matanza")</f>
         <v>9</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <f>COUNTIF(F2:F1050,"Maracanã")</f>
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>39424</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="9">
+      <c r="E3" s="21"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="8">
         <v>2012</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f>COUNTIF(E2:E1000,"2012")</f>
         <v>2</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f>COUNTIF(C1:C1022,"Exodus")</f>
         <v>3</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <f>COUNTIF(F2:F1050,"Quinta da Boa Vista")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="31">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>41034</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="22">
         <v>2012</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="9">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="8">
         <v>2013</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f>COUNTIF(E2:E1000,"2013")</f>
         <v>4</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f>COUNTIF(C1:C1027,"Metal Jam")</f>
         <v>3</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>COUNTIF(F2:F1050,"Circo Voador")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>41034</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="9">
+      <c r="E5" s="23"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="8">
         <v>2014</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f>COUNTIF(E2:E1000,"2014")</f>
         <v>7</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <f>COUNTIF(C1:C1031,"Black Sabbath")</f>
         <v>2</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <f>COUNTIF(F2:F1050,"Fundição Progresso")</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f t="shared" ref="A6" si="0">(A4+1)</f>
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>41202</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>2012</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="9">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="8">
         <v>2015</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f>COUNTIF(E2:E1000,"2015")</f>
         <v>12</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f>COUNTIF(C1:C1027,"Cavalera Conspiracy")</f>
         <v>3</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <f>COUNTIF(F2:F1050,"Rock In Rio")</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f>(A6+1)</f>
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>41419</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>2013</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="9">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="8">
         <v>2016</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <f>COUNTIF(E2:E1000,"2016")</f>
         <v>19</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <f>COUNTIF(C1:C1008,"Claustrofobia")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <f>COUNTIF(F2:F1050,"Praça da Apoteose")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>41468</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="22">
         <v>2013</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="9">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="8">
         <v>2017</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <f>COUNTIF(E2:E1000,"2017")</f>
         <v>8</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <f>COUNTIF(C1:C1028,"Hatefulmurder")</f>
         <v>2</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <f>COUNTIF(F2:F1050,"Centro Cultural Banco do Brasil")</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>41468</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="9">
+      <c r="E9" s="24"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="8">
         <v>2018</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f>COUNTIF(E2:E1000,"2018")</f>
-        <v>8</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f>COUNTIF(C1:C1031,"Krisiun")</f>
         <v>2</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <f>COUNTIF(F2:F1050,"Arena Anhembi - SP")</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>41468</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <f>COUNTIF(C1:C1037,"Megadeth")</f>
         <v>2</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <f>COUNTIF(F2:F1050,"Imperator")</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="31">
         <v>6</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>41536</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="22">
         <v>2013</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <f>COUNTIF(C1:C1016,"Ratos de Porão")</f>
         <v>2</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <f>COUNTIF(F2:F1050,"Clube Recreativo Caxiense")</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>41536</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="5" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f>COUNTIF(C1:C998, "Test")</f>
         <v>2</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <f>COUNTIF(F2:F1050,"Carioca Club")</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>41536</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <f>COUNTIF(C2:C1042,"Alice In Chains")</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <f>COUNTIF(F2:F1050,"HSBC Arena")</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>41536</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <f>COUNTIF(C2:C1017,"Anthrax")</f>
         <v>1</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <f>COUNTIF(F2:F1030, "Casa de Cultura Chico Science")</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>41536</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="5" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f>COUNTIF(C2:C967,"Armahda")</f>
         <v>1</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <f>COUNTIF(F2:F1030, "Espaço das Américas")</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="31">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>41560</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="22">
         <v>2013</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <f>COUNTIF(C2:C1048,"Biquini Cavadão")</f>
         <v>1</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <f>COUNTIF(F2:F1030,"Teatro Odisseia")</f>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>41560</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="5" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f>COUNTIF(C2:C1025,"Cólera")</f>
         <v>1</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <f>COUNTIF(F2:F1030,"Terreirão do Samba")</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>41664</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>2014</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <f>COUNTIF(C2:C1027,"De La Tierra")</f>
         <v>1</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <f>COUNTIF(F2:F1050,"Jeunesse Arena")</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <f t="shared" ref="A19:A36" si="1">(A18+1)</f>
         <v>9</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>41749</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>2014</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <f>COUNTIF(C2:C1026,"Faith No More")</f>
         <v>1</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="O19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="4">
+        <f>COUNTIF(F2:F1050,"Km de Vantagens Hall")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>41769</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>2014</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <f>COUNTIF(C2:C1038,"Foo Fighters")</f>
         <v>2</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>41826</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>2014</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <f>COUNTIF(C2:C1051,"Ghost B.C.")</f>
         <v>2</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="31">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>41893</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="22">
         <v>2014</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="5" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f>COUNTIF(C2:C1007, "H2O")</f>
         <v>2</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>41893</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <f>COUNTIF(C2:C1034,"Hollywood Vampires")</f>
         <v>1</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>41893</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <f>COUNTIF(C2:C1026,"IRON MAIDEN")</f>
         <v>1</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>13</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>41909</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>2014</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <f>COUNTIF(C2:C1041,"Judas Priest")</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="31">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>41917</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="22">
         <v>2014</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <f>COUNTIF(C2:C1038,"KoRn")</f>
         <v>1</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>41917</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <f>COUNTIF(C2:C1074,"Korzus")</f>
         <v>2</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="31">
         <v>15</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>42029</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="22">
         <v>2015</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <f>COUNTIF(C2:C1036,"Mastodon")</f>
         <v>1</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>42029</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
         <f>COUNTIF(C2:C1057,"Metallica")</f>
         <v>2</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>42029</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <f>COUNTIF(C2:C1054,"Misfits")</f>
         <v>1</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>16</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>42035</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>2015</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <f>COUNTIF(C2:C1048,"Motorhead(CANCELADO)")</f>
         <v>1</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="31">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>42119</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="22">
         <v>2015</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9" t="s">
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <f>COUNTIF(C2:C1047,"Ozzy Osbourne")</f>
         <v>2</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>42119</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9" t="s">
+      <c r="E33" s="24"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <f>COUNTIF(C2:C1037,"Pearl Jam")</f>
         <v>1</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>42119</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <f>COUNTIF(C2:C1078,"Plebe Rude")</f>
         <v>3</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>18</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>42190</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>2015</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="5" t="s">
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <f>COUNTIF(C2:C1022, "Project46")</f>
         <v>1</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+      <c r="A36" s="31">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>42203</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="22">
         <v>2015</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9" t="s">
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <f>COUNTIF(C2:C1081,"Raimundos")</f>
         <v>3</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>42203</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="5" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="4">
         <f>COUNTIF(C2:C1030,"Sabaton")</f>
         <v>1</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+      <c r="A38" s="31">
         <v>20</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>42266</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="22">
         <v>2015</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9" t="s">
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <f>COUNTIF(C2:C1084,"Sepultura")</f>
         <v>4</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>42266</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="9" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="5" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <f>COUNTIF(C2:C990,"Sinaya")</f>
         <v>1</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
+      <c r="A40" s="31">
         <v>21</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <v>42271</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="22">
         <v>2015</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <f>COUNTIF(C2:C1046,"Slipknot")</f>
         <v>1</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="9" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>42271</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <f>COUNTIF(C2:C1041,"Soulfly")</f>
         <v>1</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <v>42271</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="5" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <f>COUNTIF(C2:C992,"Suicidal Tendencies")</f>
         <v>1</v>
       </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
+      <c r="A43" s="31">
         <v>22</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <v>42272</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="22">
         <v>2015</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9" t="s">
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="8">
         <f>COUNTIF(C2:C1053,"System Of A Down")</f>
         <v>1</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <v>42272</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <f>COUNTIF(C2:C1043,"Titãs")</f>
         <v>2</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="9" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>42272</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="5" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="4">
         <f>COUNTIF(C2:C1029,"Violator")</f>
         <v>1</v>
       </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>42272</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="6" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9" t="s">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="8">
         <f>COUNTIF(C2:C1060,"Zumbis do Espaço")</f>
         <v>1</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
+      <c r="A47" s="31">
         <v>23</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="35">
         <v>42308</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="31">
         <v>2015</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="9" t="s">
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9" t="s">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="8">
         <f>COUNTIF(C2:C1090,"Paralamas do Sucesso")</f>
         <v>2</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="9" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9" t="s">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="8">
         <f>COUNTIF(C2:C1079,"Rob Zombie")</f>
         <v>2</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
+      <c r="A49" s="31">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <v>42321</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="25">
         <v>2015</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9" t="s">
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="8">
         <f>COUNTIF(C2:C1097,"The Police")</f>
         <v>1</v>
       </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="10" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <v>42321</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9" t="s">
+      <c r="E50" s="26"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="8">
         <f>COUNTIF(C2:C1075,"Violeta de Outono")</f>
         <v>1</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>25</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <v>42330</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="7">
         <v>2015</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="6" t="s">
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="5" t="s">
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="4">
         <f>COUNTIF(C2:C1075,"Heaven Shall Burn")</f>
         <v>1</v>
       </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <f>(A51+1)</f>
         <v>26</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <v>42358</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="7">
         <v>2015</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="9" t="s">
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="5" t="s">
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="4">
         <f>COUNTIF(C2:C1075,"Carcass")</f>
         <v>1</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
+      <c r="A53" s="31">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="35">
         <v>42393</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="25">
         <v>2016</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="9" t="s">
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="5" t="s">
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="4">
         <f>COUNTIF(C2:C1075,"Lamb of God")</f>
         <v>1</v>
       </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="9" t="s">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="5" t="s">
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="4">
         <f>COUNTIF(C2:C1075,"The Offspring")</f>
         <v>1</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="9" t="s">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="5" t="s">
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="4">
         <f>COUNTIF(C2:C1075,"Guns N' Roses")</f>
         <v>1</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="9" t="s">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="4">
         <f>COUNTIF(C2:C1075,"Red Hot Chili Peppers")</f>
         <v>1</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25" t="s">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D57" s="35">
         <v>42393</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="9" t="s">
+      <c r="E57" s="27"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="5" t="s">
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="4">
         <f>COUNTIF(C2:C1075,"The Who")</f>
         <v>1</v>
       </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="9" t="s">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="8" t="s">
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="4">
         <f>COUNTIF(C2:C1075,"DFC")</f>
         <v>2</v>
       </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="9" t="s">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="5" t="s">
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="4">
         <f>COUNTIF(C2:C1075,"Inocentes")</f>
         <v>1</v>
       </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="9" t="s">
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="5" t="s">
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="4">
         <f>COUNTIF(C2:C1075,"Helloween")</f>
         <v>1</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
+      <c r="A61" s="31">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <v>42397</v>
       </c>
-      <c r="E61" s="37">
+      <c r="E61" s="25">
         <v>2016</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="5" t="s">
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="4">
         <f>COUNTIF(C2:C1075,"Green Day")</f>
         <v>1</v>
       </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="10" t="s">
+      <c r="A62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="10">
         <v>42397</v>
       </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="8" t="s">
+      <c r="E62" s="26"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62" s="4">
         <f>COUNTIF(C2:C1075,"Ego Kill Talent")</f>
         <v>1</v>
       </c>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
+      <c r="A63" s="31">
         <v>29</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="10">
         <v>42446</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="25">
         <v>2016</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="5" t="s">
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="4">
         <f>COUNTIF(C2:C1075,"Queens Of The Stone Age")</f>
         <v>2</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="10" t="s">
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <v>42446</v>
       </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="5" t="s">
+      <c r="E64" s="26"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="4">
         <f>COUNTIF(C2:C1075,"Olho Seco")</f>
         <v>1</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="26">
+      <c r="A65" s="31">
         <v>30</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <v>42467</v>
       </c>
-      <c r="E65" s="37">
+      <c r="E65" s="25">
         <v>2016</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="5" t="s">
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="4">
         <f>COUNTIF(C2:C1075,"Destruction")</f>
         <v>1</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="10" t="s">
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="10">
         <v>42467</v>
       </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="8" t="s">
+      <c r="E66" s="26"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="4">
         <f>COUNTIF(C2:C1075,"Cervical")</f>
         <v>2</v>
       </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>31</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <v>42560</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="7">
         <v>2016</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N67" s="4">
+        <f>COUNTIF(C2:C1075,"Black Star Riders")</f>
+        <v>1</v>
+      </c>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="26">
+      <c r="A68" s="31">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>42574</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="25">
         <v>2016</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="10" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>42574</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="10" t="s">
+      <c r="A70" s="31"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>42574</v>
       </c>
-      <c r="E70" s="38"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="26">
+      <c r="A71" s="31">
         <v>33</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="29">
         <v>42588</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="32">
         <v>2016</v>
       </c>
       <c r="F71" s="19" t="s">
@@ -3426,211 +3449,211 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
-      <c r="J71" s="6" t="s">
+      <c r="J71" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
-      <c r="J72" s="9" t="s">
+      <c r="J72" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="25"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="32"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="32"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="32"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="26">
+      <c r="A81" s="31">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="29">
         <v>42589</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="32">
         <v>2016</v>
       </c>
       <c r="F81" s="19" t="s">
@@ -3639,311 +3662,311 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
-      <c r="J81" s="6" t="s">
+      <c r="J81" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="25"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="32"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="25"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="25"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="32"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="25"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="32"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="25"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="32"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="32"/>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="32"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="32"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="25"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="32"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="25"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="32"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="25"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="32"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="25"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="32"/>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="29">
         <v>42622</v>
       </c>
-      <c r="E96" s="37">
+      <c r="E96" s="25">
         <v>2016</v>
       </c>
       <c r="F96" s="19" t="s">
@@ -3952,33 +3975,33 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="10" t="s">
+      <c r="B97" s="33"/>
+      <c r="C97" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="19"/>
-      <c r="E97" s="38"/>
+      <c r="E97" s="26"/>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
@@ -3988,13 +4011,13 @@
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="29">
         <v>42629</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="16">
         <v>2016</v>
       </c>
       <c r="F98" s="19" t="s">
@@ -4003,35 +4026,35 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="22"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="18"/>
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
-      <c r="J99" s="6" t="s">
+      <c r="J99" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
@@ -4041,13 +4064,13 @@
       <c r="B100" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="29">
         <v>42637</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="16">
         <v>2016</v>
       </c>
       <c r="F100" s="19" t="s">
@@ -4056,37 +4079,37 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-      <c r="J100" s="5" t="s">
+      <c r="J100" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D101" s="19"/>
-      <c r="E101" s="22"/>
+      <c r="E101" s="18"/>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
-      <c r="J101" s="5" t="s">
+      <c r="J101" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
@@ -4096,13 +4119,13 @@
       <c r="B102" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="29">
         <v>42643</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="16">
         <v>2016</v>
       </c>
       <c r="F102" s="19" t="s">
@@ -4111,53 +4134,53 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="21"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="24"/>
-      <c r="E104" s="22"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="18"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
@@ -4167,13 +4190,13 @@
       <c r="B105" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="24">
+      <c r="D105" s="29">
         <v>42672</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="30">
         <v>2016</v>
       </c>
       <c r="F105" s="19" t="s">
@@ -4182,55 +4205,55 @@
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
-      <c r="J105" s="6" t="s">
+      <c r="J105" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="23"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
-      <c r="J106" s="9" t="s">
+      <c r="J106" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="23"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="30"/>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
-      <c r="J107" s="9" t="s">
+      <c r="J107" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
@@ -4239,13 +4262,13 @@
       <c r="B108" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="29">
         <v>42673</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E108" s="13">
         <v>2016</v>
       </c>
       <c r="F108" s="19" t="s">
@@ -4254,59 +4277,59 @@
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="41"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="14"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
-      <c r="J109" s="9" t="s">
+      <c r="J109" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="6">
         <v>42673</v>
       </c>
-      <c r="E110" s="42"/>
+      <c r="E110" s="15"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
-      <c r="J110" s="9" t="s">
+      <c r="J110" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
@@ -4316,13 +4339,13 @@
       <c r="B111" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="6">
         <v>42679</v>
       </c>
-      <c r="E111" s="40">
+      <c r="E111" s="13">
         <v>2016</v>
       </c>
       <c r="F111" s="19" t="s">
@@ -4331,39 +4354,39 @@
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
-      <c r="J111" s="6" t="s">
+      <c r="J111" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="6">
         <v>42679</v>
       </c>
-      <c r="E112" s="42"/>
+      <c r="E112" s="15"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
-      <c r="J112" s="9" t="s">
+      <c r="J112" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
@@ -4373,13 +4396,13 @@
       <c r="B113" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="6">
         <v>42680</v>
       </c>
-      <c r="E113" s="40">
+      <c r="E113" s="13">
         <v>2016</v>
       </c>
       <c r="F113" s="19" t="s">
@@ -4388,55 +4411,55 @@
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
-      <c r="J113" s="6" t="s">
+      <c r="J113" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="6">
         <v>42680</v>
       </c>
-      <c r="E114" s="42"/>
+      <c r="E114" s="15"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
-      <c r="J114" s="9" t="s">
+      <c r="J114" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <f>(A113+1)</f>
         <v>43</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="6">
         <v>42694</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="5">
         <v>2016</v>
       </c>
       <c r="F115" s="19" t="s">
@@ -4445,13 +4468,13 @@
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
@@ -4460,13 +4483,13 @@
       <c r="B116" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="6">
         <v>42706</v>
       </c>
-      <c r="E116" s="40">
+      <c r="E116" s="13">
         <v>2016</v>
       </c>
       <c r="F116" s="19" t="s">
@@ -4475,59 +4498,59 @@
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
-      <c r="J116" s="6" t="s">
+      <c r="J116" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D117" s="29">
         <v>42706</v>
       </c>
-      <c r="E117" s="41"/>
+      <c r="E117" s="14"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
-      <c r="J117" s="9" t="s">
+      <c r="J117" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="42"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="15"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
-      <c r="J118" s="10" t="s">
+      <c r="J118" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
@@ -4536,13 +4559,13 @@
       <c r="B119" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="24">
+      <c r="D119" s="29">
         <v>42718</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="30">
         <v>2016</v>
       </c>
       <c r="F119" s="19" t="s">
@@ -4551,35 +4574,35 @@
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
-      <c r="J119" s="6" t="s">
+      <c r="J119" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="23"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-      <c r="J120" s="9" t="s">
+      <c r="J120" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
@@ -4588,13 +4611,13 @@
       <c r="B121" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="6">
         <v>42852</v>
       </c>
-      <c r="E121" s="40">
+      <c r="E121" s="13">
         <v>2017</v>
       </c>
       <c r="F121" s="19" t="s">
@@ -4603,39 +4626,39 @@
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
-      <c r="J121" s="6" t="s">
+      <c r="J121" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="6">
         <v>42852</v>
       </c>
-      <c r="E122" s="42"/>
+      <c r="E122" s="15"/>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="9" t="s">
+      <c r="J122" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
@@ -4644,13 +4667,13 @@
       <c r="B123" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="6">
         <v>42868</v>
       </c>
-      <c r="E123" s="40">
+      <c r="E123" s="13">
         <v>2017</v>
       </c>
       <c r="F123" s="19" t="s">
@@ -4659,15 +4682,15 @@
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
-      <c r="J123" s="6" t="s">
+      <c r="J123" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
@@ -4675,275 +4698,275 @@
       <c r="C124" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D124" s="24">
+      <c r="D124" s="29">
         <v>42868</v>
       </c>
-      <c r="E124" s="41"/>
+      <c r="E124" s="14"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
-      <c r="J124" s="12" t="s">
+      <c r="J124" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="41"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="14"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
-      <c r="J125" s="12" t="s">
+      <c r="J125" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="6">
         <v>42868</v>
       </c>
-      <c r="E126" s="41"/>
+      <c r="E126" s="14"/>
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
-      <c r="J126" s="12" t="s">
+      <c r="J126" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="6">
         <v>42868</v>
       </c>
-      <c r="E127" s="41"/>
+      <c r="E127" s="14"/>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
-      <c r="J127" s="12" t="s">
+      <c r="J127" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="6">
         <v>42868</v>
       </c>
-      <c r="E128" s="41"/>
+      <c r="E128" s="14"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
-      <c r="J128" s="12" t="s">
+      <c r="J128" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="6">
         <v>42868</v>
       </c>
-      <c r="E129" s="41"/>
+      <c r="E129" s="14"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
-      <c r="J129" s="12" t="s">
+      <c r="J129" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="6">
         <v>42868</v>
       </c>
-      <c r="E130" s="41"/>
+      <c r="E130" s="14"/>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
-      <c r="J130" s="12" t="s">
+      <c r="J130" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="29">
         <v>42868</v>
       </c>
-      <c r="E131" s="41"/>
+      <c r="E131" s="14"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
-      <c r="J131" s="12" t="s">
+      <c r="J131" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="41"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="14"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
-      <c r="J132" s="12" t="s">
+      <c r="J132" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="29">
         <v>42868</v>
       </c>
-      <c r="E133" s="41"/>
+      <c r="E133" s="14"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
-      <c r="J133" s="12" t="s">
+      <c r="J133" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="41"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="14"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
-      <c r="J134" s="12" t="s">
+      <c r="J134" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="6">
         <v>42868</v>
       </c>
-      <c r="E135" s="42"/>
+      <c r="E135" s="15"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
-      <c r="J135" s="12" t="s">
+      <c r="J135" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
@@ -4952,13 +4975,13 @@
       <c r="B136" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="6">
         <v>42910</v>
       </c>
-      <c r="E136" s="40">
+      <c r="E136" s="13">
         <v>2017</v>
       </c>
       <c r="F136" s="19" t="s">
@@ -4967,57 +4990,57 @@
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="6">
         <v>42910</v>
       </c>
-      <c r="E137" s="41"/>
+      <c r="E137" s="14"/>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="6">
         <v>42910</v>
       </c>
-      <c r="E138" s="42"/>
+      <c r="E138" s="15"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
@@ -5026,13 +5049,13 @@
       <c r="B139" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="6">
         <v>42931</v>
       </c>
-      <c r="E139" s="40">
+      <c r="E139" s="13">
         <v>2017</v>
       </c>
       <c r="F139" s="19" t="s">
@@ -5041,57 +5064,57 @@
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-      <c r="O139" s="5"/>
-      <c r="P139" s="5"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="6">
         <v>42931</v>
       </c>
-      <c r="E140" s="41"/>
+      <c r="E140" s="14"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="6">
         <v>42931</v>
       </c>
-      <c r="E141" s="42"/>
+      <c r="E141" s="15"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
@@ -5100,13 +5123,13 @@
       <c r="B142" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="6">
         <v>43001</v>
       </c>
-      <c r="E142" s="40">
+      <c r="E142" s="13">
         <v>2017</v>
       </c>
       <c r="F142" s="19" t="s">
@@ -5115,61 +5138,61 @@
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
-      <c r="J142" s="6" t="s">
+      <c r="J142" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="6">
         <v>43001</v>
       </c>
-      <c r="E143" s="41"/>
+      <c r="E143" s="14"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
-      <c r="J143" s="9" t="s">
+      <c r="J143" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="6">
         <v>43001</v>
       </c>
-      <c r="E144" s="42"/>
+      <c r="E144" s="15"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
@@ -5178,13 +5201,13 @@
       <c r="B145" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="6">
         <v>43002</v>
       </c>
-      <c r="E145" s="40">
+      <c r="E145" s="13">
         <v>2017</v>
       </c>
       <c r="F145" s="19" t="s">
@@ -5193,72 +5216,72 @@
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="6">
         <v>43002</v>
       </c>
-      <c r="E146" s="41"/>
+      <c r="E146" s="14"/>
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="6">
         <v>43002</v>
       </c>
-      <c r="E147" s="42"/>
+      <c r="E147" s="15"/>
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="26">
+      <c r="A148" s="31">
         <v>52</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D148" s="24">
+      <c r="D148" s="29">
         <v>43036</v>
       </c>
-      <c r="E148" s="23">
+      <c r="E148" s="30">
         <v>2017</v>
       </c>
       <c r="F148" s="19" t="s">
@@ -5267,110 +5290,110 @@
       <c r="G148" s="19"/>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
-      <c r="J148" s="6" t="s">
+      <c r="J148" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="19"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="23"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="30"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
-      <c r="J149" s="5" t="s">
+      <c r="J149" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="26"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="19"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="23"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="30"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
-      <c r="J150" s="5" t="s">
+      <c r="J150" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="26"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="19"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="23"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
-      <c r="J151" s="5" t="s">
+      <c r="J151" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="26"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="19"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="23"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="30"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
-      <c r="J152" s="5" t="s">
+      <c r="J152" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>53</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="6">
         <v>43040</v>
       </c>
-      <c r="E153" s="8">
+      <c r="E153" s="5">
         <v>2017</v>
       </c>
       <c r="F153" s="19" t="s">
@@ -5379,13 +5402,13 @@
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
@@ -5394,13 +5417,13 @@
       <c r="B154" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="6">
         <v>43156</v>
       </c>
-      <c r="E154" s="40">
+      <c r="E154" s="13">
         <v>2018</v>
       </c>
       <c r="F154" s="19" t="s">
@@ -5409,72 +5432,72 @@
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="6">
         <v>43156</v>
       </c>
-      <c r="E155" s="41"/>
+      <c r="E155" s="14"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="6">
         <v>43156</v>
       </c>
-      <c r="E156" s="42"/>
+      <c r="E156" s="15"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>55</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="6">
         <v>43240</v>
       </c>
-      <c r="E157" s="8">
+      <c r="E157" s="5">
         <v>2018</v>
       </c>
       <c r="F157" s="19" t="s">
@@ -5483,13 +5506,13 @@
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
@@ -5498,13 +5521,13 @@
       <c r="B158" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="6">
         <v>43309</v>
       </c>
-      <c r="E158" s="40">
+      <c r="E158" s="13">
         <v>2018</v>
       </c>
       <c r="F158" s="19" t="s">
@@ -5513,94 +5536,66 @@
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
-      <c r="P158" s="15"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D159" s="6">
         <v>43309</v>
       </c>
-      <c r="E159" s="41"/>
+      <c r="E159" s="14"/>
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
-      <c r="N159" s="15"/>
-      <c r="O159" s="15"/>
-      <c r="P159" s="15"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160" s="6">
         <v>43309</v>
       </c>
-      <c r="E160" s="41"/>
+      <c r="E160" s="14"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="15"/>
-      <c r="O160" s="15"/>
-      <c r="P160" s="15"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="3" t="s">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="2">
         <v>43309</v>
       </c>
-      <c r="E161" s="42"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
-      <c r="N161" s="15"/>
-      <c r="O161" s="15"/>
-      <c r="P161" s="15"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E161" s="15"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>57</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D162" s="6">
         <v>43330</v>
       </c>
-      <c r="E162" s="20">
+      <c r="E162" s="16">
         <v>2018</v>
       </c>
       <c r="F162" s="19" t="s">
@@ -5609,48 +5604,36 @@
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
-      <c r="J162" s="29" t="s">
+      <c r="J162" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-      <c r="N162" s="15"/>
-      <c r="O162" s="15"/>
-      <c r="P162" s="15"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D163" s="6">
         <v>43330</v>
       </c>
-      <c r="E163" s="21"/>
+      <c r="E163" s="17"/>
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-      <c r="N163" s="15"/>
-      <c r="O163" s="15"/>
-      <c r="P163" s="15"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J163" s="28"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D164" s="7">
+      <c r="D164" s="6">
         <v>43330</v>
       </c>
-      <c r="E164" s="21"/>
+      <c r="E164" s="17"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
@@ -5658,49 +5641,37 @@
       <c r="J164" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-      <c r="N164" s="15"/>
-      <c r="O164" s="15"/>
-      <c r="P164" s="15"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D165" s="7">
+      <c r="D165" s="6">
         <v>43330</v>
       </c>
-      <c r="E165" s="22"/>
+      <c r="E165" s="18"/>
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
-      <c r="N165" s="15"/>
-      <c r="O165" s="15"/>
-      <c r="P165" s="15"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
         <v>58</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D166" s="6">
         <v>43361</v>
       </c>
-      <c r="E166" s="8">
+      <c r="E166" s="5">
         <v>2018</v>
       </c>
       <c r="F166" s="19" t="s">
@@ -5709,28 +5680,21 @@
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
-      <c r="M166" s="15"/>
-      <c r="N166" s="15"/>
-      <c r="O166" s="15"/>
-      <c r="P166" s="15"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>59</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D167" s="6">
         <v>43370</v>
       </c>
-      <c r="E167" s="40">
+      <c r="E167" s="13">
         <v>2018</v>
       </c>
       <c r="F167" s="19" t="s">
@@ -5739,72 +5703,51 @@
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="15"/>
-      <c r="M167" s="15"/>
-      <c r="N167" s="15"/>
-      <c r="O167" s="15"/>
-      <c r="P167" s="15"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D168" s="7">
+      <c r="D168" s="6">
         <v>43370</v>
       </c>
-      <c r="E168" s="41"/>
+      <c r="E168" s="14"/>
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
-      <c r="M168" s="15"/>
-      <c r="N168" s="15"/>
-      <c r="O168" s="15"/>
-      <c r="P168" s="15"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D169" s="7">
+      <c r="D169" s="6">
         <v>43370</v>
       </c>
-      <c r="E169" s="42"/>
+      <c r="E169" s="15"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="15"/>
-      <c r="M169" s="15"/>
-      <c r="N169" s="15"/>
-      <c r="O169" s="15"/>
-      <c r="P169" s="15"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="20">
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="16">
         <v>60</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170" s="6">
         <v>43400</v>
       </c>
-      <c r="E170" s="40">
+      <c r="E170" s="13">
         <v>2018</v>
       </c>
       <c r="F170" s="19" t="s">
@@ -5814,50 +5757,50 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="21"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="13" t="s">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="6">
         <v>43400</v>
       </c>
-      <c r="E171" s="41"/>
+      <c r="E171" s="14"/>
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A172" s="22"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="13" t="s">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="18"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="6">
         <v>43400</v>
       </c>
-      <c r="E172" s="42"/>
+      <c r="E172" s="15"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A173" s="16">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
         <v>61</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="17">
+      <c r="D173" s="6">
         <v>43405</v>
       </c>
-      <c r="E173" s="18">
+      <c r="E173" s="5">
         <v>2018</v>
       </c>
       <c r="F173" s="19" t="s">
@@ -5866,22 +5809,326 @@
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="19">
+        <v>62</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D174" s="6">
+        <v>43415</v>
+      </c>
+      <c r="E174" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F174" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="19"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="6">
+        <v>43415</v>
+      </c>
+      <c r="E175" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="19"/>
+      <c r="B176" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" s="6">
+        <v>43415</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="19">
+        <v>63</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D177" s="6">
+        <v>43420</v>
+      </c>
+      <c r="E177" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F177" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="19"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D178" s="6">
+        <v>43420</v>
+      </c>
+      <c r="E178" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="19"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D179" s="6">
+        <v>43420</v>
+      </c>
+      <c r="E179" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="226">
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E123:E135"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="E162:E165"/>
+  <mergeCells count="232">
+    <mergeCell ref="F177:I179"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="F174:I176"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="F170:I172"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="F167:I169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="E167:E169"/>
     <mergeCell ref="B170:B172"/>
     <mergeCell ref="F173:I173"/>
     <mergeCell ref="E2:E3"/>
@@ -5906,198 +6153,16 @@
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F167:I169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="F170:I172"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E165"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="208">
   <si>
     <t>Banda</t>
   </si>
@@ -239,18 +239,12 @@
     <t>Companhias</t>
   </si>
   <si>
-    <t>Anos</t>
-  </si>
-  <si>
     <t>Cólera</t>
   </si>
   <si>
     <t>Lugar</t>
   </si>
   <si>
-    <t xml:space="preserve">Carioca Club </t>
-  </si>
-  <si>
     <t>Nando Reis</t>
   </si>
   <si>
@@ -621,6 +615,39 @@
   </si>
   <si>
     <t>Finis Africae 30 Anos</t>
+  </si>
+  <si>
+    <t>Noite do Descarrego</t>
+  </si>
+  <si>
+    <t>Surra</t>
+  </si>
+  <si>
+    <t>Gangrena Gasosa</t>
+  </si>
+  <si>
+    <t>The Revolución Tour</t>
+  </si>
+  <si>
+    <t>Stone Temple Pilots</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Carioca Club - SP</t>
+  </si>
+  <si>
+    <t>Casa de Cultura Chico Science - SP</t>
+  </si>
+  <si>
+    <t>Espaço das Américas - SP</t>
+  </si>
+  <si>
+    <t>Autódromo de Interlagos - SP</t>
+  </si>
+  <si>
+    <t>Motorhead (CANCELADO)</t>
   </si>
 </sst>
 </file>
@@ -656,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -716,11 +743,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,6 +820,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,40 +850,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,22 +883,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,12 +1210,12 @@
     <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="36" style="2" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1163,10 +1225,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>5</v>
@@ -1174,20 +1236,18 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>188</v>
-      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="47"/>
       <c r="L1" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>0</v>
@@ -1196,34 +1256,34 @@
         <v>67</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="26">
         <v>39424</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="29">
         <v>2007</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="8">
         <v>2007</v>
       </c>
@@ -1233,7 +1293,7 @@
       </c>
       <c r="L2" s="8">
         <f>SUM(K2:K51)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
@@ -1251,17 +1311,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1286,28 +1346,28 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="41">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>161</v>
+      <c r="B4" s="41" t="s">
+        <v>159</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="26">
         <v>41034</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>2012</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1332,17 +1392,17 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1372,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
@@ -1383,12 +1443,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1429,12 +1489,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1459,27 +1519,27 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="41">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>93</v>
+      <c r="B8" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="26">
         <v>41468</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <v>2013</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1504,23 +1564,23 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
       <c r="K9" s="7">
         <f>COUNTIF(E2:E1000,"2018")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
@@ -1539,19 +1599,24 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K10" s="7">
+        <f>COUNTIF(E2:E1000,"2019")</f>
+        <v>1</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
         <v>14</v>
@@ -1569,27 +1634,27 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="41">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>115</v>
+      <c r="B11" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="26">
         <v>41536</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <v>2013</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1609,29 +1674,29 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N12" s="3">
         <f>COUNTIF(C1:C998, "Test")</f>
         <v>2</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="P12" s="3">
         <f>COUNTIF(F2:F1050,"Carioca Club")</f>
@@ -1639,17 +1704,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1669,17 +1734,17 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1691,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="P14" s="3">
         <f>COUNTIF(F2:F1030, "Casa de Cultura Chico Science")</f>
@@ -1699,29 +1764,29 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N15" s="3">
         <f>COUNTIF(C2:C967,"Armahda")</f>
         <v>1</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="P15" s="3">
         <f>COUNTIF(F2:F1030, "Espaço das Américas")</f>
@@ -1729,27 +1794,27 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="41">
         <v>7</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="26">
         <v>41560</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>2013</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1761,37 +1826,37 @@
         <v>1</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P16" s="3">
         <f>COUNTIF(F2:F1030,"Teatro Odisseia")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N17" s="3">
         <f>COUNTIF(C2:C1025,"Cólera")</f>
         <v>1</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P17" s="3">
         <f>COUNTIF(F2:F1030,"Terreirão do Samba")</f>
@@ -1814,12 +1879,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1831,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P18" s="3">
         <f>COUNTIF(F2:F1050,"Jeunesse Arena")</f>
@@ -1855,12 +1920,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1872,11 +1937,11 @@
         <v>1</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P19" s="3">
         <f>COUNTIF(F2:F1050,"Km de Vantagens Hall")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1896,12 +1961,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1912,8 +1977,13 @@
         <f>COUNTIF(C2:C1038,"Foo Fighters")</f>
         <v>2</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" s="3">
+        <f>COUNTIF(F123:F1050,"Autódromo de Interlagos")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -1932,12 +2002,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1952,33 +2022,33 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="26">
         <v>41893</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>2014</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N22" s="3">
         <f>COUNTIF(C2:C1007, "H2O")</f>
@@ -1988,17 +2058,17 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2013,17 +2083,17 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2053,12 +2123,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2073,28 +2143,28 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="26">
         <v>41917</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="31">
         <v>2014</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2109,17 +2179,17 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2134,27 +2204,27 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="41">
         <v>15</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="26">
         <v>42029</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="31">
         <v>2015</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2169,17 +2239,17 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2194,17 +2264,17 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2223,10 +2293,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="9">
         <v>42035</v>
@@ -2234,17 +2304,17 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="N31" s="7">
         <f>COUNTIF(C2:C1048,"Motorhead(CANCELADO)")</f>
@@ -2254,28 +2324,28 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>116</v>
+      <c r="B32" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="26">
         <v>42119</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="31">
         <v>2015</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2290,17 +2360,17 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2315,17 +2385,17 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2355,17 +2425,17 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N35" s="3">
         <f>COUNTIF(C2:C1022, "Project46")</f>
@@ -2375,28 +2445,28 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>163</v>
+      <c r="B36" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="26">
         <v>42203</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="31">
         <v>2015</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2411,22 +2481,22 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N37" s="3">
         <f>COUNTIF(C2:C1030,"Sabaton")</f>
@@ -2436,27 +2506,27 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="41">
         <v>20</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>115</v>
+      <c r="B38" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="26">
         <v>42266</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="31">
         <v>2015</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2471,24 +2541,24 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N39" s="3">
         <f>COUNTIF(C2:C990,"Sinaya")</f>
@@ -2498,27 +2568,27 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="41">
         <v>21</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>115</v>
+      <c r="B40" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="26">
         <v>42271</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>2015</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2533,17 +2603,17 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+        <v>158</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2558,22 +2628,22 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N42" s="3">
         <f>COUNTIF(C2:C992,"Suicidal Tendencies")</f>
@@ -2583,27 +2653,27 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="41">
         <v>22</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>115</v>
+      <c r="B43" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="26">
         <v>42272</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="31">
         <v>2015</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2618,17 +2688,17 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2643,22 +2713,22 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N45" s="3">
         <f>COUNTIF(C2:C1029,"Violator")</f>
@@ -2668,17 +2738,17 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="10" t="s">
         <v>70</v>
       </c>
@@ -2695,29 +2765,29 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="A47" s="41">
         <v>23</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="44">
         <v>42308</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="41">
         <v>2015</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
       <c r="J47" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -2732,17 +2802,17 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
       <c r="J48" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -2757,28 +2827,28 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="41">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="26">
         <v>42321</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="34">
         <v>2015</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -2793,17 +2863,17 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -2833,19 +2903,19 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N51" s="3">
         <f>COUNTIF(C2:C1075,"Heaven Shall Burn")</f>
@@ -2860,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>39</v>
@@ -2871,19 +2941,19 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N52" s="3">
         <f>COUNTIF(C2:C1075,"Carcass")</f>
@@ -2893,35 +2963,35 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="A53" s="41">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="39">
+      <c r="B53" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="26">
         <v>42393</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="34">
         <v>2016</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N53" s="3">
         <f>COUNTIF(C2:C1075,"Lamb of God")</f>
@@ -2931,22 +3001,22 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N54" s="3">
         <f>COUNTIF(C2:C1075,"The Offspring")</f>
@@ -2956,22 +3026,22 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N55" s="3">
         <f>COUNTIF(C2:C1075,"Guns N' Roses")</f>
@@ -2981,22 +3051,22 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
       <c r="J56" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N56" s="3">
         <f>COUNTIF(C2:C1075,"Red Hot Chili Peppers")</f>
@@ -3006,24 +3076,24 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
       <c r="J57" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N57" s="3">
         <f>COUNTIF(C2:C1075,"The Who")</f>
@@ -3033,22 +3103,22 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
       <c r="J58" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N58" s="3">
         <f>COUNTIF(C2:C1075,"DFC")</f>
@@ -3058,22 +3128,22 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
       <c r="J59" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N59" s="3">
         <f>COUNTIF(C2:C1075,"Inocentes")</f>
@@ -3083,22 +3153,22 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N60" s="3">
         <f>COUNTIF(C2:C1075,"Helloween")</f>
@@ -3108,33 +3178,33 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="41">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>164</v>
+      <c r="B61" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="39">
+        <v>94</v>
+      </c>
+      <c r="D61" s="26">
         <v>42397</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="34">
         <v>2016</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N61" s="3">
         <f>COUNTIF(C2:C1075,"Green Day")</f>
@@ -3144,22 +3214,22 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N62" s="3">
         <f>COUNTIF(C2:C1075,"Ego Kill Talent")</f>
@@ -3169,32 +3239,32 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
+      <c r="A63" s="41">
         <v>29</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>165</v>
+      <c r="B63" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="26">
         <v>42446</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="34">
         <v>2016</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N63" s="3">
         <f>COUNTIF(C2:C1075,"Queens Of The Stone Age")</f>
@@ -3204,22 +3274,22 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N64" s="3">
         <f>COUNTIF(C2:C1075,"Olho Seco")</f>
@@ -3229,32 +3299,32 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="41">
         <v>30</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>166</v>
+      <c r="B65" s="38" t="s">
+        <v>164</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="26">
         <v>42467</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="34">
         <v>2016</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N65" s="3">
         <f>COUNTIF(C2:C1075,"Destruction")</f>
@@ -3264,22 +3334,22 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N66" s="3">
         <f>COUNTIF(C2:C1075,"Cervical")</f>
@@ -3304,17 +3374,17 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N67" s="3">
         <f>COUNTIF(C2:C1075,"Black Star Riders")</f>
@@ -3324,33 +3394,33 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+      <c r="A68" s="41">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="42">
+      <c r="D68" s="16">
         <v>42574</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="34">
         <v>2016</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N68" s="12">
         <f>COUNTIF(C2:C1075,"Finis Africae")</f>
@@ -3360,107 +3430,127 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="43"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="M69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N69" s="3">
+        <f>COUNTIF(C181:C1075,"Surra")</f>
+        <v>1</v>
+      </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N70" s="3">
+        <f>COUNTIF(C182:C1075,"Gangrena Gasosa")</f>
+        <v>1</v>
+      </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="41">
         <v>33</v>
       </c>
-      <c r="B71" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="20">
+      <c r="B71" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="39">
         <v>42588</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="38">
         <v>2016</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
       <c r="J71" s="10" t="s">
         <v>70</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N71" s="3">
+        <f>COUNTIF(C183:C1075,"Stone Temple Pilots")</f>
+        <v>1</v>
+      </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
       <c r="J72" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N72" s="15">
+        <f>COUNTIF(C184:C1075,"Bush")</f>
+        <v>1</v>
+      </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
       <c r="J73" s="7" t="s">
         <v>53</v>
       </c>
@@ -3472,15 +3562,15 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
       <c r="J74" s="7" t="s">
         <v>54</v>
       </c>
@@ -3492,17 +3582,17 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -3512,17 +3602,17 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -3532,15 +3622,15 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
       <c r="J77" s="7" t="s">
         <v>57</v>
       </c>
@@ -3552,17 +3642,17 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
       <c r="J78" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
@@ -3572,17 +3662,17 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
       <c r="J79" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -3592,17 +3682,17 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -3612,28 +3702,28 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
+      <c r="A81" s="41">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="39">
         <v>42589</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="38">
         <v>2016</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
       <c r="J81" s="10" t="s">
         <v>70</v>
       </c>
@@ -3645,15 +3735,15 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
       <c r="J82" s="7" t="s">
         <v>52</v>
       </c>
@@ -3665,17 +3755,17 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
       <c r="J83" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -3685,15 +3775,15 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
       <c r="J84" s="7" t="s">
         <v>53</v>
       </c>
@@ -3705,15 +3795,15 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
       <c r="J85" s="7" t="s">
         <v>54</v>
       </c>
@@ -3725,17 +3815,17 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
       <c r="J86" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -3745,17 +3835,17 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
       <c r="J87" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -3765,15 +3855,15 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
       <c r="J88" s="7" t="s">
         <v>57</v>
       </c>
@@ -3785,17 +3875,17 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
       <c r="J89" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -3805,17 +3895,17 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
       <c r="J90" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -3825,17 +3915,17 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
       <c r="J91" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -3845,17 +3935,17 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
       <c r="J92" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -3865,17 +3955,17 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
       <c r="J93" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -3885,17 +3975,17 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
       <c r="J94" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -3905,17 +3995,17 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
       <c r="J95" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -3925,28 +4015,28 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="15">
+      <c r="A96" s="19">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="27" t="s">
-        <v>97</v>
+      <c r="B96" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" s="20">
+        <v>93</v>
+      </c>
+      <c r="D96" s="39">
         <v>42622</v>
       </c>
-      <c r="E96" s="36">
+      <c r="E96" s="34">
         <v>2016</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
       <c r="J96" s="3"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -3956,17 +4046,17 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
       <c r="J97" s="3"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -3976,28 +4066,28 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="15">
+      <c r="A98" s="19">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="15" t="s">
-        <v>98</v>
+      <c r="B98" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="39">
         <v>42629</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="23">
         <v>2016</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
       <c r="J98" s="3"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -4007,17 +4097,17 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
       <c r="J99" s="10" t="s">
         <v>70</v>
       </c>
@@ -4029,30 +4119,30 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
+      <c r="A100" s="19">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="39">
+        <v>42637</v>
+      </c>
+      <c r="E100" s="23">
+        <v>2016</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D100" s="20">
-        <v>42637</v>
-      </c>
-      <c r="E100" s="16">
-        <v>2016</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -4062,19 +4152,19 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
       <c r="J101" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -4084,28 +4174,28 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="15">
+      <c r="A102" s="19">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D102" s="20">
+        <v>103</v>
+      </c>
+      <c r="D102" s="39">
         <v>42643</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="23">
         <v>2016</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
       <c r="J102" s="3"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -4115,17 +4205,17 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="D103" s="39"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
       <c r="J103" s="3"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -4135,17 +4225,17 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="20"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
       <c r="J104" s="3"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -4155,28 +4245,28 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="15">
+      <c r="A105" s="19">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="39">
         <v>42672</v>
       </c>
-      <c r="E105" s="19">
+      <c r="E105" s="40">
         <v>2016</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
       <c r="J105" s="10" t="s">
         <v>70</v>
       </c>
@@ -4188,17 +4278,17 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
       <c r="J106" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -4208,17 +4298,17 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
       <c r="J107" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
@@ -4228,27 +4318,27 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="15">
+      <c r="A108" s="19">
         <v>40</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" s="42">
+      <c r="B108" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" s="16">
         <v>42673</v>
       </c>
-      <c r="E108" s="28">
+      <c r="E108" s="20">
         <v>2016</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
       <c r="J108" s="10" t="s">
         <v>70</v>
       </c>
@@ -4260,17 +4350,17 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
       <c r="J109" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
@@ -4280,19 +4370,19 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D110" s="44"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
       <c r="J110" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -4302,28 +4392,28 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="15">
+      <c r="A111" s="19">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="15" t="s">
-        <v>112</v>
+      <c r="B111" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D111" s="42">
+      <c r="D111" s="16">
         <v>42679</v>
       </c>
-      <c r="E111" s="28">
+      <c r="E111" s="20">
         <v>2016</v>
       </c>
-      <c r="F111" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
+      <c r="F111" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
       <c r="J111" s="10" t="s">
         <v>70</v>
       </c>
@@ -4335,19 +4425,19 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="44"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
       <c r="J112" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -4357,28 +4447,28 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="15">
+      <c r="A113" s="19">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="15" t="s">
-        <v>112</v>
+      <c r="B113" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="42">
+      <c r="D113" s="16">
         <v>42680</v>
       </c>
-      <c r="E113" s="28">
+      <c r="E113" s="20">
         <v>2016</v>
       </c>
-      <c r="F113" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
+      <c r="F113" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
       <c r="J113" s="10" t="s">
         <v>70</v>
       </c>
@@ -4390,19 +4480,19 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="44"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
       <c r="J114" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -4428,12 +4518,12 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="15" t="s">
+      <c r="F115" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
       <c r="J115" s="3"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -4443,27 +4533,27 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="15">
+      <c r="A116" s="19">
         <v>44</v>
       </c>
-      <c r="B116" s="15" t="s">
-        <v>124</v>
+      <c r="B116" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D116" s="42">
+        <v>117</v>
+      </c>
+      <c r="D116" s="16">
         <v>42706</v>
       </c>
-      <c r="E116" s="28">
+      <c r="E116" s="20">
         <v>2016</v>
       </c>
-      <c r="F116" s="15" t="s">
+      <c r="F116" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
       <c r="J116" s="10" t="s">
         <v>70</v>
       </c>
@@ -4475,19 +4565,19 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="21" t="s">
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="43"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
       <c r="J117" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
@@ -4497,17 +4587,17 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
       <c r="J118" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
@@ -4517,27 +4607,27 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="15">
+      <c r="A119" s="19">
         <v>45</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C119" s="21" t="s">
+      <c r="B119" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="39">
         <v>42718</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119" s="40">
         <v>2016</v>
       </c>
-      <c r="F119" s="15" t="s">
+      <c r="F119" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
       <c r="J119" s="10" t="s">
         <v>70</v>
       </c>
@@ -4549,17 +4639,17 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
       <c r="J120" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
@@ -4569,27 +4659,27 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="15">
+      <c r="A121" s="19">
         <v>46</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>169</v>
+      <c r="B121" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D121" s="42">
+        <v>120</v>
+      </c>
+      <c r="D121" s="16">
         <v>42852</v>
       </c>
-      <c r="E121" s="28">
+      <c r="E121" s="20">
         <v>2017</v>
       </c>
-      <c r="F121" s="15" t="s">
+      <c r="F121" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
       <c r="J121" s="10" t="s">
         <v>70</v>
       </c>
@@ -4601,19 +4691,19 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D122" s="44"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
       <c r="J122" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -4623,27 +4713,27 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="15">
+      <c r="A123" s="19">
         <v>47</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D123" s="42">
+      <c r="D123" s="16">
         <v>42868</v>
       </c>
-      <c r="E123" s="28">
+      <c r="E123" s="20">
         <v>2017</v>
       </c>
-      <c r="F123" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
+      <c r="F123" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
       <c r="J123" s="10" t="s">
         <v>70</v>
       </c>
@@ -4655,19 +4745,19 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D124" s="43"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
       <c r="J124" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -4677,17 +4767,17 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
       <c r="J125" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
@@ -4697,19 +4787,19 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D126" s="43"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
       <c r="J126" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
@@ -4719,17 +4809,17 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="43"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
       <c r="J127" s="8" t="s">
         <v>53</v>
       </c>
@@ -4741,19 +4831,19 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D128" s="43"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="D128" s="17"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
       <c r="J128" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
@@ -4763,17 +4853,17 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="43"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
       <c r="J129" s="8" t="s">
         <v>54</v>
       </c>
@@ -4785,19 +4875,19 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D130" s="43"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="D130" s="17"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
       <c r="J130" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
@@ -4807,17 +4897,17 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D131" s="43"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
       <c r="J131" s="8" t="s">
         <v>57</v>
       </c>
@@ -4829,17 +4919,17 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
       <c r="J132" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
@@ -4849,19 +4939,19 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D133" s="43"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
       <c r="J133" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
@@ -4871,17 +4961,17 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
       <c r="J134" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
@@ -4891,19 +4981,19 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D135" s="44"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
+        <v>132</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
       <c r="J135" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
@@ -4913,27 +5003,27 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="15">
+      <c r="A136" s="19">
         <v>48</v>
       </c>
-      <c r="B136" s="15" t="s">
-        <v>140</v>
+      <c r="B136" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D136" s="42">
+        <v>139</v>
+      </c>
+      <c r="D136" s="16">
         <v>42910</v>
       </c>
-      <c r="E136" s="28">
+      <c r="E136" s="20">
         <v>2017</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="F136" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -4943,17 +5033,17 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D137" s="43"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -4963,17 +5053,17 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D138" s="44"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -4983,27 +5073,27 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="15">
+      <c r="A139" s="19">
         <v>49</v>
       </c>
-      <c r="B139" s="15" t="s">
-        <v>143</v>
+      <c r="B139" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D139" s="42">
+        <v>142</v>
+      </c>
+      <c r="D139" s="16">
         <v>42931</v>
       </c>
-      <c r="E139" s="28">
+      <c r="E139" s="20">
         <v>2017</v>
       </c>
-      <c r="F139" s="15" t="s">
+      <c r="F139" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -5013,17 +5103,17 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D140" s="43"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="D140" s="17"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5033,17 +5123,17 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="44"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5053,27 +5143,27 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="15">
+      <c r="A142" s="19">
         <v>50</v>
       </c>
-      <c r="B142" s="15" t="s">
-        <v>115</v>
+      <c r="B142" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D142" s="42">
+      <c r="D142" s="16">
         <v>43001</v>
       </c>
-      <c r="E142" s="28">
+      <c r="E142" s="20">
         <v>2017</v>
       </c>
-      <c r="F142" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
+      <c r="F142" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
       <c r="J142" s="10" t="s">
         <v>70</v>
       </c>
@@ -5085,19 +5175,19 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D143" s="43"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -5107,18 +5197,18 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D144" s="44"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="32"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5127,27 +5217,27 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="15">
+      <c r="A145" s="19">
         <v>51</v>
       </c>
-      <c r="B145" s="15" t="s">
-        <v>115</v>
+      <c r="B145" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="42">
+      <c r="D145" s="16">
         <v>43002</v>
       </c>
-      <c r="E145" s="28">
+      <c r="E145" s="20">
         <v>2017</v>
       </c>
-      <c r="F145" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
+      <c r="F145" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5157,17 +5247,17 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" s="43"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5177,17 +5267,17 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D147" s="44"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
+        <v>147</v>
+      </c>
+      <c r="D147" s="18"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -5197,27 +5287,27 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="22">
+      <c r="A148" s="41">
         <v>52</v>
       </c>
-      <c r="B148" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D148" s="20">
+      <c r="B148" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="39">
         <v>43036</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="40">
         <v>2017</v>
       </c>
-      <c r="F148" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
+      <c r="F148" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
       <c r="J148" s="10" t="s">
         <v>70</v>
       </c>
@@ -5229,17 +5319,17 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="22"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
       <c r="J149" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -5249,17 +5339,17 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="22"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
       <c r="J150" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -5269,17 +5359,17 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="22"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
       <c r="J151" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -5289,17 +5379,17 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
       <c r="J152" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -5313,10 +5403,10 @@
         <v>53</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D153" s="5">
         <v>43040</v>
@@ -5324,12 +5414,12 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
+      <c r="F153" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5339,27 +5429,27 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="15">
+      <c r="A154" s="19">
         <v>54</v>
       </c>
-      <c r="B154" s="15" t="s">
-        <v>159</v>
+      <c r="B154" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D154" s="42">
+        <v>156</v>
+      </c>
+      <c r="D154" s="16">
         <v>43156</v>
       </c>
-      <c r="E154" s="28">
+      <c r="E154" s="20">
         <v>2018</v>
       </c>
-      <c r="F154" s="15" t="s">
+      <c r="F154" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
       <c r="J154" s="8"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5369,17 +5459,17 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D155" s="43"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
+        <v>158</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
       <c r="J155" s="1"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5389,17 +5479,17 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="44"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5413,7 +5503,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>37</v>
@@ -5424,12 +5514,12 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
+      <c r="F157" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5439,146 +5529,146 @@
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="15">
+      <c r="A158" s="19">
         <v>56</v>
       </c>
-      <c r="B158" s="15" t="s">
-        <v>186</v>
+      <c r="B158" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D158" s="16">
+        <v>43309</v>
+      </c>
+      <c r="E158" s="20">
+        <v>2018</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D158" s="42">
-        <v>43309</v>
-      </c>
-      <c r="E158" s="28">
-        <v>2018</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D159" s="43"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D160" s="43"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="16"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="44"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="16"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="15">
+      <c r="A162" s="19">
         <v>57</v>
       </c>
-      <c r="B162" s="15" t="s">
-        <v>144</v>
+      <c r="B162" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="C162" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" s="16">
+        <v>43330</v>
+      </c>
+      <c r="E162" s="23">
+        <v>2018</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D163" s="17"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="37"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="42">
-        <v>43330</v>
-      </c>
-      <c r="E162" s="16">
-        <v>2018</v>
-      </c>
-      <c r="F162" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D163" s="43"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="25"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D164" s="43"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="15" t="s">
-        <v>104</v>
+      <c r="D164" s="17"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="B165" s="15"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D165" s="44"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="15"/>
+        <v>142</v>
+      </c>
+      <c r="D165" s="18"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>58</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D166" s="5">
         <v>43361</v>
@@ -5586,117 +5676,117 @@
       <c r="E166" s="4">
         <v>2018</v>
       </c>
-      <c r="F166" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
+      <c r="F166" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="15">
+      <c r="A167" s="19">
         <v>59</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" s="16">
+        <v>43370</v>
+      </c>
+      <c r="E167" s="20">
+        <v>2018</v>
+      </c>
+      <c r="F167" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" s="17"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D169" s="18"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="23">
+        <v>60</v>
+      </c>
+      <c r="B170" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D167" s="42">
-        <v>43370</v>
-      </c>
-      <c r="E167" s="28">
+      <c r="D170" s="16">
+        <v>43400</v>
+      </c>
+      <c r="E170" s="20">
         <v>2018</v>
       </c>
-      <c r="F167" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D168" s="43"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D169" s="44"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="16">
-        <v>60</v>
-      </c>
-      <c r="B170" s="16" t="s">
+      <c r="F170" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D170" s="42">
-        <v>43400</v>
-      </c>
-      <c r="E170" s="28">
-        <v>2018</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D171" s="43"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
       <c r="C172" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="44"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>61</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>29</v>
@@ -5707,122 +5797,122 @@
       <c r="E173" s="4">
         <v>2018</v>
       </c>
-      <c r="F173" s="15" t="s">
+      <c r="F173" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="15"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="15">
+      <c r="A174" s="19">
         <v>62</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D174" s="16">
+        <v>43415</v>
+      </c>
+      <c r="E174" s="23">
+        <v>2018</v>
+      </c>
+      <c r="F174" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D174" s="42">
-        <v>43415</v>
-      </c>
-      <c r="E174" s="16">
-        <v>2018</v>
-      </c>
-      <c r="F174" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
-      <c r="B175" s="18"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="25"/>
       <c r="C175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="43"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
+      <c r="A176" s="19"/>
       <c r="B176" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D176" s="44"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="15">
+      <c r="A177" s="19">
         <v>63</v>
       </c>
-      <c r="B177" s="16" t="s">
-        <v>196</v>
+      <c r="B177" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="C177" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D177" s="16">
+        <v>43420</v>
+      </c>
+      <c r="E177" s="20">
+        <v>2018</v>
+      </c>
+      <c r="F177" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="19"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D178" s="17"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="19"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D177" s="42">
-        <v>43420</v>
-      </c>
-      <c r="E177" s="28">
-        <v>2018</v>
-      </c>
-      <c r="F177" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D178" s="43"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D179" s="44"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>64</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D180" s="13">
         <v>43441</v>
@@ -5830,30 +5920,330 @@
       <c r="E180" s="12">
         <v>2018</v>
       </c>
-      <c r="F180" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
+      <c r="F180" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="19">
+        <v>65</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D181" s="39">
+        <v>43461</v>
+      </c>
+      <c r="E181" s="19">
+        <v>2018</v>
+      </c>
+      <c r="F181" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D182" s="39"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="19">
+        <v>66</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D183" s="39">
+        <v>43814</v>
+      </c>
+      <c r="E183" s="19">
+        <v>2019</v>
+      </c>
+      <c r="F183" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="19"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D184" s="39"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="264">
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="D162:D165"/>
+  <mergeCells count="276">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="F181:I182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:I184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="F177:I179"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="F174:I176"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="F170:I172"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="F167:I169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E165"/>
     <mergeCell ref="F180:I180"/>
     <mergeCell ref="E177:E179"/>
     <mergeCell ref="E174:E176"/>
@@ -5878,234 +6268,18 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D108:D110"/>
     <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E123:E135"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F167:I169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="F177:I179"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="F174:I176"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="F170:I172"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D162:D165"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="210">
   <si>
     <t>Banda</t>
   </si>
@@ -648,6 +648,12 @@
   </si>
   <si>
     <t>Motorhead (CANCELADO)</t>
+  </si>
+  <si>
+    <t>Saxon</t>
+  </si>
+  <si>
+    <t>Vivo Rio</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,25 +826,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -850,25 +859,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -883,37 +919,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183:A184"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,16 +1248,16 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="47"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="10" t="s">
         <v>112</v>
       </c>
@@ -1263,27 +1275,27 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="47">
         <v>39424</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="41">
         <v>2007</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="8">
         <v>2007</v>
       </c>
@@ -1293,7 +1305,7 @@
       </c>
       <c r="L2" s="8">
         <f>SUM(K2:K51)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
@@ -1311,17 +1323,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1346,28 +1358,28 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="28">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="28" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="47">
         <v>41034</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="20">
         <v>2012</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1392,17 +1404,17 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1443,12 +1455,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1489,12 +1501,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1519,27 +1531,27 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="28">
         <v>5</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="28" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="47">
         <v>41468</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="20">
         <v>2013</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1564,17 +1576,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
@@ -1599,23 +1611,23 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="7">
         <v>2019</v>
       </c>
       <c r="K10" s="7">
         <f>COUNTIF(E2:E1000,"2019")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
@@ -1634,27 +1646,27 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="47">
         <v>41536</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="20">
         <v>2013</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1674,17 +1686,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1704,17 +1716,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1734,17 +1746,17 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1764,17 +1776,17 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1794,27 +1806,27 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="28">
         <v>7</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="47">
         <v>41560</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="20">
         <v>2013</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1834,17 +1846,17 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1879,12 +1891,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1920,12 +1932,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1961,12 +1973,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2002,12 +2014,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2018,32 +2030,37 @@
         <f>COUNTIF(C2:C1051,"Ghost B.C.")</f>
         <v>2</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" s="16">
+        <f>COUNTIF(F185:F1050,"Vivo Rio")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="47">
         <v>41893</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="20">
         <v>2014</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -2058,17 +2075,17 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2083,17 +2100,17 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2123,12 +2140,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2143,28 +2160,28 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="47">
         <v>41917</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="20">
         <v>2014</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2179,17 +2196,17 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2204,27 +2221,27 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
+      <c r="A28" s="28">
         <v>15</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="47">
         <v>42029</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="20">
         <v>2015</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2239,17 +2256,17 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2264,17 +2281,17 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2304,12 +2321,12 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2324,28 +2341,28 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="47">
         <v>42119</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="20">
         <v>2015</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2360,17 +2377,17 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2385,17 +2402,17 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2425,12 +2442,12 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2445,28 +2462,28 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="41">
+      <c r="A36" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="28" t="s">
         <v>161</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="47">
         <v>42203</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="20">
         <v>2015</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2481,17 +2498,17 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2506,27 +2523,27 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="41">
+      <c r="A38" s="28">
         <v>20</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="47">
         <v>42266</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="20">
         <v>2015</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2541,17 +2558,17 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="7" t="s">
         <v>116</v>
       </c>
@@ -2568,27 +2585,27 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="41">
+      <c r="A40" s="28">
         <v>21</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="47">
         <v>42271</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="20">
         <v>2015</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2603,17 +2620,17 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2628,17 +2645,17 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2653,27 +2670,27 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="41">
+      <c r="A43" s="28">
         <v>22</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="47">
         <v>42272</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="20">
         <v>2015</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2688,17 +2705,17 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2713,17 +2730,17 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2738,17 +2755,17 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="10" t="s">
         <v>70</v>
       </c>
@@ -2765,27 +2782,27 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="41">
+      <c r="A47" s="28">
         <v>23</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="31">
         <v>42308</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="28">
         <v>2015</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="7" t="s">
         <v>101</v>
       </c>
@@ -2802,15 +2819,15 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="7" t="s">
         <v>106</v>
       </c>
@@ -2827,28 +2844,28 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="41">
+      <c r="A49" s="28">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="47">
         <v>42321</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="44">
         <v>2015</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="F49" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -2863,17 +2880,17 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -2903,12 +2920,12 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -2941,12 +2958,12 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="7" t="s">
         <v>101</v>
       </c>
@@ -2963,28 +2980,28 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="41">
+      <c r="A53" s="28">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="47">
         <v>42393</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="44">
         <v>2016</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="7" t="s">
         <v>52</v>
       </c>
@@ -3001,15 +3018,15 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="7" t="s">
         <v>58</v>
       </c>
@@ -3026,15 +3043,15 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="7" t="s">
         <v>53</v>
       </c>
@@ -3051,15 +3068,15 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="7" t="s">
         <v>54</v>
       </c>
@@ -3076,17 +3093,17 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="7" t="s">
         <v>55</v>
       </c>
@@ -3103,15 +3120,15 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="7" t="s">
         <v>56</v>
       </c>
@@ -3128,15 +3145,15 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="7" t="s">
         <v>57</v>
       </c>
@@ -3153,15 +3170,15 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="7" t="s">
         <v>59</v>
       </c>
@@ -3178,28 +3195,28 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="41">
+      <c r="A61" s="28">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="29" t="s">
         <v>162</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="47">
         <v>42397</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="44">
         <v>2016</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -3214,17 +3231,17 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -3239,27 +3256,27 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="41">
+      <c r="A63" s="28">
         <v>29</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="29" t="s">
         <v>163</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="47">
         <v>42446</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="44">
         <v>2016</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3274,17 +3291,17 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -3299,27 +3316,27 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="41">
+      <c r="A65" s="28">
         <v>30</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="29" t="s">
         <v>164</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="47">
         <v>42467</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65" s="44">
         <v>2016</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -3334,17 +3351,17 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -3374,12 +3391,12 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -3394,28 +3411,28 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="41">
+      <c r="A68" s="28">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="38">
         <v>42574</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="44">
         <v>2016</v>
       </c>
-      <c r="F68" s="41" t="s">
+      <c r="F68" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -3430,17 +3447,17 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3455,17 +3472,17 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -3480,27 +3497,27 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="41">
+      <c r="A71" s="28">
         <v>33</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="23">
         <v>42588</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="29">
         <v>2016</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
       <c r="J71" s="10" t="s">
         <v>70</v>
       </c>
@@ -3517,15 +3534,15 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="7" t="s">
         <v>58</v>
       </c>
@@ -3542,35 +3559,40 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
       <c r="J73" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+      <c r="M73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N73" s="16">
+        <f>COUNTIF(C185:C1075,"Saxon")</f>
+        <v>1</v>
+      </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
       <c r="J74" s="7" t="s">
         <v>54</v>
       </c>
@@ -3582,15 +3604,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
       <c r="J75" s="7" t="s">
         <v>77</v>
       </c>
@@ -3602,15 +3624,15 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
       <c r="J76" s="7" t="s">
         <v>78</v>
       </c>
@@ -3622,15 +3644,15 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
       <c r="J77" s="7" t="s">
         <v>57</v>
       </c>
@@ -3642,15 +3664,15 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
       <c r="J78" s="7" t="s">
         <v>79</v>
       </c>
@@ -3662,15 +3684,15 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
       <c r="J79" s="7" t="s">
         <v>105</v>
       </c>
@@ -3682,15 +3704,15 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
       <c r="J80" s="6" t="s">
         <v>80</v>
       </c>
@@ -3702,28 +3724,28 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="41">
+      <c r="A81" s="28">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="39">
+      <c r="D81" s="23">
         <v>42589</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="29">
         <v>2016</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
       <c r="J81" s="10" t="s">
         <v>70</v>
       </c>
@@ -3735,15 +3757,15 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
       <c r="J82" s="7" t="s">
         <v>52</v>
       </c>
@@ -3755,15 +3777,15 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
       <c r="J83" s="7" t="s">
         <v>81</v>
       </c>
@@ -3775,15 +3797,15 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
       <c r="J84" s="7" t="s">
         <v>53</v>
       </c>
@@ -3795,15 +3817,15 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
       <c r="J85" s="7" t="s">
         <v>54</v>
       </c>
@@ -3815,15 +3837,15 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
       <c r="J86" s="7" t="s">
         <v>87</v>
       </c>
@@ -3835,15 +3857,15 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
       <c r="J87" s="7" t="s">
         <v>78</v>
       </c>
@@ -3855,15 +3877,15 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
       <c r="J88" s="7" t="s">
         <v>57</v>
       </c>
@@ -3875,15 +3897,15 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
       <c r="J89" s="7" t="s">
         <v>82</v>
       </c>
@@ -3895,15 +3917,15 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
       <c r="J90" s="6" t="s">
         <v>83</v>
       </c>
@@ -3915,15 +3937,15 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
       <c r="J91" s="6" t="s">
         <v>84</v>
       </c>
@@ -3935,15 +3957,15 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
       <c r="J92" s="6" t="s">
         <v>86</v>
       </c>
@@ -3955,15 +3977,15 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
       <c r="J93" s="6" t="s">
         <v>85</v>
       </c>
@@ -3975,15 +3997,15 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
       <c r="J94" s="6" t="s">
         <v>88</v>
       </c>
@@ -3995,15 +4017,15 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
       <c r="J95" s="6" t="s">
         <v>89</v>
       </c>
@@ -4015,28 +4037,28 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="19">
+      <c r="A96" s="22">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="34" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D96" s="39">
+      <c r="D96" s="23">
         <v>42622</v>
       </c>
-      <c r="E96" s="34">
+      <c r="E96" s="44">
         <v>2016</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
       <c r="J96" s="3"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -4046,17 +4068,17 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="34"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
       <c r="J97" s="3"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -4066,28 +4088,28 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="19">
+      <c r="A98" s="22">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="39">
+      <c r="D98" s="23">
         <v>42629</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E98" s="24">
         <v>2016</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F98" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
       <c r="J98" s="3"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -4097,17 +4119,17 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
       <c r="J99" s="10" t="s">
         <v>70</v>
       </c>
@@ -4119,28 +4141,28 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="19">
+      <c r="A100" s="22">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="39">
+      <c r="D100" s="23">
         <v>42637</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="24">
         <v>2016</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
       <c r="J100" s="3" t="s">
         <v>101</v>
       </c>
@@ -4152,17 +4174,17 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
       <c r="J101" s="3" t="s">
         <v>102</v>
       </c>
@@ -4174,28 +4196,28 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="19">
+      <c r="A102" s="22">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="39">
+      <c r="D102" s="23">
         <v>42643</v>
       </c>
-      <c r="E102" s="23">
+      <c r="E102" s="24">
         <v>2016</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
       <c r="J102" s="3"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -4205,17 +4227,17 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
       <c r="J103" s="3"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -4225,17 +4247,17 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="39"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
       <c r="J104" s="3"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -4245,28 +4267,28 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="19">
+      <c r="A105" s="22">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="39">
+      <c r="D105" s="23">
         <v>42672</v>
       </c>
-      <c r="E105" s="40">
+      <c r="E105" s="27">
         <v>2016</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F105" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
       <c r="J105" s="10" t="s">
         <v>70</v>
       </c>
@@ -4278,15 +4300,15 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
       <c r="J106" s="7" t="s">
         <v>101</v>
       </c>
@@ -4298,15 +4320,15 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
       <c r="J107" s="7" t="s">
         <v>106</v>
       </c>
@@ -4318,27 +4340,27 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="19">
+      <c r="A108" s="22">
         <v>40</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D108" s="38">
         <v>42673</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E108" s="35">
         <v>2016</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
       <c r="J108" s="10" t="s">
         <v>70</v>
       </c>
@@ -4350,15 +4372,15 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
       <c r="J109" s="7" t="s">
         <v>101</v>
       </c>
@@ -4370,17 +4392,17 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
       <c r="J110" s="7" t="s">
         <v>109</v>
       </c>
@@ -4392,28 +4414,28 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="19">
+      <c r="A111" s="22">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D111" s="38">
         <v>42679</v>
       </c>
-      <c r="E111" s="20">
+      <c r="E111" s="35">
         <v>2016</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="F111" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
       <c r="J111" s="10" t="s">
         <v>70</v>
       </c>
@@ -4425,17 +4447,17 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
       <c r="J112" s="7" t="s">
         <v>101</v>
       </c>
@@ -4447,28 +4469,28 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="19">
+      <c r="A113" s="22">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="16">
+      <c r="D113" s="38">
         <v>42680</v>
       </c>
-      <c r="E113" s="20">
+      <c r="E113" s="35">
         <v>2016</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
       <c r="J113" s="10" t="s">
         <v>70</v>
       </c>
@@ -4480,17 +4502,17 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
       <c r="J114" s="7" t="s">
         <v>101</v>
       </c>
@@ -4518,12 +4540,12 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="19" t="s">
+      <c r="F115" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
       <c r="J115" s="3"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -4533,27 +4555,27 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="19">
+      <c r="A116" s="22">
         <v>44</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="16">
+      <c r="D116" s="38">
         <v>42706</v>
       </c>
-      <c r="E116" s="20">
+      <c r="E116" s="35">
         <v>2016</v>
       </c>
-      <c r="F116" s="19" t="s">
+      <c r="F116" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
       <c r="J116" s="10" t="s">
         <v>70</v>
       </c>
@@ -4565,17 +4587,17 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="38" t="s">
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
       <c r="J117" s="7" t="s">
         <v>101</v>
       </c>
@@ -4587,15 +4609,15 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
       <c r="J118" s="6" t="s">
         <v>118</v>
       </c>
@@ -4607,27 +4629,27 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="19">
+      <c r="A119" s="22">
         <v>45</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="23">
         <v>42718</v>
       </c>
-      <c r="E119" s="40">
+      <c r="E119" s="27">
         <v>2016</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="F119" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
       <c r="J119" s="10" t="s">
         <v>70</v>
       </c>
@@ -4639,15 +4661,15 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
       <c r="J120" s="7" t="s">
         <v>101</v>
       </c>
@@ -4659,27 +4681,27 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="19">
+      <c r="A121" s="22">
         <v>46</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="22" t="s">
         <v>167</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="38">
         <v>42852</v>
       </c>
-      <c r="E121" s="20">
+      <c r="E121" s="35">
         <v>2017</v>
       </c>
-      <c r="F121" s="19" t="s">
+      <c r="F121" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
       <c r="J121" s="10" t="s">
         <v>70</v>
       </c>
@@ -4691,17 +4713,17 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
       <c r="J122" s="7" t="s">
         <v>101</v>
       </c>
@@ -4713,27 +4735,27 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="19">
+      <c r="A123" s="22">
         <v>47</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="22" t="s">
         <v>123</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="38">
         <v>42868</v>
       </c>
-      <c r="E123" s="20">
+      <c r="E123" s="35">
         <v>2017</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
       <c r="J123" s="10" t="s">
         <v>70</v>
       </c>
@@ -4745,17 +4767,17 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19" t="s">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
       <c r="J124" s="8" t="s">
         <v>101</v>
       </c>
@@ -4767,15 +4789,15 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
       <c r="J125" s="8" t="s">
         <v>102</v>
       </c>
@@ -4787,17 +4809,17 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="17"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
       <c r="J126" s="8" t="s">
         <v>133</v>
       </c>
@@ -4809,17 +4831,17 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
       <c r="J127" s="8" t="s">
         <v>53</v>
       </c>
@@ -4831,17 +4853,17 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
       <c r="J128" s="8" t="s">
         <v>134</v>
       </c>
@@ -4853,17 +4875,17 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
       <c r="J129" s="8" t="s">
         <v>54</v>
       </c>
@@ -4875,17 +4897,17 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
       <c r="J130" s="8" t="s">
         <v>169</v>
       </c>
@@ -4897,17 +4919,17 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="40" t="s">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
       <c r="J131" s="8" t="s">
         <v>57</v>
       </c>
@@ -4919,15 +4941,15 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
       <c r="J132" s="8" t="s">
         <v>84</v>
       </c>
@@ -4939,17 +4961,17 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="40" t="s">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="17"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
       <c r="J133" s="8" t="s">
         <v>135</v>
       </c>
@@ -4961,15 +4983,15 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
       <c r="J134" s="8" t="s">
         <v>136</v>
       </c>
@@ -4981,17 +5003,17 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
       <c r="J135" s="8" t="s">
         <v>137</v>
       </c>
@@ -5003,27 +5025,27 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="19">
+      <c r="A136" s="22">
         <v>48</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="22" t="s">
         <v>138</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="16">
+      <c r="D136" s="38">
         <v>42910</v>
       </c>
-      <c r="E136" s="20">
+      <c r="E136" s="35">
         <v>2017</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -5033,17 +5055,17 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="17"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -5053,17 +5075,17 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="22"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -5073,27 +5095,27 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="19">
+      <c r="A139" s="22">
         <v>49</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D139" s="16">
+      <c r="D139" s="38">
         <v>42931</v>
       </c>
-      <c r="E139" s="20">
+      <c r="E139" s="35">
         <v>2017</v>
       </c>
-      <c r="F139" s="19" t="s">
+      <c r="F139" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -5103,17 +5125,17 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="19"/>
-      <c r="B140" s="19"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D140" s="17"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5123,17 +5145,17 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="22"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5143,27 +5165,27 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="19">
+      <c r="A142" s="22">
         <v>50</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D142" s="16">
+      <c r="D142" s="38">
         <v>43001</v>
       </c>
-      <c r="E142" s="20">
+      <c r="E142" s="35">
         <v>2017</v>
       </c>
-      <c r="F142" s="19" t="s">
+      <c r="F142" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
       <c r="J142" s="10" t="s">
         <v>70</v>
       </c>
@@ -5175,18 +5197,18 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="17"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="31" t="s">
+      <c r="D143" s="40"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="20" t="s">
         <v>148</v>
       </c>
       <c r="K143" s="3"/>
@@ -5197,18 +5219,18 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="19"/>
-      <c r="B144" s="19"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="32"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
+      <c r="J144" s="21"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5217,27 +5239,27 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="19">
+      <c r="A145" s="22">
         <v>51</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B145" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="16">
+      <c r="D145" s="38">
         <v>43002</v>
       </c>
-      <c r="E145" s="20">
+      <c r="E145" s="35">
         <v>2017</v>
       </c>
-      <c r="F145" s="19" t="s">
+      <c r="F145" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5247,17 +5269,17 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D146" s="17"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5267,17 +5289,17 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -5287,27 +5309,27 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="41">
+      <c r="A148" s="28">
         <v>52</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="40" t="s">
+      <c r="C148" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D148" s="39">
+      <c r="D148" s="23">
         <v>43036</v>
       </c>
-      <c r="E148" s="40">
+      <c r="E148" s="27">
         <v>2017</v>
       </c>
-      <c r="F148" s="19" t="s">
+      <c r="F148" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="22"/>
       <c r="J148" s="10" t="s">
         <v>70</v>
       </c>
@@ -5319,15 +5341,15 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="40"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
       <c r="J149" s="3" t="s">
         <v>84</v>
       </c>
@@ -5339,15 +5361,15 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="41"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="40"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="22"/>
       <c r="J150" s="3" t="s">
         <v>85</v>
       </c>
@@ -5359,15 +5381,15 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="40"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
       <c r="J151" s="3" t="s">
         <v>151</v>
       </c>
@@ -5379,15 +5401,15 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="40"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
       <c r="J152" s="3" t="s">
         <v>152</v>
       </c>
@@ -5414,12 +5436,12 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="19" t="s">
+      <c r="F153" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="22"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5429,27 +5451,27 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="19">
+      <c r="A154" s="22">
         <v>54</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B154" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D154" s="16">
+      <c r="D154" s="38">
         <v>43156</v>
       </c>
-      <c r="E154" s="20">
+      <c r="E154" s="35">
         <v>2018</v>
       </c>
-      <c r="F154" s="19" t="s">
+      <c r="F154" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
       <c r="J154" s="8"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5459,17 +5481,17 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="37"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
       <c r="J155" s="1"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5479,17 +5501,17 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="22"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5514,12 +5536,12 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="19" t="s">
+      <c r="F157" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="22"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5529,136 +5551,136 @@
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="19">
+      <c r="A158" s="22">
         <v>56</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="22" t="s">
         <v>184</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D158" s="16">
+      <c r="D158" s="38">
         <v>43309</v>
       </c>
-      <c r="E158" s="20">
+      <c r="E158" s="35">
         <v>2018</v>
       </c>
-      <c r="F158" s="19" t="s">
+      <c r="F158" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="22"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="22"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D160" s="17"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="23"/>
-      <c r="B161" s="23"/>
+      <c r="A161" s="24"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="19">
+      <c r="A162" s="22">
         <v>57</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="22" t="s">
         <v>142</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D162" s="38">
         <v>43330</v>
       </c>
-      <c r="E162" s="23">
+      <c r="E162" s="24">
         <v>2018</v>
       </c>
-      <c r="F162" s="19" t="s">
+      <c r="F162" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="37" t="s">
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="22"/>
+      <c r="J162" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="19"/>
-      <c r="B163" s="19"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D163" s="17"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="37"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="22"/>
+      <c r="J163" s="32"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="19"/>
-      <c r="B164" s="19"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D164" s="17"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19" t="s">
+      <c r="D164" s="40"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="22"/>
+      <c r="J164" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="19"/>
-      <c r="B165" s="19"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D165" s="18"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
@@ -5676,110 +5698,110 @@
       <c r="E166" s="4">
         <v>2018</v>
       </c>
-      <c r="F166" s="19" t="s">
+      <c r="F166" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="22"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="19">
+      <c r="A167" s="22">
         <v>59</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="22" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D167" s="16">
+      <c r="D167" s="38">
         <v>43370</v>
       </c>
-      <c r="E167" s="20">
+      <c r="E167" s="35">
         <v>2018</v>
       </c>
-      <c r="F167" s="19" t="s">
+      <c r="F167" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="22"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
-      <c r="B168" s="19"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D168" s="17"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
+      <c r="I168" s="22"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="19"/>
-      <c r="B169" s="19"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D169" s="18"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="22"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="23">
+      <c r="A170" s="24">
         <v>60</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B170" s="24" t="s">
         <v>181</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D170" s="16">
+      <c r="D170" s="38">
         <v>43400</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="35">
         <v>2018</v>
       </c>
-      <c r="F170" s="19" t="s">
+      <c r="F170" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
       <c r="C171" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D171" s="17"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="22"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="18"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="22"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
@@ -5797,112 +5819,112 @@
       <c r="E173" s="4">
         <v>2018</v>
       </c>
-      <c r="F173" s="19" t="s">
+      <c r="F173" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="22"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="19">
+      <c r="A174" s="22">
         <v>62</v>
       </c>
-      <c r="B174" s="23" t="s">
+      <c r="B174" s="24" t="s">
         <v>188</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D174" s="16">
+      <c r="D174" s="38">
         <v>43415</v>
       </c>
-      <c r="E174" s="23">
+      <c r="E174" s="24">
         <v>2018</v>
       </c>
-      <c r="F174" s="19" t="s">
+      <c r="F174" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="22"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="19"/>
-      <c r="B175" s="25"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="26"/>
       <c r="C175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="22"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="19"/>
+      <c r="A176" s="22"/>
       <c r="B176" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D176" s="18"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="22"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="19">
+      <c r="A177" s="22">
         <v>63</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="24" t="s">
         <v>194</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D177" s="16">
+      <c r="D177" s="38">
         <v>43420</v>
       </c>
-      <c r="E177" s="20">
+      <c r="E177" s="35">
         <v>2018</v>
       </c>
-      <c r="F177" s="19" t="s">
+      <c r="F177" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="19"/>
-      <c r="B178" s="24"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="25"/>
       <c r="C178" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D178" s="17"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="37"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="22"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="19"/>
-      <c r="B179" s="25"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="26"/>
       <c r="C179" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D179" s="18"/>
-      <c r="E179" s="22"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22"/>
+      <c r="I179" s="22"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
@@ -5920,90 +5942,366 @@
       <c r="E180" s="12">
         <v>2018</v>
       </c>
-      <c r="F180" s="19" t="s">
+      <c r="F180" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="22"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="19">
+      <c r="A181" s="22">
         <v>65</v>
       </c>
-      <c r="B181" s="19" t="s">
+      <c r="B181" s="22" t="s">
         <v>197</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="39">
+      <c r="D181" s="23">
         <v>43461</v>
       </c>
-      <c r="E181" s="19">
+      <c r="E181" s="22">
         <v>2018</v>
       </c>
-      <c r="F181" s="19" t="s">
+      <c r="F181" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="22"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="19"/>
-      <c r="B182" s="19"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D182" s="39"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="19">
+      <c r="A183" s="22">
         <v>66</v>
       </c>
-      <c r="B183" s="19" t="s">
+      <c r="B183" s="22" t="s">
         <v>200</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D183" s="39">
+      <c r="D183" s="23">
         <v>43814</v>
       </c>
-      <c r="E183" s="19">
+      <c r="E183" s="22">
         <v>2019</v>
       </c>
-      <c r="F183" s="19" t="s">
+      <c r="F183" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="22"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="19"/>
-      <c r="B184" s="19"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D184" s="39"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="22"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="16">
+        <v>67</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D185" s="17">
+        <v>43539</v>
+      </c>
+      <c r="E185" s="16">
+        <v>2019</v>
+      </c>
+      <c r="F185" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="22"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="276">
+  <mergeCells count="277">
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F167:I169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J143:J144"/>
     <mergeCell ref="A181:A182"/>
@@ -6028,258 +6326,6 @@
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="F121:I122"/>
     <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="F167:I169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E123:E135"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="D162:D165"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfogo_000\Documents\GitHub\Shows que já fui\Shows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbaf7\Documents\GitHub\Shows\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373159D-C752-4803-B7EF-AD0ADDF1CA3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="212">
   <si>
     <t>Banda</t>
   </si>
@@ -654,12 +655,18 @@
   </si>
   <si>
     <t>Vivo Rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 anos do CD Raimundos</t>
+  </si>
+  <si>
+    <t>Dona Cislene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,22 +839,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -859,52 +875,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -919,13 +908,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,11 +1220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186:I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,16 +1261,16 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="10" t="s">
         <v>112</v>
       </c>
@@ -1275,27 +1288,27 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="30">
         <v>39424</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="33">
         <v>2007</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="8">
         <v>2007</v>
       </c>
@@ -1305,7 +1318,7 @@
       </c>
       <c r="L2" s="8">
         <f>SUM(K2:K51)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
@@ -1323,17 +1336,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1358,28 +1371,28 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="45">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="45" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="30">
         <v>41034</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="35">
         <v>2012</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1400,21 +1413,21 @@
       </c>
       <c r="P4" s="3">
         <f>COUNTIF(F2:F1050,"Circo Voador")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1455,12 +1468,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1501,12 +1514,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1531,27 +1544,27 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="45">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="45" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="30">
         <v>41468</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="35">
         <v>2013</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1576,17 +1589,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
@@ -1611,23 +1624,23 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="7">
         <v>2019</v>
       </c>
       <c r="K10" s="7">
         <f>COUNTIF(E2:E1000,"2019")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
@@ -1646,27 +1659,27 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="45">
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="30">
         <v>41536</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="35">
         <v>2013</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1675,7 +1688,7 @@
       </c>
       <c r="N11" s="7">
         <f>COUNTIF(C1:C1016,"Ratos de Porão")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>50</v>
@@ -1686,17 +1699,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1716,17 +1729,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1746,17 +1759,17 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1776,17 +1789,17 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1806,27 +1819,27 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="45">
         <v>7</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="30">
         <v>41560</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="35">
         <v>2013</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1846,17 +1859,17 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1891,12 +1904,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1932,12 +1945,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1973,12 +1986,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2014,12 +2027,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2039,28 +2052,28 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="30">
         <v>41893</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="35">
         <v>2014</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -2075,17 +2088,17 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2100,17 +2113,17 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2140,12 +2153,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2160,28 +2173,28 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="30">
         <v>41917</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="35">
         <v>2014</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2196,17 +2209,17 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2221,27 +2234,27 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="45">
         <v>15</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="30">
         <v>42029</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="35">
         <v>2015</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2256,17 +2269,17 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2281,17 +2294,17 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2321,12 +2334,12 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2341,28 +2354,28 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="47" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="30">
         <v>42119</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="35">
         <v>2015</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2377,17 +2390,17 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2402,17 +2415,17 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2442,12 +2455,12 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2462,28 +2475,28 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="45">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="45" t="s">
         <v>161</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="30">
         <v>42203</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="35">
         <v>2015</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2492,23 +2505,23 @@
       </c>
       <c r="N36" s="7">
         <f>COUNTIF(C2:C1081,"Raimundos")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2523,27 +2536,27 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="45">
         <v>20</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="30">
         <v>42266</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="35">
         <v>2015</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2558,17 +2571,17 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="7" t="s">
         <v>116</v>
       </c>
@@ -2585,27 +2598,27 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+      <c r="A40" s="45">
         <v>21</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="30">
         <v>42271</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="35">
         <v>2015</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2620,17 +2633,17 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2645,17 +2658,17 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2670,27 +2683,27 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="A43" s="45">
         <v>22</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="30">
         <v>42272</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="35">
         <v>2015</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2705,17 +2718,17 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2730,17 +2743,17 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2755,17 +2768,17 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="10" t="s">
         <v>70</v>
       </c>
@@ -2782,27 +2795,27 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="A47" s="45">
         <v>23</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="48">
         <v>42308</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="45">
         <v>2015</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="7" t="s">
         <v>101</v>
       </c>
@@ -2819,15 +2832,15 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="7" t="s">
         <v>106</v>
       </c>
@@ -2844,28 +2857,28 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
+      <c r="A49" s="45">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="30">
         <v>42321</v>
       </c>
-      <c r="E49" s="44">
+      <c r="E49" s="38">
         <v>2015</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -2880,17 +2893,17 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -2920,12 +2933,12 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="10" t="s">
         <v>70</v>
       </c>
@@ -2958,12 +2971,12 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="7" t="s">
         <v>101</v>
       </c>
@@ -2980,28 +2993,28 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+      <c r="A53" s="45">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="30">
         <v>42393</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="38">
         <v>2016</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="7" t="s">
         <v>52</v>
       </c>
@@ -3018,15 +3031,15 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
       <c r="J54" s="7" t="s">
         <v>58</v>
       </c>
@@ -3043,15 +3056,15 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="7" t="s">
         <v>53</v>
       </c>
@@ -3068,15 +3081,15 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
       <c r="J56" s="7" t="s">
         <v>54</v>
       </c>
@@ -3093,17 +3106,17 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29" t="s">
+      <c r="A57" s="45"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
       <c r="J57" s="7" t="s">
         <v>55</v>
       </c>
@@ -3120,15 +3133,15 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
       <c r="J58" s="7" t="s">
         <v>56</v>
       </c>
@@ -3145,15 +3158,15 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
       <c r="J59" s="7" t="s">
         <v>57</v>
       </c>
@@ -3170,15 +3183,15 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
       <c r="J60" s="7" t="s">
         <v>59</v>
       </c>
@@ -3195,28 +3208,28 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="28">
+      <c r="A61" s="45">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="42" t="s">
         <v>162</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="30">
         <v>42397</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E61" s="38">
         <v>2016</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -3231,17 +3244,17 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="48"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -3256,27 +3269,27 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="28">
+      <c r="A63" s="45">
         <v>29</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="42" t="s">
         <v>163</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="47">
+      <c r="D63" s="30">
         <v>42446</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="38">
         <v>2016</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3291,17 +3304,17 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="48"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -3316,27 +3329,27 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="28">
+      <c r="A65" s="45">
         <v>30</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="42" t="s">
         <v>164</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="47">
+      <c r="D65" s="30">
         <v>42467</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="38">
         <v>2016</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -3351,17 +3364,17 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -3391,12 +3404,12 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -3411,28 +3424,28 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="28">
+      <c r="A68" s="45">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="21">
         <v>42574</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="38">
         <v>2016</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -3447,17 +3460,17 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3472,17 +3485,17 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -3497,27 +3510,27 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="28">
+      <c r="A71" s="45">
         <v>33</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="43">
         <v>42588</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="42">
         <v>2016</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
       <c r="J71" s="10" t="s">
         <v>70</v>
       </c>
@@ -3534,15 +3547,15 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
       <c r="J72" s="7" t="s">
         <v>58</v>
       </c>
@@ -3559,15 +3572,15 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
       <c r="J73" s="7" t="s">
         <v>53</v>
       </c>
@@ -3584,15 +3597,15 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
       <c r="J74" s="7" t="s">
         <v>54</v>
       </c>
@@ -3604,15 +3617,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
       <c r="J75" s="7" t="s">
         <v>77</v>
       </c>
@@ -3624,15 +3637,15 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
       <c r="J76" s="7" t="s">
         <v>78</v>
       </c>
@@ -3644,15 +3657,15 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
       <c r="J77" s="7" t="s">
         <v>57</v>
       </c>
@@ -3664,15 +3677,15 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
       <c r="J78" s="7" t="s">
         <v>79</v>
       </c>
@@ -3684,15 +3697,15 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
       <c r="J79" s="7" t="s">
         <v>105</v>
       </c>
@@ -3704,15 +3717,15 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
       <c r="J80" s="6" t="s">
         <v>80</v>
       </c>
@@ -3724,28 +3737,28 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="28">
+      <c r="A81" s="45">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D81" s="43">
         <v>42589</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="42">
         <v>2016</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
       <c r="J81" s="10" t="s">
         <v>70</v>
       </c>
@@ -3757,15 +3770,15 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
       <c r="J82" s="7" t="s">
         <v>52</v>
       </c>
@@ -3777,15 +3790,15 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
       <c r="J83" s="7" t="s">
         <v>81</v>
       </c>
@@ -3797,15 +3810,15 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
       <c r="J84" s="7" t="s">
         <v>53</v>
       </c>
@@ -3817,15 +3830,15 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
       <c r="J85" s="7" t="s">
         <v>54</v>
       </c>
@@ -3837,15 +3850,15 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
       <c r="J86" s="7" t="s">
         <v>87</v>
       </c>
@@ -3857,15 +3870,15 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
       <c r="J87" s="7" t="s">
         <v>78</v>
       </c>
@@ -3877,15 +3890,15 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
       <c r="J88" s="7" t="s">
         <v>57</v>
       </c>
@@ -3897,15 +3910,15 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
       <c r="J89" s="7" t="s">
         <v>82</v>
       </c>
@@ -3917,15 +3930,15 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
       <c r="J90" s="6" t="s">
         <v>83</v>
       </c>
@@ -3937,15 +3950,15 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
       <c r="J91" s="6" t="s">
         <v>84</v>
       </c>
@@ -3957,15 +3970,15 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
       <c r="J92" s="6" t="s">
         <v>86</v>
       </c>
@@ -3977,15 +3990,15 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
       <c r="J93" s="6" t="s">
         <v>85</v>
       </c>
@@ -3997,15 +4010,15 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
       <c r="J94" s="6" t="s">
         <v>88</v>
       </c>
@@ -4017,15 +4030,15 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
       <c r="J95" s="6" t="s">
         <v>89</v>
       </c>
@@ -4037,28 +4050,28 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="22">
+      <c r="A96" s="20">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="46" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="43">
         <v>42622</v>
       </c>
-      <c r="E96" s="44">
+      <c r="E96" s="38">
         <v>2016</v>
       </c>
-      <c r="F96" s="22" t="s">
+      <c r="F96" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
       <c r="J96" s="3"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -4068,17 +4081,17 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="34"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
       <c r="J97" s="3"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -4088,28 +4101,28 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="22">
+      <c r="A98" s="20">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="43">
         <v>42629</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="27">
         <v>2016</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="F98" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
       <c r="J98" s="3"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -4119,17 +4132,17 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
       <c r="J99" s="10" t="s">
         <v>70</v>
       </c>
@@ -4141,28 +4154,28 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="22">
+      <c r="A100" s="20">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="43">
         <v>42637</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="27">
         <v>2016</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
       <c r="J100" s="3" t="s">
         <v>101</v>
       </c>
@@ -4174,17 +4187,17 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
       <c r="J101" s="3" t="s">
         <v>102</v>
       </c>
@@ -4196,28 +4209,28 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="22">
+      <c r="A102" s="20">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="43">
         <v>42643</v>
       </c>
-      <c r="E102" s="24">
+      <c r="E102" s="27">
         <v>2016</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
       <c r="J102" s="3"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -4227,17 +4240,17 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
       <c r="J103" s="3"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -4247,17 +4260,17 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
       <c r="J104" s="3"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -4267,28 +4280,28 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="22">
+      <c r="A105" s="20">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="43">
         <v>42672</v>
       </c>
-      <c r="E105" s="27">
+      <c r="E105" s="44">
         <v>2016</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
       <c r="J105" s="10" t="s">
         <v>70</v>
       </c>
@@ -4300,15 +4313,15 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
       <c r="J106" s="7" t="s">
         <v>101</v>
       </c>
@@ -4320,15 +4333,15 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
       <c r="J107" s="7" t="s">
         <v>106</v>
       </c>
@@ -4340,27 +4353,27 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="22">
+      <c r="A108" s="20">
         <v>40</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="38">
+      <c r="D108" s="21">
         <v>42673</v>
       </c>
-      <c r="E108" s="35">
+      <c r="E108" s="24">
         <v>2016</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
       <c r="J108" s="10" t="s">
         <v>70</v>
       </c>
@@ -4372,15 +4385,15 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
       <c r="J109" s="7" t="s">
         <v>101</v>
       </c>
@@ -4392,17 +4405,17 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
       <c r="J110" s="7" t="s">
         <v>109</v>
       </c>
@@ -4414,28 +4427,28 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="22">
+      <c r="A111" s="20">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D111" s="38">
+      <c r="D111" s="21">
         <v>42679</v>
       </c>
-      <c r="E111" s="35">
+      <c r="E111" s="24">
         <v>2016</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="F111" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
       <c r="J111" s="10" t="s">
         <v>70</v>
       </c>
@@ -4447,17 +4460,17 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="39"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
       <c r="J112" s="7" t="s">
         <v>101</v>
       </c>
@@ -4469,28 +4482,28 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="22">
+      <c r="A113" s="20">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="38">
+      <c r="D113" s="21">
         <v>42680</v>
       </c>
-      <c r="E113" s="35">
+      <c r="E113" s="24">
         <v>2016</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
       <c r="J113" s="10" t="s">
         <v>70</v>
       </c>
@@ -4502,17 +4515,17 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="39"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
       <c r="J114" s="7" t="s">
         <v>101</v>
       </c>
@@ -4540,12 +4553,12 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="F115" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
       <c r="J115" s="3"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -4555,27 +4568,27 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="22">
+      <c r="A116" s="20">
         <v>44</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="20" t="s">
         <v>122</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="38">
+      <c r="D116" s="21">
         <v>42706</v>
       </c>
-      <c r="E116" s="35">
+      <c r="E116" s="24">
         <v>2016</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
       <c r="J116" s="10" t="s">
         <v>70</v>
       </c>
@@ -4587,17 +4600,17 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="29" t="s">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
       <c r="J117" s="7" t="s">
         <v>101</v>
       </c>
@@ -4609,15 +4622,15 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
       <c r="J118" s="6" t="s">
         <v>118</v>
       </c>
@@ -4629,27 +4642,27 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="22">
+      <c r="A119" s="20">
         <v>45</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="23">
+      <c r="D119" s="43">
         <v>42718</v>
       </c>
-      <c r="E119" s="27">
+      <c r="E119" s="44">
         <v>2016</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="F119" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
       <c r="J119" s="10" t="s">
         <v>70</v>
       </c>
@@ -4661,15 +4674,15 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
       <c r="J120" s="7" t="s">
         <v>101</v>
       </c>
@@ -4681,27 +4694,27 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="22">
+      <c r="A121" s="20">
         <v>46</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="20" t="s">
         <v>167</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D121" s="38">
+      <c r="D121" s="21">
         <v>42852</v>
       </c>
-      <c r="E121" s="35">
+      <c r="E121" s="24">
         <v>2017</v>
       </c>
-      <c r="F121" s="22" t="s">
+      <c r="F121" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
       <c r="J121" s="10" t="s">
         <v>70</v>
       </c>
@@ -4713,17 +4726,17 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="39"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
       <c r="J122" s="7" t="s">
         <v>101</v>
       </c>
@@ -4735,27 +4748,27 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="22">
+      <c r="A123" s="20">
         <v>47</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D123" s="38">
+      <c r="D123" s="21">
         <v>42868</v>
       </c>
-      <c r="E123" s="35">
+      <c r="E123" s="24">
         <v>2017</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F123" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
       <c r="J123" s="10" t="s">
         <v>70</v>
       </c>
@@ -4767,17 +4780,17 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22" t="s">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D124" s="40"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
       <c r="J124" s="8" t="s">
         <v>101</v>
       </c>
@@ -4789,15 +4802,15 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="22"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
       <c r="J125" s="8" t="s">
         <v>102</v>
       </c>
@@ -4809,17 +4822,17 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
       <c r="J126" s="8" t="s">
         <v>133</v>
       </c>
@@ -4831,17 +4844,17 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="40"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
       <c r="J127" s="8" t="s">
         <v>53</v>
       </c>
@@ -4853,17 +4866,17 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
       <c r="J128" s="8" t="s">
         <v>134</v>
       </c>
@@ -4875,17 +4888,17 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="40"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
       <c r="J129" s="8" t="s">
         <v>54</v>
       </c>
@@ -4897,17 +4910,17 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
       <c r="J130" s="8" t="s">
         <v>169</v>
       </c>
@@ -4919,17 +4932,17 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="27" t="s">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D131" s="40"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
       <c r="J131" s="8" t="s">
         <v>57</v>
       </c>
@@ -4941,15 +4954,15 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
       <c r="J132" s="8" t="s">
         <v>84</v>
       </c>
@@ -4961,17 +4974,17 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="27" t="s">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
       <c r="J133" s="8" t="s">
         <v>135</v>
       </c>
@@ -4983,15 +4996,15 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="40"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
       <c r="J134" s="8" t="s">
         <v>136</v>
       </c>
@@ -5003,17 +5016,17 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
       <c r="J135" s="8" t="s">
         <v>137</v>
       </c>
@@ -5025,27 +5038,27 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="22">
+      <c r="A136" s="20">
         <v>48</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="38">
+      <c r="D136" s="21">
         <v>42910</v>
       </c>
-      <c r="E136" s="35">
+      <c r="E136" s="24">
         <v>2017</v>
       </c>
-      <c r="F136" s="22" t="s">
+      <c r="F136" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="22"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -5055,17 +5068,17 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="22"/>
-      <c r="B137" s="22"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="40"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -5075,17 +5088,17 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="39"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="22"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -5095,27 +5108,27 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="22">
+      <c r="A139" s="20">
         <v>49</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D139" s="38">
+      <c r="D139" s="21">
         <v>42931</v>
       </c>
-      <c r="E139" s="35">
+      <c r="E139" s="24">
         <v>2017</v>
       </c>
-      <c r="F139" s="22" t="s">
+      <c r="F139" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -5125,17 +5138,17 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D140" s="40"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="22"/>
-      <c r="I140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5145,17 +5158,17 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="22"/>
-      <c r="I141" s="22"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5165,27 +5178,27 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="22">
+      <c r="A142" s="20">
         <v>50</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D142" s="38">
+      <c r="D142" s="21">
         <v>43001</v>
       </c>
-      <c r="E142" s="35">
+      <c r="E142" s="24">
         <v>2017</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="F142" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G142" s="22"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="22"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
       <c r="J142" s="10" t="s">
         <v>70</v>
       </c>
@@ -5197,18 +5210,18 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="22"/>
-      <c r="B143" s="22"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="40"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="20" t="s">
+      <c r="D143" s="22"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="35" t="s">
         <v>148</v>
       </c>
       <c r="K143" s="3"/>
@@ -5219,18 +5232,18 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="22"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="22"/>
-      <c r="I144" s="22"/>
-      <c r="J144" s="21"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="36"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5239,27 +5252,27 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="22">
+      <c r="A145" s="20">
         <v>51</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="38">
+      <c r="D145" s="21">
         <v>43002</v>
       </c>
-      <c r="E145" s="35">
+      <c r="E145" s="24">
         <v>2017</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="F145" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5269,17 +5282,17 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D146" s="40"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5289,17 +5302,17 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="22"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -5309,27 +5322,27 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="28">
+      <c r="A148" s="45">
         <v>52</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D148" s="23">
+      <c r="D148" s="43">
         <v>43036</v>
       </c>
-      <c r="E148" s="27">
+      <c r="E148" s="44">
         <v>2017</v>
       </c>
-      <c r="F148" s="22" t="s">
+      <c r="F148" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
       <c r="J148" s="10" t="s">
         <v>70</v>
       </c>
@@ -5341,15 +5354,15 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
       <c r="J149" s="3" t="s">
         <v>84</v>
       </c>
@@ -5361,15 +5374,15 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="22"/>
+      <c r="A150" s="45"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
       <c r="J150" s="3" t="s">
         <v>85</v>
       </c>
@@ -5381,15 +5394,15 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="28"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22"/>
+      <c r="A151" s="45"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
       <c r="J151" s="3" t="s">
         <v>151</v>
       </c>
@@ -5401,15 +5414,15 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22"/>
-      <c r="I152" s="22"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
       <c r="J152" s="3" t="s">
         <v>152</v>
       </c>
@@ -5436,12 +5449,12 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="F153" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G153" s="22"/>
-      <c r="H153" s="22"/>
-      <c r="I153" s="22"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5451,27 +5464,27 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="22">
+      <c r="A154" s="20">
         <v>54</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D154" s="38">
+      <c r="D154" s="21">
         <v>43156</v>
       </c>
-      <c r="E154" s="35">
+      <c r="E154" s="24">
         <v>2018</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="F154" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="22"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="22"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
       <c r="J154" s="8"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5481,17 +5494,17 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="22"/>
-      <c r="B155" s="22"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D155" s="40"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
       <c r="J155" s="1"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5501,17 +5514,17 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="22"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="39"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
-      <c r="I156" s="22"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5536,12 +5549,12 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="22" t="s">
+      <c r="F157" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
-      <c r="I157" s="22"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5551,136 +5564,136 @@
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="22">
+      <c r="A158" s="20">
         <v>56</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="20" t="s">
         <v>184</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D158" s="38">
+      <c r="D158" s="21">
         <v>43309</v>
       </c>
-      <c r="E158" s="35">
+      <c r="E158" s="24">
         <v>2018</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="F158" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="22"/>
-      <c r="H158" s="22"/>
-      <c r="I158" s="22"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="22"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D159" s="40"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="22"/>
-      <c r="I159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D160" s="40"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="24"/>
-      <c r="B161" s="24"/>
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
       <c r="C161" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="22">
+      <c r="A162" s="20">
         <v>57</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D162" s="38">
+      <c r="D162" s="21">
         <v>43330</v>
       </c>
-      <c r="E162" s="24">
+      <c r="E162" s="27">
         <v>2018</v>
       </c>
-      <c r="F162" s="22" t="s">
+      <c r="F162" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G162" s="22"/>
-      <c r="H162" s="22"/>
-      <c r="I162" s="22"/>
-      <c r="J162" s="32" t="s">
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D163" s="40"/>
-      <c r="E163" s="25"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="22"/>
-      <c r="I163" s="22"/>
-      <c r="J163" s="32"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D164" s="40"/>
-      <c r="E164" s="25"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="22"/>
-      <c r="I164" s="22"/>
-      <c r="J164" s="22" t="s">
+      <c r="D164" s="22"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="22"/>
-      <c r="B165" s="22"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D165" s="39"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
-      <c r="J165" s="22"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
@@ -5698,110 +5711,110 @@
       <c r="E166" s="4">
         <v>2018</v>
       </c>
-      <c r="F166" s="22" t="s">
+      <c r="F166" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G166" s="22"/>
-      <c r="H166" s="22"/>
-      <c r="I166" s="22"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="22">
+      <c r="A167" s="20">
         <v>59</v>
       </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="20" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D167" s="38">
+      <c r="D167" s="21">
         <v>43370</v>
       </c>
-      <c r="E167" s="35">
+      <c r="E167" s="24">
         <v>2018</v>
       </c>
-      <c r="F167" s="22" t="s">
+      <c r="F167" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G167" s="22"/>
-      <c r="H167" s="22"/>
-      <c r="I167" s="22"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="22"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D168" s="40"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="22"/>
-      <c r="I168" s="22"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="22"/>
-      <c r="B169" s="22"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D169" s="39"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
-      <c r="H169" s="22"/>
-      <c r="I169" s="22"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="24">
+      <c r="A170" s="27">
         <v>60</v>
       </c>
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="27" t="s">
         <v>181</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D170" s="38">
+      <c r="D170" s="21">
         <v>43400</v>
       </c>
-      <c r="E170" s="35">
+      <c r="E170" s="24">
         <v>2018</v>
       </c>
-      <c r="F170" s="22" t="s">
+      <c r="F170" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G170" s="22"/>
-      <c r="H170" s="22"/>
-      <c r="I170" s="22"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="28"/>
       <c r="C171" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D171" s="40"/>
-      <c r="E171" s="37"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="22"/>
-      <c r="H171" s="22"/>
-      <c r="I171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="29"/>
       <c r="C172" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="39"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="22"/>
-      <c r="H172" s="22"/>
-      <c r="I172" s="22"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
@@ -5819,112 +5832,112 @@
       <c r="E173" s="4">
         <v>2018</v>
       </c>
-      <c r="F173" s="22" t="s">
+      <c r="F173" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G173" s="22"/>
-      <c r="H173" s="22"/>
-      <c r="I173" s="22"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="22">
+      <c r="A174" s="20">
         <v>62</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D174" s="38">
+      <c r="D174" s="21">
         <v>43415</v>
       </c>
-      <c r="E174" s="24">
+      <c r="E174" s="27">
         <v>2018</v>
       </c>
-      <c r="F174" s="22" t="s">
+      <c r="F174" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G174" s="22"/>
-      <c r="H174" s="22"/>
-      <c r="I174" s="22"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="22"/>
-      <c r="B175" s="26"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="29"/>
       <c r="C175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="40"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="22"/>
-      <c r="H175" s="22"/>
-      <c r="I175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="22"/>
+      <c r="A176" s="20"/>
       <c r="B176" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D176" s="39"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="22"/>
-      <c r="I176" s="22"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="22">
+      <c r="A177" s="20">
         <v>63</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="27" t="s">
         <v>194</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D177" s="38">
+      <c r="D177" s="21">
         <v>43420</v>
       </c>
-      <c r="E177" s="35">
+      <c r="E177" s="24">
         <v>2018</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="F177" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="22"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="22"/>
-      <c r="B178" s="25"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D178" s="40"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="22"/>
-      <c r="I178" s="22"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="22"/>
-      <c r="B179" s="26"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D179" s="39"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="22"/>
-      <c r="I179" s="22"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
@@ -5942,84 +5955,84 @@
       <c r="E180" s="12">
         <v>2018</v>
       </c>
-      <c r="F180" s="22" t="s">
+      <c r="F180" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G180" s="22"/>
-      <c r="H180" s="22"/>
-      <c r="I180" s="22"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="22">
+      <c r="A181" s="20">
         <v>65</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="20" t="s">
         <v>197</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="23">
+      <c r="D181" s="43">
         <v>43461</v>
       </c>
-      <c r="E181" s="22">
+      <c r="E181" s="20">
         <v>2018</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="F181" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G181" s="22"/>
-      <c r="H181" s="22"/>
-      <c r="I181" s="22"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D182" s="23"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="22"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="22">
+      <c r="A183" s="20">
         <v>66</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="20" t="s">
         <v>200</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D183" s="23">
+      <c r="D183" s="43">
         <v>43814</v>
       </c>
-      <c r="E183" s="22">
+      <c r="E183" s="20">
         <v>2019</v>
       </c>
-      <c r="F183" s="22" t="s">
+      <c r="F183" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G183" s="22"/>
-      <c r="H183" s="22"/>
-      <c r="I183" s="22"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D184" s="23"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="22"/>
-      <c r="I184" s="22"/>
+      <c r="D184" s="43"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
@@ -6037,65 +6050,280 @@
       <c r="E185" s="16">
         <v>2019</v>
       </c>
-      <c r="F185" s="22" t="s">
+      <c r="F185" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="G185" s="22"/>
-      <c r="H185" s="22"/>
-      <c r="I185" s="22"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="20">
+        <v>68</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D186" s="19">
+        <v>43568</v>
+      </c>
+      <c r="E186" s="20">
+        <v>2019</v>
+      </c>
+      <c r="F186" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D187" s="19">
+        <v>43568</v>
+      </c>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="19">
+        <v>43568</v>
+      </c>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="277">
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E123:E135"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="E162:E165"/>
+  <mergeCells count="281">
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="F186:I188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="F181:I182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:I184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="F177:I179"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="F174:I176"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="F170:I172"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="D167:D169"/>
     <mergeCell ref="B170:B172"/>
     <mergeCell ref="F173:I173"/>
     <mergeCell ref="E2:E3"/>
@@ -6120,212 +6348,54 @@
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="E174:E176"/>
     <mergeCell ref="F167:I169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="F181:I182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:I184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="F177:I179"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="F174:I176"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="F170:I172"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="A145:A147"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbaf7\Documents\GitHub\Shows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373159D-C752-4803-B7EF-AD0ADDF1CA3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C248FC-338D-4BC1-AA7A-0AE1B4F3C7EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="178">
   <si>
     <t>Banda</t>
   </si>
@@ -183,30 +183,6 @@
     <t>Carioca Club</t>
   </si>
   <si>
-    <t>Beatriz Contelli (Bea)</t>
-  </si>
-  <si>
-    <t>Giovanne Souza (Gious)</t>
-  </si>
-  <si>
-    <t>Lucas Monte (Lusca)</t>
-  </si>
-  <si>
-    <t>Italo Aldebarã</t>
-  </si>
-  <si>
-    <t>Biel Lereno</t>
-  </si>
-  <si>
-    <t>Ronaldo</t>
-  </si>
-  <si>
-    <t>Bruna Tímaco (Bruninha)</t>
-  </si>
-  <si>
-    <t>Fabiano(Conheci lá)</t>
-  </si>
-  <si>
     <t>Anthrax</t>
   </si>
   <si>
@@ -237,9 +213,6 @@
     <t>Paralamas do Sucesso</t>
   </si>
   <si>
-    <t>Companhias</t>
-  </si>
-  <si>
     <t>Cólera</t>
   </si>
   <si>
@@ -258,45 +231,6 @@
     <t>Espaço das Américas</t>
   </si>
   <si>
-    <t>Ana Carolinne (Indiazin)</t>
-  </si>
-  <si>
-    <t>Filipe (Vidal)</t>
-  </si>
-  <si>
-    <t>Gleidson</t>
-  </si>
-  <si>
-    <t>Larissa Finardi</t>
-  </si>
-  <si>
-    <t>Matheus Damasceno</t>
-  </si>
-  <si>
-    <t>Rafael Dias (Mano Brown)</t>
-  </si>
-  <si>
-    <t>Deborah Soares (Dieiso)</t>
-  </si>
-  <si>
-    <t>Guilherme Araujo (Tio Mork)</t>
-  </si>
-  <si>
-    <t>Fabiano</t>
-  </si>
-  <si>
-    <t>Ramon (Fila)</t>
-  </si>
-  <si>
-    <t>Elias (Fila)</t>
-  </si>
-  <si>
-    <t>Ágata (Menstruallica)</t>
-  </si>
-  <si>
-    <t>Alana</t>
-  </si>
-  <si>
     <t>Bandas da noite</t>
   </si>
   <si>
@@ -330,33 +264,18 @@
     <t>Teatro Odisseia</t>
   </si>
   <si>
-    <t>Yasmin</t>
-  </si>
-  <si>
-    <t>Vidal</t>
-  </si>
-  <si>
     <t>Enterro</t>
   </si>
   <si>
     <t>McRad</t>
   </si>
   <si>
-    <t>Gabriela Martinez (Gabi)</t>
-  </si>
-  <si>
-    <t>Natália (Dollynho)</t>
-  </si>
-  <si>
     <t>Sabaton</t>
   </si>
   <si>
     <t>Armahda</t>
   </si>
   <si>
-    <t>Wander</t>
-  </si>
-  <si>
     <t>Hell in Rio</t>
   </si>
   <si>
@@ -381,9 +300,6 @@
     <t>Rival Sons</t>
   </si>
   <si>
-    <t>Palheta (Tony Iommi)</t>
-  </si>
-  <si>
     <t>Return to Roots</t>
   </si>
   <si>
@@ -426,21 +342,6 @@
     <t>Linkin Park</t>
   </si>
   <si>
-    <t>Indiazin</t>
-  </si>
-  <si>
-    <t>Kayque</t>
-  </si>
-  <si>
-    <t>Pedroka</t>
-  </si>
-  <si>
-    <t>Gustavo Foloni</t>
-  </si>
-  <si>
-    <t>Mariana Abacherly</t>
-  </si>
-  <si>
     <t>Lamb of God</t>
   </si>
   <si>
@@ -471,21 +372,12 @@
     <t>Red Hot Chili Peppers</t>
   </si>
   <si>
-    <t>Fernanda Sousa (Nandinha)</t>
-  </si>
-  <si>
     <t>Helloween Pumpkins United</t>
   </si>
   <si>
     <t>Helloween</t>
   </si>
   <si>
-    <t xml:space="preserve">Yasmin </t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Green Day Revolution Radio Tour</t>
   </si>
   <si>
@@ -534,9 +426,6 @@
     <t>Ozzy Osbourne No More Tours 2</t>
   </si>
   <si>
-    <t>Milena</t>
-  </si>
-  <si>
     <t>Justabeli</t>
   </si>
   <si>
@@ -661,6 +550,15 @@
   </si>
   <si>
     <t>Dona Cislene</t>
+  </si>
+  <si>
+    <t>Living Colour: Vivid 30th Anniversary</t>
+  </si>
+  <si>
+    <t>Living Colour</t>
+  </si>
+  <si>
+    <t>Palheta do Iommi</t>
   </si>
 </sst>
 </file>
@@ -786,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,22 +746,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -875,25 +779,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,37 +839,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P188"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186:I188"/>
+      <selection activeCell="J204" sqref="J204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,13 +1160,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>5</v>
@@ -1261,54 +1174,54 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" s="51"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="25"/>
       <c r="L1" s="10" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="52">
         <v>39424</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="46">
         <v>2007</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8">
         <v>2007</v>
       </c>
@@ -1318,7 +1231,7 @@
       </c>
       <c r="L2" s="8">
         <f>SUM(K2:K51)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
@@ -1336,17 +1249,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1371,28 +1284,28 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="33">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>159</v>
+      <c r="B4" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="52">
         <v>41034</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="26">
         <v>2012</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1413,21 +1326,21 @@
       </c>
       <c r="P4" s="3">
         <f>COUNTIF(F2:F1050,"Circo Voador")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1457,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
@@ -1468,12 +1381,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1514,12 +1427,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1529,7 +1442,7 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
         <f>COUNTIF(C1:C1008,"Claustrofobia")</f>
@@ -1544,27 +1457,27 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>91</v>
+      <c r="B8" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="52">
         <v>41468</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="26">
         <v>2013</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1589,17 +1502,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
@@ -1624,23 +1537,23 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="7">
         <v>2019</v>
       </c>
       <c r="K10" s="7">
         <f>COUNTIF(E2:E1000,"2019")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
@@ -1651,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P10" s="3">
         <f>COUNTIF(F2:F1050,"Imperator")</f>
@@ -1659,27 +1572,27 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="33">
         <v>6</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>113</v>
+      <c r="B11" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="52">
         <v>41536</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="26">
         <v>2013</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1699,29 +1612,29 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="N12" s="3">
         <f>COUNTIF(C1:C998, "Test")</f>
         <v>2</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="P12" s="3">
         <f>COUNTIF(F2:F1050,"Carioca Club")</f>
@@ -1729,17 +1642,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1751,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P13" s="3">
         <f>COUNTIF(F2:F1050,"HSBC Arena")</f>
@@ -1759,29 +1672,29 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N14" s="7">
         <f>COUNTIF(C2:C1017,"Anthrax")</f>
         <v>1</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="P14" s="3">
         <f>COUNTIF(F2:F1030, "Casa de Cultura Chico Science")</f>
@@ -1789,29 +1702,29 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="N15" s="3">
         <f>COUNTIF(C2:C967,"Armahda")</f>
         <v>1</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="P15" s="3">
         <f>COUNTIF(F2:F1030, "Espaço das Américas")</f>
@@ -1819,27 +1732,27 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="33">
         <v>7</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="52">
         <v>41560</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="26">
         <v>2013</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1851,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="P16" s="3">
         <f>COUNTIF(F2:F1030,"Teatro Odisseia")</f>
@@ -1859,29 +1772,29 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N17" s="3">
         <f>COUNTIF(C2:C1025,"Cólera")</f>
         <v>1</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="P17" s="3">
         <f>COUNTIF(F2:F1030,"Terreirão do Samba")</f>
@@ -1904,12 +1817,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1921,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="P18" s="3">
         <f>COUNTIF(F2:F1050,"Jeunesse Arena")</f>
@@ -1945,12 +1858,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1962,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="P19" s="3">
         <f>COUNTIF(F2:F1050,"Km de Vantagens Hall")</f>
@@ -1986,12 +1899,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2003,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="P20" s="3">
         <f>COUNTIF(F123:F1050,"Autódromo de Interlagos")</f>
@@ -2027,12 +1940,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2044,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="P21" s="16">
         <f>COUNTIF(F185:F1050,"Vivo Rio")</f>
@@ -2052,33 +1965,33 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="33">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="52">
         <v>41893</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="26">
         <v>2014</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="N22" s="3">
         <f>COUNTIF(C2:C1007, "H2O")</f>
@@ -2088,17 +2001,17 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+        <v>72</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2113,22 +2026,22 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N24" s="7">
         <f>COUNTIF(C2:C1026,"IRON MAIDEN")</f>
@@ -2153,12 +2066,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2173,28 +2086,28 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="33">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="52">
         <v>41917</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="26">
         <v>2014</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2209,17 +2122,17 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2234,27 +2147,27 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="33">
         <v>15</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="52">
         <v>42029</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="26">
         <v>2015</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2269,17 +2182,17 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2294,17 +2207,17 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2323,10 +2236,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D31" s="9">
         <v>42035</v>
@@ -2334,17 +2247,17 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="N31" s="7">
         <f>COUNTIF(C2:C1048,"Motorhead(CANCELADO)")</f>
@@ -2354,28 +2267,28 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
+      <c r="A32" s="33">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>114</v>
+      <c r="B32" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="52">
         <v>42119</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="26">
         <v>2015</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2390,17 +2303,17 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2415,17 +2328,17 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2455,17 +2368,17 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N35" s="3">
         <f>COUNTIF(C2:C1022, "Project46")</f>
@@ -2475,28 +2388,28 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+      <c r="A36" s="33">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>161</v>
+      <c r="B36" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="52">
         <v>42203</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="26">
         <v>2015</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2511,22 +2424,22 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="N37" s="3">
         <f>COUNTIF(C2:C1030,"Sabaton")</f>
@@ -2536,27 +2449,27 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="45">
+      <c r="A38" s="33">
         <v>20</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>113</v>
+      <c r="B38" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="52">
         <v>42266</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="26">
         <v>2015</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2571,24 +2484,24 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="N39" s="3">
         <f>COUNTIF(C2:C990,"Sinaya")</f>
@@ -2598,27 +2511,27 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="45">
+      <c r="A40" s="33">
         <v>21</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>113</v>
+      <c r="B40" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="52">
         <v>42271</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="26">
         <v>2015</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2633,22 +2546,22 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
+        <v>122</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N41" s="7">
         <f>COUNTIF(C2:C1041,"Soulfly")</f>
@@ -2658,22 +2571,22 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="N42" s="3">
         <f>COUNTIF(C2:C992,"Suicidal Tendencies")</f>
@@ -2683,27 +2596,27 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="45">
+      <c r="A43" s="33">
         <v>22</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>113</v>
+      <c r="B43" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="52">
         <v>42272</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="26">
         <v>2015</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2718,22 +2631,22 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N44" s="7">
         <f>COUNTIF(C2:C1043,"Titãs")</f>
@@ -2743,22 +2656,22 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="7"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="N45" s="3">
         <f>COUNTIF(C2:C1029,"Violator")</f>
@@ -2768,20 +2681,18 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
@@ -2795,34 +2706,32 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="45">
+      <c r="A47" s="33">
         <v>23</v>
       </c>
-      <c r="B47" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="45" t="s">
+      <c r="B47" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="36">
         <v>42308</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="33">
         <v>2015</v>
       </c>
-      <c r="F47" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="F47" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N47" s="7">
         <f>COUNTIF(C2:C1090,"Paralamas do Sucesso")</f>
@@ -2832,18 +2741,16 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
@@ -2857,29 +2764,29 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="45">
+      <c r="A49" s="33">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="52">
         <v>42321</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="49">
         <v>2015</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="7"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7" t="s">
@@ -2893,18 +2800,18 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="7"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="22"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
@@ -2933,19 +2840,17 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F51" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="N51" s="3">
         <f>COUNTIF(C2:C1075,"Heaven Shall Burn")</f>
@@ -2960,7 +2865,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>39</v>
@@ -2971,19 +2876,17 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="3" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="N52" s="3">
         <f>COUNTIF(C2:C1075,"Carcass")</f>
@@ -2993,35 +2896,33 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="45">
+      <c r="A53" s="33">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="30">
+      <c r="B53" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="52">
         <v>42393</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="49">
         <v>2016</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="3" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="N53" s="3">
         <f>COUNTIF(C2:C1075,"Lamb of God")</f>
@@ -3031,22 +2932,20 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="N54" s="3">
         <f>COUNTIF(C2:C1075,"The Offspring")</f>
@@ -3056,22 +2955,20 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="22"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="3" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="N55" s="3">
         <f>COUNTIF(C2:C1075,"Guns N' Roses")</f>
@@ -3081,22 +2978,20 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="22"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="N56" s="3">
         <f>COUNTIF(C2:C1075,"Red Hot Chili Peppers")</f>
@@ -3106,24 +3001,22 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="D57" s="54"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="22"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="3" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="N57" s="3">
         <f>COUNTIF(C2:C1075,"The Who")</f>
@@ -3133,22 +3026,20 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="A58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="22"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="4" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="N58" s="3">
         <f>COUNTIF(C2:C1075,"DFC")</f>
@@ -3158,22 +3049,20 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="22"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="3" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="N59" s="3">
         <f>COUNTIF(C2:C1075,"Inocentes")</f>
@@ -3183,22 +3072,20 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="22"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="N60" s="3">
         <f>COUNTIF(C2:C1075,"Helloween")</f>
@@ -3208,33 +3095,33 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="45">
+      <c r="A61" s="33">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="42" t="s">
-        <v>162</v>
+      <c r="B61" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="30">
+        <v>72</v>
+      </c>
+      <c r="D61" s="52">
         <v>42397</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="49">
         <v>2016</v>
       </c>
-      <c r="F61" s="45" t="s">
+      <c r="F61" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="7"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="22"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="3" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="N61" s="3">
         <f>COUNTIF(C2:C1075,"Green Day")</f>
@@ -3244,22 +3131,22 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="7"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="22"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="4" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="N62" s="3">
         <f>COUNTIF(C2:C1075,"Ego Kill Talent")</f>
@@ -3269,32 +3156,32 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="45">
+      <c r="A63" s="33">
         <v>29</v>
       </c>
-      <c r="B63" s="42" t="s">
-        <v>163</v>
+      <c r="B63" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="30">
+        <v>52</v>
+      </c>
+      <c r="D63" s="52">
         <v>42446</v>
       </c>
-      <c r="E63" s="38">
+      <c r="E63" s="49">
         <v>2016</v>
       </c>
-      <c r="F63" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="7"/>
+      <c r="F63" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="22"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="N63" s="3">
         <f>COUNTIF(C2:C1075,"Queens Of The Stone Age")</f>
@@ -3304,22 +3191,22 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="D64" s="53"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="22"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="3" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="N64" s="3">
         <f>COUNTIF(C2:C1075,"Olho Seco")</f>
@@ -3329,32 +3216,32 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="45">
+      <c r="A65" s="33">
         <v>30</v>
       </c>
-      <c r="B65" s="42" t="s">
-        <v>164</v>
+      <c r="B65" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="30">
+        <v>56</v>
+      </c>
+      <c r="D65" s="52">
         <v>42467</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65" s="49">
         <v>2016</v>
       </c>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="7"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="22"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="3" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="N65" s="3">
         <f>COUNTIF(C2:C1075,"Destruction")</f>
@@ -3364,22 +3251,22 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D66" s="53"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="22"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="4" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="N66" s="3">
         <f>COUNTIF(C2:C1075,"Cervical")</f>
@@ -3393,10 +3280,10 @@
         <v>31</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D67" s="9">
         <v>42560</v>
@@ -3404,17 +3291,17 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="45" t="s">
+      <c r="F67" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="7"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="22"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="4" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="N67" s="3">
         <f>COUNTIF(C2:C1075,"Black Star Riders")</f>
@@ -3424,33 +3311,33 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="45">
+      <c r="A68" s="33">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="43">
         <v>42574</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="49">
         <v>2016</v>
       </c>
-      <c r="F68" s="45" t="s">
+      <c r="F68" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="7"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="22"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="4" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="N68" s="12">
         <f>COUNTIF(C2:C1075,"Finis Africae")</f>
@@ -3460,22 +3347,22 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="42"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D69" s="45"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="22"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="3" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N69" s="3">
         <f>COUNTIF(C181:C1075,"Surra")</f>
@@ -3485,22 +3372,22 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="42"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="7"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="N70" s="3">
         <f>COUNTIF(C182:C1075,"Gangrena Gasosa")</f>
@@ -3510,34 +3397,32 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="45">
+      <c r="A71" s="33">
         <v>33</v>
       </c>
-      <c r="B71" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" s="43">
+      <c r="B71" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="28">
         <v>42588</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="34">
         <v>2016</v>
       </c>
-      <c r="F71" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F71" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="3" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="N71" s="3">
         <f>COUNTIF(C183:C1075,"Stone Temple Pilots")</f>
@@ -3547,22 +3432,20 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="22"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="3" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="N72" s="15">
         <f>COUNTIF(C184:C1075,"Bush")</f>
@@ -3572,22 +3455,20 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="22"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="3" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="N73" s="16">
         <f>COUNTIF(C185:C1075,"Saxon")</f>
@@ -3597,38 +3478,39 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="22"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="M74" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N74" s="3">
+        <f>COUNTIF(C189:C1075,"Living Colour")</f>
+        <v>1</v>
+      </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="3"/>
@@ -3637,18 +3519,16 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A76" s="33"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="22"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="3"/>
@@ -3657,18 +3537,16 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="22"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="3"/>
@@ -3677,18 +3555,16 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="A78" s="33"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="3"/>
@@ -3697,18 +3573,16 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="A79" s="33"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="22"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="3"/>
@@ -3717,18 +3591,16 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="22"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="3"/>
@@ -3737,31 +3609,29 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="45">
+      <c r="A81" s="33">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="42" t="s">
+      <c r="B81" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="43">
+      <c r="D81" s="28">
         <v>42589</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="34">
         <v>2016</v>
       </c>
-      <c r="F81" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F81" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="22"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="3"/>
@@ -3770,18 +3640,16 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="A82" s="33"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="22"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="3"/>
@@ -3790,18 +3658,16 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="A83" s="33"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="22"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="3"/>
@@ -3810,18 +3676,16 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="22"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="3"/>
@@ -3830,18 +3694,16 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="A85" s="33"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="22"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="3"/>
@@ -3850,18 +3712,16 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="22"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="3"/>
@@ -3870,18 +3730,16 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="22"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="3"/>
@@ -3890,18 +3748,16 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="22"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="3"/>
@@ -3910,18 +3766,16 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="22"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="3"/>
@@ -3930,18 +3784,16 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="22"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="3"/>
@@ -3950,18 +3802,16 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="A91" s="33"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="22"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="3"/>
@@ -3970,18 +3820,16 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="22"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="3"/>
@@ -3990,18 +3838,16 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="22"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="3"/>
@@ -4010,18 +3856,16 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="A94" s="33"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="22"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="3"/>
@@ -4030,18 +3874,16 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="A95" s="33"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="22"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="3"/>
@@ -4050,29 +3892,29 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
+      <c r="A96" s="23">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="46" t="s">
-        <v>95</v>
+      <c r="B96" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D96" s="43">
+        <v>71</v>
+      </c>
+      <c r="D96" s="28">
         <v>42622</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96" s="49">
         <v>2016</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="F96" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="3"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="3"/>
@@ -4081,18 +3923,18 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="46"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="20"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="3"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="1"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="3"/>
@@ -4101,29 +3943,29 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
+      <c r="A98" s="23">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>96</v>
+      <c r="B98" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="43">
+      <c r="D98" s="28">
         <v>42629</v>
       </c>
-      <c r="E98" s="27">
+      <c r="E98" s="29">
         <v>2016</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="3"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="1"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="3"/>
@@ -4132,20 +3974,18 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="43"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="10" t="s">
-        <v>70</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="22"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="3"/>
@@ -4154,31 +3994,29 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
+      <c r="A100" s="23">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>99</v>
+      <c r="B100" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="43">
+        <v>76</v>
+      </c>
+      <c r="D100" s="28">
         <v>42637</v>
       </c>
-      <c r="E100" s="27">
+      <c r="E100" s="29">
         <v>2016</v>
       </c>
-      <c r="F100" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="F100" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="3"/>
@@ -4187,20 +4025,18 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="20"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="3"/>
@@ -4209,29 +4045,29 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="20">
+      <c r="A102" s="23">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" s="43">
+        <v>79</v>
+      </c>
+      <c r="D102" s="28">
         <v>42643</v>
       </c>
-      <c r="E102" s="27">
+      <c r="E102" s="29">
         <v>2016</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="3"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="1"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="3"/>
@@ -4240,18 +4076,18 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="43"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="D103" s="28"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="3"/>
@@ -4260,18 +4096,18 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="43"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="3"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="3"/>
@@ -4280,31 +4116,29 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
+      <c r="A105" s="23">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="43">
+      <c r="D105" s="28">
         <v>42672</v>
       </c>
-      <c r="E105" s="44">
+      <c r="E105" s="32">
         <v>2016</v>
       </c>
-      <c r="F105" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F105" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="22"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="3"/>
@@ -4313,18 +4147,16 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="22"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="3"/>
@@ -4333,18 +4165,16 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="22"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="3"/>
@@ -4353,30 +4183,28 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
+      <c r="A108" s="23">
         <v>40</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" s="21">
+      <c r="B108" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="43">
         <v>42673</v>
       </c>
-      <c r="E108" s="24">
+      <c r="E108" s="40">
         <v>2016</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F108" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="22"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="3"/>
@@ -4385,18 +4213,16 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="22"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="3"/>
@@ -4405,20 +4231,18 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D110" s="44"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="22"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="3"/>
@@ -4427,31 +4251,29 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
+      <c r="A111" s="23">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>110</v>
+      <c r="B111" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="21">
+        <v>56</v>
+      </c>
+      <c r="D111" s="43">
         <v>42679</v>
       </c>
-      <c r="E111" s="24">
+      <c r="E111" s="40">
         <v>2016</v>
       </c>
-      <c r="F111" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F111" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="22"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="3"/>
@@ -4460,20 +4282,18 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="D112" s="44"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="22"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="3"/>
@@ -4482,31 +4302,29 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
+      <c r="A113" s="23">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>110</v>
+      <c r="B113" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="43">
         <v>42680</v>
       </c>
-      <c r="E113" s="24">
+      <c r="E113" s="40">
         <v>2016</v>
       </c>
-      <c r="F113" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F113" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="22"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="3"/>
@@ -4515,20 +4333,18 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="D114" s="44"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="22"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="3"/>
@@ -4553,13 +4369,13 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="20" t="s">
+      <c r="F115" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="3"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="3"/>
@@ -4568,29 +4384,29 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
+      <c r="A116" s="23">
         <v>44</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>122</v>
+      <c r="B116" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="21">
+        <v>90</v>
+      </c>
+      <c r="D116" s="43">
         <v>42706</v>
       </c>
-      <c r="E116" s="24">
+      <c r="E116" s="40">
         <v>2016</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F116" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="10" t="s">
-        <v>70</v>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
@@ -4600,20 +4416,18 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="42" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="D117" s="45"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="56"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="3"/>
@@ -4622,18 +4436,16 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="47"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="3"/>
@@ -4642,30 +4454,28 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="20">
+      <c r="A119" s="23">
         <v>45</v>
       </c>
-      <c r="B119" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="42" t="s">
+      <c r="B119" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="43">
+      <c r="D119" s="28">
         <v>42718</v>
       </c>
-      <c r="E119" s="44">
+      <c r="E119" s="32">
         <v>2016</v>
       </c>
-      <c r="F119" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F119" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="22"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="3"/>
@@ -4674,18 +4484,16 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
-      <c r="J120" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="22"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="3"/>
@@ -4694,30 +4502,28 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="20">
+      <c r="A121" s="23">
         <v>46</v>
       </c>
-      <c r="B121" s="20" t="s">
-        <v>167</v>
+      <c r="B121" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" s="21">
+        <v>92</v>
+      </c>
+      <c r="D121" s="43">
         <v>42852</v>
       </c>
-      <c r="E121" s="24">
+      <c r="E121" s="40">
         <v>2017</v>
       </c>
-      <c r="F121" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F121" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="22"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="3"/>
@@ -4726,20 +4532,18 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D122" s="23"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D122" s="44"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="22"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="3"/>
@@ -4748,30 +4552,28 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
+      <c r="A123" s="23">
         <v>47</v>
       </c>
-      <c r="B123" s="20" t="s">
-        <v>123</v>
+      <c r="B123" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D123" s="21">
+        <v>97</v>
+      </c>
+      <c r="D123" s="43">
         <v>42868</v>
       </c>
-      <c r="E123" s="24">
+      <c r="E123" s="40">
         <v>2017</v>
       </c>
-      <c r="F123" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F123" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="22"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="3"/>
@@ -4780,20 +4582,18 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="45"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="22"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="3"/>
@@ -4802,18 +4602,16 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="22"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="3"/>
@@ -4822,20 +4620,18 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="8" t="s">
-        <v>133</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D126" s="45"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="22"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="3"/>
@@ -4844,20 +4640,18 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="D127" s="45"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="22"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="3"/>
@@ -4866,20 +4660,18 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D128" s="22"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="8" t="s">
-        <v>134</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D128" s="45"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="22"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="3"/>
@@ -4888,20 +4680,18 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="D129" s="45"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="22"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="3"/>
@@ -4910,20 +4700,18 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D130" s="22"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="8" t="s">
-        <v>169</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D130" s="45"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="22"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="3"/>
@@ -4932,20 +4720,18 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" s="45"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="22"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="3"/>
@@ -4954,18 +4740,16 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="22"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="3"/>
@@ -4974,20 +4758,18 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D133" s="45"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="22"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="3"/>
@@ -4996,18 +4778,16 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="22"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="3"/>
@@ -5016,20 +4796,18 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D135" s="23"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="8" t="s">
-        <v>137</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D135" s="44"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="22"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="3"/>
@@ -5038,28 +4816,28 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="20">
+      <c r="A136" s="23">
         <v>48</v>
       </c>
-      <c r="B136" s="20" t="s">
-        <v>138</v>
+      <c r="B136" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D136" s="21">
+        <v>106</v>
+      </c>
+      <c r="D136" s="43">
         <v>42910</v>
       </c>
-      <c r="E136" s="24">
+      <c r="E136" s="40">
         <v>2017</v>
       </c>
-      <c r="F136" s="20" t="s">
+      <c r="F136" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="3"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="1"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -5068,18 +4846,18 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D137" s="22"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="D137" s="45"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="1"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -5088,18 +4866,18 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D138" s="23"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="D138" s="44"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="1"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -5108,28 +4886,28 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
+      <c r="A139" s="23">
         <v>49</v>
       </c>
-      <c r="B139" s="20" t="s">
-        <v>141</v>
+      <c r="B139" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D139" s="21">
+        <v>109</v>
+      </c>
+      <c r="D139" s="43">
         <v>42931</v>
       </c>
-      <c r="E139" s="24">
+      <c r="E139" s="40">
         <v>2017</v>
       </c>
-      <c r="F139" s="20" t="s">
+      <c r="F139" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="3"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="1"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -5138,18 +4916,18 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D140" s="22"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D140" s="45"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="1"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -5158,18 +4936,18 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="23"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="3"/>
+      <c r="D141" s="44"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="23"/>
+      <c r="J141" s="1"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -5178,30 +4956,28 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="20">
+      <c r="A142" s="23">
         <v>50</v>
       </c>
-      <c r="B142" s="20" t="s">
-        <v>113</v>
+      <c r="B142" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D142" s="21">
+        <v>58</v>
+      </c>
+      <c r="D142" s="43">
         <v>43001</v>
       </c>
-      <c r="E142" s="24">
+      <c r="E142" s="40">
         <v>2017</v>
       </c>
-      <c r="F142" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F142" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="22"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -5210,20 +4986,18 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D143" s="22"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="35" t="s">
-        <v>148</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D143" s="45"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="46"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -5232,18 +5006,18 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D144" s="23"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="36"/>
+        <v>112</v>
+      </c>
+      <c r="D144" s="44"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="47"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5252,28 +5026,28 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="20">
+      <c r="A145" s="23">
         <v>51</v>
       </c>
-      <c r="B145" s="20" t="s">
-        <v>113</v>
+      <c r="B145" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="21">
+      <c r="D145" s="43">
         <v>43002</v>
       </c>
-      <c r="E145" s="24">
+      <c r="E145" s="40">
         <v>2017</v>
       </c>
-      <c r="F145" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="3"/>
+      <c r="F145" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
+      <c r="J145" s="1"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -5282,18 +5056,18 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D146" s="22"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="D146" s="45"/>
+      <c r="E146" s="42"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="1"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -5302,18 +5076,18 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D147" s="23"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D147" s="44"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="1"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -5322,30 +5096,28 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="45">
+      <c r="A148" s="33">
         <v>52</v>
       </c>
-      <c r="B148" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D148" s="43">
+      <c r="B148" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D148" s="28">
         <v>43036</v>
       </c>
-      <c r="E148" s="44">
+      <c r="E148" s="32">
         <v>2017</v>
       </c>
-      <c r="F148" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F148" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="22"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -5354,18 +5126,16 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="45"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="43"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
-      <c r="J149" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A149" s="33"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="1"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -5374,18 +5144,16 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="45"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A150" s="33"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="1"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -5394,18 +5162,16 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="45"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="43"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-      <c r="J151" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="A151" s="33"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="1"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -5414,18 +5180,16 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="45"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="A152" s="33"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="1"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -5438,10 +5202,10 @@
         <v>53</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D153" s="5">
         <v>43040</v>
@@ -5449,13 +5213,13 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="3"/>
+      <c r="F153" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="1"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -5464,28 +5228,28 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="20">
+      <c r="A154" s="23">
         <v>54</v>
       </c>
-      <c r="B154" s="20" t="s">
-        <v>157</v>
+      <c r="B154" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D154" s="21">
+        <v>120</v>
+      </c>
+      <c r="D154" s="43">
         <v>43156</v>
       </c>
-      <c r="E154" s="24">
+      <c r="E154" s="40">
         <v>2018</v>
       </c>
-      <c r="F154" s="20" t="s">
+      <c r="F154" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="8"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="22"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
@@ -5494,17 +5258,17 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
-      <c r="B155" s="20"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="D155" s="45"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="23"/>
       <c r="J155" s="1"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5514,18 +5278,18 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
-      <c r="B156" s="20"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="23"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="3"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="1"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -5538,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>37</v>
@@ -5549,13 +5313,13 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="3"/>
+      <c r="F157" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="1"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -5564,146 +5328,146 @@
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="20">
+      <c r="A158" s="23">
         <v>56</v>
       </c>
-      <c r="B158" s="20" t="s">
-        <v>184</v>
+      <c r="B158" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D158" s="21">
+        <v>133</v>
+      </c>
+      <c r="D158" s="43">
         <v>43309</v>
       </c>
-      <c r="E158" s="24">
+      <c r="E158" s="40">
         <v>2018</v>
       </c>
-      <c r="F158" s="20" t="s">
+      <c r="F158" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D159" s="22"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
+        <v>134</v>
+      </c>
+      <c r="D159" s="45"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="D160" s="45"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
+      <c r="A161" s="29"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
+      <c r="D161" s="44"/>
+      <c r="E161" s="41"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="20">
+      <c r="A162" s="23">
         <v>57</v>
       </c>
-      <c r="B162" s="20" t="s">
-        <v>142</v>
+      <c r="B162" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D162" s="21">
+        <v>136</v>
+      </c>
+      <c r="D162" s="43">
         <v>43330</v>
       </c>
-      <c r="E162" s="27">
+      <c r="E162" s="29">
         <v>2018</v>
       </c>
-      <c r="F162" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="20"/>
-      <c r="J162" s="41" t="s">
-        <v>70</v>
-      </c>
+      <c r="F162" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="35"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D163" s="22"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="41"/>
+        <v>137</v>
+      </c>
+      <c r="D163" s="45"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="23"/>
+      <c r="J163" s="35"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D164" s="22"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="20" t="s">
-        <v>102</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D164" s="45"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="55"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D165" s="23"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-      <c r="J165" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="D165" s="44"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="55"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>58</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="D166" s="5">
         <v>43361</v>
@@ -5711,117 +5475,122 @@
       <c r="E166" s="4">
         <v>2018</v>
       </c>
-      <c r="F166" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
+      <c r="F166" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
+      <c r="I166" s="23"/>
+      <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="20">
+      <c r="A167" s="23">
         <v>59</v>
       </c>
-      <c r="B167" s="20" t="s">
-        <v>179</v>
+      <c r="B167" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D167" s="21">
+        <v>143</v>
+      </c>
+      <c r="D167" s="43">
         <v>43370</v>
       </c>
-      <c r="E167" s="24">
+      <c r="E167" s="40">
         <v>2018</v>
       </c>
-      <c r="F167" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="20"/>
+      <c r="F167" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
+      <c r="I167" s="23"/>
+      <c r="J167" s="14"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
+      <c r="A168" s="23"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D168" s="22"/>
-      <c r="E168" s="25"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="D168" s="45"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="14"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="23"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D169" s="23"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="D169" s="44"/>
+      <c r="E169" s="41"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="23"/>
+      <c r="I169" s="23"/>
+      <c r="J169" s="14"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="27">
+      <c r="A170" s="29">
         <v>60</v>
       </c>
-      <c r="B170" s="27" t="s">
-        <v>181</v>
+      <c r="B170" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D170" s="21">
+        <v>145</v>
+      </c>
+      <c r="D170" s="43">
         <v>43400</v>
       </c>
-      <c r="E170" s="24">
+      <c r="E170" s="40">
         <v>2018</v>
       </c>
-      <c r="F170" s="20" t="s">
+      <c r="F170" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="20"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
+      <c r="I170" s="23"/>
+      <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
+      <c r="A171" s="30"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D171" s="22"/>
-      <c r="E171" s="25"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="D171" s="45"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
+      <c r="I171" s="23"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
-      <c r="B172" s="29"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="23"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
+      <c r="I172" s="23"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>61</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>29</v>
@@ -5832,122 +5601,122 @@
       <c r="E173" s="4">
         <v>2018</v>
       </c>
-      <c r="F173" s="20" t="s">
+      <c r="F173" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
+      <c r="I173" s="23"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="20">
+      <c r="A174" s="23">
         <v>62</v>
       </c>
-      <c r="B174" s="27" t="s">
-        <v>188</v>
+      <c r="B174" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D174" s="21">
+        <v>152</v>
+      </c>
+      <c r="D174" s="43">
         <v>43415</v>
       </c>
-      <c r="E174" s="27">
+      <c r="E174" s="29">
         <v>2018</v>
       </c>
-      <c r="F174" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
+      <c r="F174" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
+      <c r="I174" s="23"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
-      <c r="B175" s="29"/>
+      <c r="A175" s="23"/>
+      <c r="B175" s="31"/>
       <c r="C175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="22"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
+      <c r="D175" s="45"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
+      <c r="I175" s="23"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D176" s="23"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="23"/>
+      <c r="I176" s="23"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="20">
+      <c r="A177" s="23">
         <v>63</v>
       </c>
-      <c r="B177" s="27" t="s">
-        <v>194</v>
+      <c r="B177" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D177" s="21">
+        <v>154</v>
+      </c>
+      <c r="D177" s="43">
         <v>43420</v>
       </c>
-      <c r="E177" s="24">
+      <c r="E177" s="40">
         <v>2018</v>
       </c>
-      <c r="F177" s="20" t="s">
+      <c r="F177" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
-      <c r="B178" s="28"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D178" s="22"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="D178" s="45"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
-      <c r="B179" s="29"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="31"/>
       <c r="C179" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D179" s="23"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="D179" s="44"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="23"/>
+      <c r="I179" s="23"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>64</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D180" s="13">
         <v>43441</v>
@@ -5955,94 +5724,94 @@
       <c r="E180" s="12">
         <v>2018</v>
       </c>
-      <c r="F180" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
+      <c r="F180" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G180" s="23"/>
+      <c r="H180" s="23"/>
+      <c r="I180" s="23"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="20">
+      <c r="A181" s="23">
         <v>65</v>
       </c>
-      <c r="B181" s="20" t="s">
-        <v>197</v>
+      <c r="B181" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D181" s="43">
+        <v>161</v>
+      </c>
+      <c r="D181" s="28">
         <v>43461</v>
       </c>
-      <c r="E181" s="20">
+      <c r="E181" s="23">
         <v>2018</v>
       </c>
-      <c r="F181" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G181" s="20"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="20"/>
+      <c r="F181" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23"/>
+      <c r="I181" s="23"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-      <c r="B182" s="20"/>
+      <c r="A182" s="23"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D182" s="43"/>
-      <c r="E182" s="20"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
+        <v>162</v>
+      </c>
+      <c r="D182" s="28"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="23"/>
+      <c r="H182" s="23"/>
+      <c r="I182" s="23"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="20">
+      <c r="A183" s="23">
         <v>66</v>
       </c>
-      <c r="B183" s="20" t="s">
-        <v>200</v>
+      <c r="B183" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D183" s="43">
+        <v>164</v>
+      </c>
+      <c r="D183" s="28">
         <v>43814</v>
       </c>
-      <c r="E183" s="20">
+      <c r="E183" s="23">
         <v>2019</v>
       </c>
-      <c r="F183" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
+      <c r="F183" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G183" s="23"/>
+      <c r="H183" s="23"/>
+      <c r="I183" s="23"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
+      <c r="A184" s="23"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D184" s="43"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
+        <v>165</v>
+      </c>
+      <c r="D184" s="28"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>67</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D185" s="17">
         <v>43539</v>
@@ -6050,71 +5819,353 @@
       <c r="E185" s="16">
         <v>2019</v>
       </c>
-      <c r="F185" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
+      <c r="F185" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G185" s="23"/>
+      <c r="H185" s="23"/>
+      <c r="I185" s="23"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="20">
+      <c r="A186" s="23">
         <v>68</v>
       </c>
-      <c r="B186" s="20" t="s">
-        <v>210</v>
+      <c r="B186" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="D186" s="19">
         <v>43568</v>
       </c>
-      <c r="E186" s="20">
+      <c r="E186" s="23">
         <v>2019</v>
       </c>
-      <c r="F186" s="20" t="s">
+      <c r="F186" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="23"/>
+      <c r="I186" s="23"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D187" s="19">
         <v>43568</v>
       </c>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23"/>
+      <c r="I187" s="23"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
-      <c r="B188" s="20"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D188" s="19">
         <v>43568</v>
       </c>
-      <c r="E188" s="20"/>
-      <c r="F188" s="20"/>
-      <c r="G188" s="20"/>
-      <c r="H188" s="20"/>
-      <c r="I188" s="20"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="23"/>
+      <c r="I188" s="23"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="20">
+        <v>69</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D189" s="21">
+        <v>43629</v>
+      </c>
+      <c r="E189" s="20">
+        <v>2019</v>
+      </c>
+      <c r="F189" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G189" s="23"/>
+      <c r="H189" s="23"/>
+      <c r="I189" s="23"/>
     </row>
   </sheetData>
   <sortState ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="281">
+  <mergeCells count="283">
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F167:I169"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A148:A152"/>
     <mergeCell ref="E186:E188"/>
     <mergeCell ref="F186:I188"/>
     <mergeCell ref="B186:B188"/>
@@ -6139,263 +6190,6 @@
     <mergeCell ref="B174:B175"/>
     <mergeCell ref="F170:I172"/>
     <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="F119:I120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E123:E135"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F167:I169"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shows que já fui.xlsx
+++ b/Shows que já fui.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbaf7\Documents\GitHub\Shows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C248FC-338D-4BC1-AA7A-0AE1B4F3C7EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08702673-B1A5-43D0-810E-B04772BE592B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="182">
   <si>
     <t>Banda</t>
   </si>
@@ -559,6 +559,18 @@
   </si>
   <si>
     <t>Palheta do Iommi</t>
+  </si>
+  <si>
+    <t>Torture Squad</t>
+  </si>
+  <si>
+    <t>Chuck Billy</t>
+  </si>
+  <si>
+    <t>Raimundos 25 Anos</t>
+  </si>
+  <si>
+    <t>Jimmy &amp; Rats</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -755,19 +767,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,52 +809,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,19 +836,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J204" sqref="J204"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,16 +1192,16 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="25"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="10" t="s">
         <v>85</v>
       </c>
@@ -1201,27 +1219,27 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="38">
         <v>39424</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="26">
         <v>2007</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="8">
         <v>2007</v>
       </c>
@@ -1231,7 +1249,7 @@
       </c>
       <c r="L2" s="8">
         <f>SUM(K2:K51)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>39</v>
@@ -1249,17 +1267,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="7">
         <v>2012</v>
       </c>
@@ -1284,28 +1302,28 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="52">
         <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="52" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="38">
         <v>41034</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="41">
         <v>2012</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="7">
         <v>2013</v>
       </c>
@@ -1326,21 +1344,21 @@
       </c>
       <c r="P4" s="3">
         <f>COUNTIF(F2:F1050,"Circo Voador")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="7">
         <v>2014</v>
       </c>
@@ -1381,12 +1399,12 @@
       <c r="E6" s="7">
         <v>2012</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="7">
         <v>2015</v>
       </c>
@@ -1407,7 +1425,7 @@
       </c>
       <c r="P6" s="3">
         <f>COUNTIF(F2:F1050,"Rock In Rio")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1427,12 +1445,12 @@
       <c r="E7" s="7">
         <v>2013</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="7">
         <v>2016</v>
       </c>
@@ -1446,7 +1464,7 @@
       </c>
       <c r="N7" s="7">
         <f>COUNTIF(C1:C1008,"Claustrofobia")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>24</v>
@@ -1457,27 +1475,27 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="52">
         <v>5</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="38">
         <v>41468</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="41">
         <v>2013</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="7">
         <v>2017</v>
       </c>
@@ -1502,17 +1520,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="7">
         <v>2018</v>
       </c>
@@ -1537,23 +1555,23 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="7">
         <v>2019</v>
       </c>
       <c r="K10" s="7">
         <f>COUNTIF(E2:E1000,"2019")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
@@ -1572,27 +1590,27 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="52">
         <v>6</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="38">
         <v>41536</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="41">
         <v>2013</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1612,17 +1630,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1642,17 +1660,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1672,17 +1690,17 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1691,7 +1709,7 @@
       </c>
       <c r="N14" s="7">
         <f>COUNTIF(C2:C1017,"Anthrax")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>167</v>
@@ -1702,17 +1720,17 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1732,27 +1750,27 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="52">
         <v>7</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="38">
         <v>41560</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="41">
         <v>2013</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1772,17 +1790,17 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1817,12 +1835,12 @@
       <c r="E18" s="7">
         <v>2014</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1858,12 +1876,12 @@
       <c r="E19" s="7">
         <v>2014</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1899,12 +1917,12 @@
       <c r="E20" s="7">
         <v>2014</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1940,12 +1958,12 @@
       <c r="E21" s="7">
         <v>2014</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1965,28 +1983,28 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="52">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="38">
         <v>41893</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="41">
         <v>2014</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -2001,17 +2019,17 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2026,17 +2044,17 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2045,7 +2063,7 @@
       </c>
       <c r="N24" s="7">
         <f>COUNTIF(C2:C1026,"IRON MAIDEN")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2066,12 +2084,12 @@
       <c r="E25" s="7">
         <v>2014</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2086,28 +2104,28 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="52">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="38">
         <v>41917</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="41">
         <v>2014</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2122,17 +2140,17 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2147,27 +2165,27 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="52">
         <v>15</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="38">
         <v>42029</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="41">
         <v>2015</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2182,17 +2200,17 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2207,17 +2225,17 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2247,12 +2265,12 @@
       <c r="E31" s="7">
         <v>2015</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2267,28 +2285,28 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="52">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="55" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="38">
         <v>42119</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="41">
         <v>2015</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2303,17 +2321,17 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2328,17 +2346,17 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2368,12 +2386,12 @@
       <c r="E35" s="7">
         <v>2015</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2388,28 +2406,28 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="52">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="52" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="38">
         <v>42203</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="41">
         <v>2015</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2418,23 +2436,23 @@
       </c>
       <c r="N36" s="7">
         <f>COUNTIF(C2:C1081,"Raimundos")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2449,27 +2467,27 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="52">
         <v>20</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="38">
         <v>42266</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="41">
         <v>2015</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2478,23 +2496,23 @@
       </c>
       <c r="N38" s="7">
         <f>COUNTIF(C2:C1084,"Sepultura")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
       <c r="J39" s="7" t="s">
         <v>89</v>
       </c>
@@ -2511,27 +2529,27 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+      <c r="A40" s="52">
         <v>21</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="38">
         <v>42271</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="41">
         <v>2015</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2546,17 +2564,17 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2571,17 +2589,17 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2596,27 +2614,27 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="A43" s="52">
         <v>22</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="38">
         <v>42272</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="41">
         <v>2015</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2631,17 +2649,17 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2656,17 +2674,17 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="22"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2681,17 +2699,17 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="22"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -2706,27 +2724,27 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
+      <c r="A47" s="52">
         <v>23</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="56">
         <v>42308</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="52">
         <v>2015</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
       <c r="J47" s="22"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -2741,15 +2759,15 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
       <c r="J48" s="22"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -2764,28 +2782,28 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="33">
+      <c r="A49" s="52">
         <f>(A47+1)</f>
         <v>24</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="38">
         <v>42321</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="44">
         <v>2015</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
       <c r="J49" s="22"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -2800,17 +2818,17 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
       <c r="J50" s="22"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -2840,12 +2858,12 @@
       <c r="E51" s="6">
         <v>2015</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="22"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -2876,12 +2894,12 @@
       <c r="E52" s="6">
         <v>2015</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="22"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -2896,28 +2914,28 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="33">
+      <c r="A53" s="52">
         <f>(A52+1)</f>
         <v>27</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="38">
         <v>42393</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="44">
         <v>2016</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
       <c r="J53" s="22"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -2932,15 +2950,15 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
       <c r="J54" s="22"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -2955,15 +2973,15 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
       <c r="J55" s="22"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -2978,15 +2996,15 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="22"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
@@ -3001,17 +3019,17 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
       <c r="J57" s="22"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3026,15 +3044,15 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
       <c r="J58" s="22"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3049,15 +3067,15 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
       <c r="J59" s="22"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -3072,15 +3090,15 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="22"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -3089,34 +3107,34 @@
       </c>
       <c r="N60" s="3">
         <f>COUNTIF(C2:C1075,"Helloween")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="33">
+      <c r="A61" s="52">
         <f>(A53+1)</f>
         <v>28</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="49" t="s">
         <v>126</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="38">
         <v>42397</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61" s="44">
         <v>2016</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
       <c r="J61" s="22"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -3131,17 +3149,17 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="22"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -3156,27 +3174,27 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
+      <c r="A63" s="52">
         <v>29</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="49" t="s">
         <v>127</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="38">
         <v>42446</v>
       </c>
-      <c r="E63" s="49">
+      <c r="E63" s="44">
         <v>2016</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
       <c r="J63" s="22"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3191,17 +3209,17 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
       <c r="J64" s="22"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -3216,27 +3234,27 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
+      <c r="A65" s="52">
         <v>30</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="49" t="s">
         <v>128</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="38">
         <v>42467</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="44">
         <v>2016</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
       <c r="J65" s="22"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -3251,17 +3269,17 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="22"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -3291,12 +3309,12 @@
       <c r="E67" s="6">
         <v>2016</v>
       </c>
-      <c r="F67" s="33" t="s">
+      <c r="F67" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
       <c r="J67" s="22"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -3311,28 +3329,28 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
+      <c r="A68" s="52">
         <f t="shared" ref="A68" si="2">(A67+1)</f>
         <v>32</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="29">
         <v>42574</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="44">
         <v>2016</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F68" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="22"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -3347,17 +3365,17 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
       <c r="J69" s="22"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -3372,17 +3390,17 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
       <c r="J70" s="22"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -3397,27 +3415,27 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="A71" s="52">
         <v>33</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D71" s="50">
         <v>42588</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="49">
         <v>2016</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
       <c r="J71" s="22"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
@@ -3432,15 +3450,15 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
       <c r="J72" s="22"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -3455,15 +3473,15 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
       <c r="J73" s="22"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -3478,15 +3496,15 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
       <c r="J74" s="22"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -3501,15 +3519,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
       <c r="J75" s="22"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -3519,15 +3537,15 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
       <c r="J76" s="22"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -3537,15 +3555,15 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
       <c r="J77" s="22"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -3555,15 +3573,15 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
       <c r="J78" s="22"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
@@ -3573,15 +3591,15 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
       <c r="J79" s="22"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -3591,15 +3609,15 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
       <c r="J80" s="22"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -3609,28 +3627,28 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="33">
+      <c r="A81" s="52">
         <f>(A71+1)</f>
         <v>34</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D81" s="50">
         <v>42589</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E81" s="49">
         <v>2016</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
       <c r="J81" s="22"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -3640,15 +3658,15 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
       <c r="J82" s="22"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -3658,15 +3676,15 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="22"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -3676,15 +3694,15 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
       <c r="J84" s="22"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -3694,15 +3712,15 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
       <c r="J85" s="22"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -3712,15 +3730,15 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
       <c r="J86" s="22"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -3730,15 +3748,15 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
       <c r="J87" s="22"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -3748,15 +3766,15 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="22"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -3766,15 +3784,15 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
       <c r="J89" s="22"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -3784,15 +3802,15 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
       <c r="J90" s="22"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -3802,15 +3820,15 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
       <c r="J91" s="22"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -3820,15 +3838,15 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
       <c r="J92" s="22"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -3838,15 +3856,15 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
       <c r="J93" s="22"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -3856,15 +3874,15 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
       <c r="J94" s="22"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -3874,15 +3892,15 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
       <c r="J95" s="22"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -3892,28 +3910,28 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
+      <c r="A96" s="25">
         <f>(A81+1)</f>
         <v>35</v>
       </c>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="53" t="s">
         <v>73</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="28">
+      <c r="D96" s="50">
         <v>42622</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="44">
         <v>2016</v>
       </c>
-      <c r="F96" s="23" t="s">
+      <c r="F96" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
       <c r="J96" s="1"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -3923,17 +3941,17 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="39"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
       <c r="J97" s="1"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -3943,28 +3961,28 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
+      <c r="A98" s="25">
         <f>(A96+1)</f>
         <v>36</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="25" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="28">
+      <c r="D98" s="50">
         <v>42629</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="35">
         <v>2016</v>
       </c>
-      <c r="F98" s="23" t="s">
+      <c r="F98" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
       <c r="J98" s="1"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -3974,17 +3992,17 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
       <c r="J99" s="22"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -3994,28 +4012,28 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
+      <c r="A100" s="25">
         <f>(A98+1)</f>
         <v>37</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D100" s="50">
         <v>42637</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="35">
         <v>2016</v>
       </c>
-      <c r="F100" s="23" t="s">
+      <c r="F100" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
       <c r="J100" s="1"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -4025,17 +4043,17 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
       <c r="J101" s="1"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -4045,28 +4063,28 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="23">
+      <c r="A102" s="25">
         <f>(A100+1)</f>
         <v>38</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D102" s="28">
+      <c r="D102" s="50">
         <v>42643</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="35">
         <v>2016</v>
       </c>
-      <c r="F102" s="23" t="s">
+      <c r="F102" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
       <c r="J102" s="1"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -4076,17 +4094,17 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
       <c r="J103" s="1"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -4096,17 +4114,17 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
       <c r="J104" s="1"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -4116,28 +4134,28 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="23">
+      <c r="A105" s="25">
         <f>(A102+1)</f>
         <v>39</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D105" s="28">
+      <c r="D105" s="50">
         <v>42672</v>
       </c>
-      <c r="E105" s="32">
+      <c r="E105" s="51">
         <v>2016</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="F105" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
       <c r="J105" s="22"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -4147,15 +4165,15 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
       <c r="J106" s="22"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -4165,15 +4183,15 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
       <c r="J107" s="22"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
@@ -4183,27 +4201,27 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="23">
+      <c r="A108" s="25">
         <v>40</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D108" s="43">
+      <c r="D108" s="29">
         <v>42673</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E108" s="32">
         <v>2016</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="F108" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
       <c r="J108" s="22"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
@@ -4213,15 +4231,15 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
       <c r="J109" s="22"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
@@ -4231,17 +4249,17 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D110" s="44"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
       <c r="J110" s="22"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -4251,28 +4269,28 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="23">
+      <c r="A111" s="25">
         <f>(A108+1)</f>
         <v>41</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="25" t="s">
         <v>83</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D111" s="43">
+      <c r="D111" s="29">
         <v>42679</v>
       </c>
-      <c r="E111" s="40">
+      <c r="E111" s="32">
         <v>2016</v>
       </c>
-      <c r="F111" s="23" t="s">
+      <c r="F111" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
       <c r="J111" s="22"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -4282,17 +4300,17 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="44"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
       <c r="J112" s="22"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -4302,28 +4320,28 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="23">
+      <c r="A113" s="25">
         <f>(A111+1)</f>
         <v>42</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="25" t="s">
         <v>83</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="43">
+      <c r="D113" s="29">
         <v>42680</v>
       </c>
-      <c r="E113" s="40">
+      <c r="E113" s="32">
         <v>2016</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
       <c r="J113" s="22"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -4333,17 +4351,17 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="44"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
       <c r="J114" s="22"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -4369,12 +4387,12 @@
       <c r="E115" s="4">
         <v>2016</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="F115" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
       <c r="J115" s="1"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -4384,28 +4402,28 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="23">
+      <c r="A116" s="25">
         <v>44</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D116" s="43">
+      <c r="D116" s="29">
         <v>42706</v>
       </c>
-      <c r="E116" s="40">
+      <c r="E116" s="32">
         <v>2016</v>
       </c>
-      <c r="F116" s="23" t="s">
+      <c r="F116" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="46" t="s">
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="26" t="s">
         <v>177</v>
       </c>
       <c r="K116" s="7"/>
@@ -4416,18 +4434,18 @@
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="23"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="34" t="s">
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="45"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="56"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="27"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="3"/>
@@ -4436,16 +4454,16 @@
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="47"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="28"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="3"/>
@@ -4454,27 +4472,27 @@
       <c r="P118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="23">
+      <c r="A119" s="25">
         <v>45</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="28">
+      <c r="D119" s="50">
         <v>42718</v>
       </c>
-      <c r="E119" s="32">
+      <c r="E119" s="51">
         <v>2016</v>
       </c>
-      <c r="F119" s="23" t="s">
+      <c r="F119" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
       <c r="J119" s="22"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -4484,15 +4502,15 @@
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="23"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
       <c r="J120" s="22"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
@@ -4502,27 +4520,27 @@
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="23">
+      <c r="A121" s="25">
         <v>46</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D121" s="43">
+      <c r="D121" s="29">
         <v>42852</v>
       </c>
-      <c r="E121" s="40">
+      <c r="E121" s="32">
         <v>2017</v>
       </c>
-      <c r="F121" s="23" t="s">
+      <c r="F121" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
       <c r="J121" s="22"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
@@ -4532,17 +4550,17 @@
       <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D122" s="44"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
       <c r="J122" s="22"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -4552,27 +4570,27 @@
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="23">
+      <c r="A123" s="25">
         <v>47</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="43">
+      <c r="D123" s="29">
         <v>42868</v>
       </c>
-      <c r="E123" s="40">
+      <c r="E123" s="32">
         <v>2017</v>
       </c>
-      <c r="F123" s="23" t="s">
+      <c r="F123" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
       <c r="J123" s="22"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
@@ -4582,17 +4600,17 @@
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23" t="s">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="45"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="23"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
       <c r="J124" s="22"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -4602,15 +4620,15 @@
       <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="23"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
       <c r="J125" s="22"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
@@ -4620,17 +4638,17 @@
       <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="23"/>
-      <c r="B126" s="23"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D126" s="45"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="23"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
       <c r="J126" s="22"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
@@ -4640,17 +4658,17 @@
       <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="23"/>
-      <c r="B127" s="23"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="45"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
       <c r="J127" s="22"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
@@ -4660,17 +4678,17 @@
       <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="23"/>
-      <c r="B128" s="23"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="45"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
       <c r="J128" s="22"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
@@ -4680,17 +4698,17 @@
       <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="23"/>
-      <c r="B129" s="23"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="45"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
       <c r="J129" s="22"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
@@ -4700,17 +4718,17 @@
       <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="23"/>
-      <c r="B130" s="23"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D130" s="45"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
       <c r="J130" s="22"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
@@ -4720,17 +4738,17 @@
       <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="23"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="32" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D131" s="45"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
       <c r="J131" s="22"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
@@ -4740,15 +4758,15 @@
       <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="23"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
       <c r="J132" s="22"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
@@ -4758,17 +4776,17 @@
       <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="23"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="32" t="s">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="23"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
       <c r="J133" s="22"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
@@ -4778,15 +4796,15 @@
       <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="23"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="23"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
       <c r="J134" s="22"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
@@ -4796,17 +4814,17 @@
       <c r="P134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="23"/>
-      <c r="B135" s="23"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D135" s="44"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
       <c r="J135" s="22"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
@@ -4816,27 +4834,27 @@
       <c r="P135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="23">
+      <c r="A136" s="25">
         <v>48</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="25" t="s">
         <v>105</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D136" s="43">
+      <c r="D136" s="29">
         <v>42910</v>
       </c>
-      <c r="E136" s="40">
+      <c r="E136" s="32">
         <v>2017</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
       <c r="J136" s="1"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -4846,17 +4864,17 @@
       <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="23"/>
-      <c r="B137" s="23"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D137" s="45"/>
-      <c r="E137" s="42"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
       <c r="J137" s="1"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -4866,17 +4884,17 @@
       <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="23"/>
-      <c r="B138" s="23"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D138" s="44"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
       <c r="J138" s="1"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -4886,27 +4904,27 @@
       <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="23">
+      <c r="A139" s="25">
         <v>49</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="25" t="s">
         <v>108</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D139" s="43">
+      <c r="D139" s="29">
         <v>42931</v>
       </c>
-      <c r="E139" s="40">
+      <c r="E139" s="32">
         <v>2017</v>
       </c>
-      <c r="F139" s="23" t="s">
+      <c r="F139" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
       <c r="J139" s="1"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -4916,17 +4934,17 @@
       <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="23"/>
-      <c r="B140" s="23"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D140" s="45"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="23"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
       <c r="J140" s="1"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -4936,17 +4954,17 @@
       <c r="P140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="23"/>
-      <c r="B141" s="23"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="44"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="23"/>
-      <c r="I141" s="23"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
       <c r="J141" s="1"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -4956,27 +4974,27 @@
       <c r="P141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="23">
+      <c r="A142" s="25">
         <v>50</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="25" t="s">
         <v>86</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D142" s="43">
+      <c r="D142" s="29">
         <v>43001</v>
       </c>
-      <c r="E142" s="40">
+      <c r="E142" s="32">
         <v>2017</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="23"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
       <c r="J142" s="22"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -4986,18 +5004,18 @@
       <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="23"/>
-      <c r="B143" s="23"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D143" s="45"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23"/>
-      <c r="H143" s="23"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="46"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="26"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -5006,18 +5024,18 @@
       <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="23"/>
-      <c r="B144" s="23"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D144" s="44"/>
-      <c r="E144" s="41"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="47"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="28"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5026,27 +5044,27 @@
       <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="23">
+      <c r="A145" s="25">
         <v>51</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="25" t="s">
         <v>86</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="43">
+      <c r="D145" s="29">
         <v>43002</v>
       </c>
-      <c r="E145" s="40">
+      <c r="E145" s="32">
         <v>2017</v>
       </c>
-      <c r="F145" s="23" t="s">
+      <c r="F145" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G145" s="23"/>
-      <c r="H145" s="23"/>
-      <c r="I145" s="23"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
       <c r="J145" s="1"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5056,17 +5074,17 @@
       <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="23"/>
-      <c r="B146" s="23"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D146" s="45"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
       <c r="J146" s="1"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5076,17 +5094,17 @@
       <c r="P146" s="3"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="23"/>
-      <c r="B147" s="23"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D147" s="44"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
       <c r="J147" s="1"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -5096,27 +5114,27 @@
       <c r="P147" s="3"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="33">
+      <c r="A148" s="52">
         <v>52</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D148" s="28">
+      <c r="D148" s="50">
         <v>43036</v>
       </c>
-      <c r="E148" s="32">
+      <c r="E148" s="51">
         <v>2017</v>
       </c>
-      <c r="F148" s="23" t="s">
+      <c r="F148" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
       <c r="J148" s="22"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -5126,15 +5144,15 @@
       <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
       <c r="J149" s="1"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -5144,15 +5162,15 @@
       <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
       <c r="J150" s="1"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -5162,15 +5180,15 @@
       <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
       <c r="J151" s="1"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -5180,15 +5198,15 @@
       <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="23"/>
-      <c r="I152" s="23"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
       <c r="J152" s="1"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -5213,12 +5231,12 @@
       <c r="E153" s="4">
         <v>2017</v>
       </c>
-      <c r="F153" s="23" t="s">
+      <c r="F153" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="23"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
       <c r="J153" s="1"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5228,27 +5246,27 @@
       <c r="P153" s="3"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="23">
+      <c r="A154" s="25">
         <v>54</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="25" t="s">
         <v>121</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D154" s="43">
+      <c r="D154" s="29">
         <v>43156</v>
       </c>
-      <c r="E154" s="40">
+      <c r="E154" s="32">
         <v>2018</v>
       </c>
-      <c r="F154" s="23" t="s">
+      <c r="F154" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="23"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
       <c r="J154" s="22"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5258,17 +5276,17 @@
       <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="23"/>
-      <c r="B155" s="23"/>
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D155" s="45"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="23"/>
-      <c r="I155" s="23"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
       <c r="J155" s="1"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5278,17 +5296,17 @@
       <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="23"/>
-      <c r="B156" s="23"/>
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D156" s="44"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="34"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
       <c r="J156" s="1"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5313,12 +5331,12 @@
       <c r="E157" s="4">
         <v>2018</v>
       </c>
-      <c r="F157" s="23" t="s">
+      <c r="F157" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="23"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
       <c r="J157" s="1"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5328,136 +5346,136 @@
       <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="23">
+      <c r="A158" s="25">
         <v>56</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="B158" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D158" s="43">
+      <c r="D158" s="29">
         <v>43309</v>
       </c>
-      <c r="E158" s="40">
+      <c r="E158" s="32">
         <v>2018</v>
       </c>
-      <c r="F158" s="23" t="s">
+      <c r="F158" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="23"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="23"/>
-      <c r="B159" s="23"/>
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D159" s="45"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="23"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="23"/>
-      <c r="B160" s="23"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D160" s="45"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
       <c r="C161" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="44"/>
-      <c r="E161" s="41"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="35"/>
       <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="23">
+      <c r="A162" s="25">
         <v>57</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="25" t="s">
         <v>109</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D162" s="43">
+      <c r="D162" s="29">
         <v>43330</v>
       </c>
-      <c r="E162" s="29">
+      <c r="E162" s="35">
         <v>2018</v>
       </c>
-      <c r="F162" s="23" t="s">
+      <c r="F162" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="G162" s="23"/>
-      <c r="H162" s="23"/>
-      <c r="I162" s="23"/>
-      <c r="J162" s="35"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="48"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="23"/>
-      <c r="B163" s="23"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D163" s="45"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="23"/>
-      <c r="J163" s="35"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="48"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="23"/>
-      <c r="B164" s="23"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
       <c r="C164" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D164" s="45"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="23"/>
-      <c r="G164" s="23"/>
-      <c r="H164" s="23"/>
-      <c r="I164" s="23"/>
-      <c r="J164" s="55"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="47"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="23"/>
-      <c r="B165" s="23"/>
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
       <c r="C165" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D165" s="44"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
-      <c r="I165" s="23"/>
-      <c r="J165" s="55"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="47"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
@@ -5475,115 +5493,115 @@
       <c r="E166" s="4">
         <v>2018</v>
       </c>
-      <c r="F166" s="23" t="s">
+      <c r="F166" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G166" s="23"/>
-      <c r="H166" s="23"/>
-      <c r="I166" s="23"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
       <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="23">
+      <c r="A167" s="25">
         <v>59</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="25" t="s">
         <v>142</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D167" s="43">
+      <c r="D167" s="29">
         <v>43370</v>
       </c>
-      <c r="E167" s="40">
+      <c r="E167" s="32">
         <v>2018</v>
       </c>
-      <c r="F167" s="23" t="s">
+      <c r="F167" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G167" s="23"/>
-      <c r="H167" s="23"/>
-      <c r="I167" s="23"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
       <c r="J167" s="14"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="23"/>
-      <c r="B168" s="23"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D168" s="45"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
-      <c r="I168" s="23"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
       <c r="J168" s="14"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="23"/>
-      <c r="B169" s="23"/>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
       <c r="C169" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D169" s="44"/>
-      <c r="E169" s="41"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
-      <c r="H169" s="23"/>
-      <c r="I169" s="23"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
       <c r="J169" s="14"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="29">
+      <c r="A170" s="35">
         <v>60</v>
       </c>
-      <c r="B170" s="29" t="s">
+      <c r="B170" s="35" t="s">
         <v>144</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D170" s="43">
+      <c r="D170" s="29">
         <v>43400</v>
       </c>
-      <c r="E170" s="40">
+      <c r="E170" s="32">
         <v>2018</v>
       </c>
-      <c r="F170" s="23" t="s">
+      <c r="F170" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G170" s="23"/>
-      <c r="H170" s="23"/>
-      <c r="I170" s="23"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
       <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="30"/>
-      <c r="B171" s="30"/>
+      <c r="A171" s="36"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D171" s="45"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="23"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="23"/>
-      <c r="I171" s="23"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="37"/>
       <c r="C172" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="44"/>
-      <c r="E172" s="41"/>
-      <c r="F172" s="23"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="23"/>
-      <c r="I172" s="23"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
@@ -5601,112 +5619,112 @@
       <c r="E173" s="4">
         <v>2018</v>
       </c>
-      <c r="F173" s="23" t="s">
+      <c r="F173" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G173" s="23"/>
-      <c r="H173" s="23"/>
-      <c r="I173" s="23"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="23">
+      <c r="A174" s="25">
         <v>62</v>
       </c>
-      <c r="B174" s="29" t="s">
+      <c r="B174" s="35" t="s">
         <v>151</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D174" s="43">
+      <c r="D174" s="29">
         <v>43415</v>
       </c>
-      <c r="E174" s="29">
+      <c r="E174" s="35">
         <v>2018</v>
       </c>
-      <c r="F174" s="23" t="s">
+      <c r="F174" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
-      <c r="I174" s="23"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="23"/>
-      <c r="B175" s="31"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="45"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="23"/>
-      <c r="H175" s="23"/>
-      <c r="I175" s="23"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="23"/>
+      <c r="A176" s="25"/>
       <c r="B176" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D176" s="44"/>
-      <c r="E176" s="31"/>
-      <c r="F176" s="23"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="23"/>
-      <c r="I176" s="23"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="23">
+      <c r="A177" s="25">
         <v>63</v>
       </c>
-      <c r="B177" s="29" t="s">
+      <c r="B177" s="35" t="s">
         <v>157</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D177" s="43">
+      <c r="D177" s="29">
         <v>43420</v>
       </c>
-      <c r="E177" s="40">
+      <c r="E177" s="32">
         <v>2018</v>
       </c>
-      <c r="F177" s="23" t="s">
+      <c r="F177" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G177" s="23"/>
-      <c r="H177" s="23"/>
-      <c r="I177" s="23"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="23"/>
-      <c r="B178" s="30"/>
+      <c r="A178" s="25"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D178" s="45"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="23"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="23"/>
-      <c r="B179" s="31"/>
+      <c r="A179" s="25"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D179" s="44"/>
-      <c r="E179" s="41"/>
-      <c r="F179" s="23"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="23"/>
-      <c r="I179" s="23"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
@@ -5724,84 +5742,84 @@
       <c r="E180" s="12">
         <v>2018</v>
       </c>
-      <c r="F180" s="23" t="s">
+      <c r="F180" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G180" s="23"/>
-      <c r="H180" s="23"/>
-      <c r="I180" s="23"/>
+      <c r="G180" s="25"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="23">
+      <c r="A181" s="25">
         <v>65</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="25" t="s">
         <v>160</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D181" s="28">
+      <c r="D181" s="50">
         <v>43461</v>
       </c>
-      <c r="E181" s="23">
+      <c r="E181" s="25">
         <v>2018</v>
       </c>
-      <c r="F181" s="23" t="s">
+      <c r="F181" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G181" s="23"/>
-      <c r="H181" s="23"/>
-      <c r="I181" s="23"/>
+      <c r="G181" s="25"/>
+      <c r="H181" s="25"/>
+      <c r="I181" s="25"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="23"/>
-      <c r="B182" s="23"/>
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
       <c r="C182" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D182" s="28"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="23"/>
-      <c r="H182" s="23"/>
-      <c r="I182" s="23"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="23">
+      <c r="A183" s="25">
         <v>66</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D183" s="28">
+      <c r="D183" s="50">
         <v>43814</v>
       </c>
-      <c r="E183" s="23">
+      <c r="E183" s="25">
         <v>2019</v>
       </c>
-      <c r="F183" s="23" t="s">
+      <c r="F183" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G183" s="23"/>
-      <c r="H183" s="23"/>
-      <c r="I183" s="23"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="23"/>
-      <c r="B184" s="23"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
       <c r="C184" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D184" s="28"/>
-      <c r="E184" s="23"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="23"/>
-      <c r="H184" s="23"/>
-      <c r="I184" s="23"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="25"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
@@ -5819,18 +5837,18 @@
       <c r="E185" s="16">
         <v>2019</v>
       </c>
-      <c r="F185" s="23" t="s">
+      <c r="F185" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="G185" s="23"/>
-      <c r="H185" s="23"/>
-      <c r="I185" s="23"/>
+      <c r="G185" s="25"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="25"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="23">
+      <c r="A186" s="25">
         <v>68</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="25" t="s">
         <v>173</v>
       </c>
       <c r="C186" s="18" t="s">
@@ -5839,45 +5857,45 @@
       <c r="D186" s="19">
         <v>43568</v>
       </c>
-      <c r="E186" s="23">
+      <c r="E186" s="25">
         <v>2019</v>
       </c>
-      <c r="F186" s="23" t="s">
+      <c r="F186" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G186" s="23"/>
-      <c r="H186" s="23"/>
-      <c r="I186" s="23"/>
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="23"/>
-      <c r="B187" s="23"/>
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
       <c r="C187" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D187" s="19">
         <v>43568</v>
       </c>
-      <c r="E187" s="23"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="23"/>
-      <c r="I187" s="23"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="23"/>
-      <c r="B188" s="23"/>
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
       <c r="C188" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D188" s="19">
         <v>43568</v>
       </c>
-      <c r="E188" s="23"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="23"/>
-      <c r="H188" s="23"/>
-      <c r="I188" s="23"/>
+      <c r="E188" s="25"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
@@ -5895,61 +5913,405 @@
       <c r="E189" s="20">
         <v>2019</v>
       </c>
-      <c r="F189" s="23" t="s">
+      <c r="F189" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G189" s="23"/>
-      <c r="H189" s="23"/>
-      <c r="I189" s="23"/>
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="25">
+        <v>70</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D190" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E190" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F190" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G190" s="25"/>
+      <c r="H190" s="25"/>
+      <c r="I190" s="25"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D191" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E191" s="25"/>
+      <c r="F191" s="25"/>
+      <c r="G191" s="25"/>
+      <c r="H191" s="25"/>
+      <c r="I191" s="25"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D192" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E192" s="25"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="25"/>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="25"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E194" s="25"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D195" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E195" s="25"/>
+      <c r="F195" s="25"/>
+      <c r="G195" s="25"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D196" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E196" s="25"/>
+      <c r="F196" s="25"/>
+      <c r="G196" s="25"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" s="24">
+        <v>43742</v>
+      </c>
+      <c r="E197" s="25"/>
+      <c r="F197" s="25"/>
+      <c r="G197" s="25"/>
+      <c r="H197" s="25"/>
+      <c r="I197" s="25"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="25">
+        <v>71</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D198" s="24">
+        <v>43826</v>
+      </c>
+      <c r="E198" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F198" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G198" s="25"/>
+      <c r="H198" s="25"/>
+      <c r="I198" s="25"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="24">
+        <v>43826</v>
+      </c>
+      <c r="E199" s="25"/>
+      <c r="F199" s="25"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="25"/>
+      <c r="I199" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="M3:N51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:N51">
     <sortCondition descending="1" ref="N3:N51"/>
   </sortState>
-  <mergeCells count="283">
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F167:I169"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E123:E135"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="E162:E165"/>
+  <mergeCells count="291">
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="B190:B197"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F190:I197"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:I199"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="F186:I188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="F181:I182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:I184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="F177:I179"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="F174:I176"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="F170:I172"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="F142:I144"/>
+    <mergeCell ref="F145:I147"/>
+    <mergeCell ref="F148:I152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="F154:I156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="F123:I135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F136:I138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="F121:I122"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="F81:I95"/>
+    <mergeCell ref="F71:I80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F28:I30"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F22:I24"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F53:I60"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I46"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F32:I34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F116:I118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F111:I112"/>
+    <mergeCell ref="F113:I114"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F68:I70"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F102:I104"/>
+    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="F108:I110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="F162:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F158:I161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="D167:D169"/>
     <mergeCell ref="B170:B172"/>
     <mergeCell ref="F173:I173"/>
     <mergeCell ref="E2:E3"/>
@@ -5974,222 +6336,52 @@
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="E100:E101"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="F162:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F158:I161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="F108:I110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C81:C95"/>
-    <mergeCell ref="D81:D95"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F116:I118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:I112"/>
-    <mergeCell ref="F113:I114"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F68:I70"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="F102:I104"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F53:I60"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F43:I46"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F32:I34"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F28:I30"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F22:I24"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="F81:I95"/>
-    <mergeCell ref="F71:I80"/>
-    <mergeCell ref="E71:E80"/>
-    <mergeCell ref="D71:D80"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="F96:I97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="F119:I120"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E165"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="F154:I156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="F123:I135"/>
-    <mergeCell ref="B123:B135"/>
-    <mergeCell ref="A123:A135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="F136:I138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="F121:I122"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="F142:I144"/>
-    <mergeCell ref="F145:I147"/>
-    <mergeCell ref="F148:I152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="E186:E188"/>
-    <mergeCell ref="F186:I188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="F181:I182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:I184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="F177:I179"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="F174:I176"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="F170:I172"/>
-    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F167:I169"/>
+    <mergeCell ref="F119:I120"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
